--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy400_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy400_ptAll-nph_tileExpand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F255AC0-FA87-48AE-B6E0-560B44FC5434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA9EC8-36E2-4C7A-847D-BDB508D53265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="14490" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="average" sheetId="6" r:id="rId1"/>
@@ -729,13 +729,26 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11091426071741033"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.85341907261592309"/>
+          <c:h val="0.78185987168270632"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>N=1</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -833,61 +846,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>16.909830769230769</c:v>
+                  <c:v>17.23591634615385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.529319230769232</c:v>
+                  <c:v>18.878749999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.947376923076924</c:v>
+                  <c:v>20.313032371794876</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.999284615384621</c:v>
+                  <c:v>21.354677884615388</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.366232051282047</c:v>
+                  <c:v>21.779724038461531</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.706700000000001</c:v>
+                  <c:v>22.104230128205124</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.887039743589746</c:v>
+                  <c:v>22.29774358974359</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.835582051282046</c:v>
+                  <c:v>22.268152243589743</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.917998717948723</c:v>
+                  <c:v>22.378147115384621</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.918410256410262</c:v>
+                  <c:v>22.383321153846161</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.021707692307686</c:v>
+                  <c:v>22.524962499999994</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22.096375641025642</c:v>
+                  <c:v>22.580151602564101</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22.1096576923077</c:v>
+                  <c:v>22.610210256410255</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22.141389743589748</c:v>
+                  <c:v>22.634574999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.250193589743599</c:v>
+                  <c:v>22.749571794871798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22.288241025641018</c:v>
+                  <c:v>22.793363461538462</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22.176043589743578</c:v>
+                  <c:v>22.69820352564102</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22.155919230769239</c:v>
+                  <c:v>22.683748717948724</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>22.275970512820511</c:v>
+                  <c:v>22.794874038461536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -895,13 +908,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000000-82C1-4C53-BB09-08E13F3E67B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>N=2</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -999,61 +1015,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.024170512820522</c:v>
+                  <c:v>17.291458012820517</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.073202564102569</c:v>
+                  <c:v>19.301215705128207</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.93600769230769</c:v>
+                  <c:v>21.136026602564101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.884916666666658</c:v>
+                  <c:v>22.058010897435892</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.315194871794876</c:v>
+                  <c:v>22.519056089743593</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.471134615384617</c:v>
+                  <c:v>22.646645833333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.599669230769226</c:v>
+                  <c:v>22.767449679487179</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.618425641025638</c:v>
+                  <c:v>22.814139743589742</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22.811114102564098</c:v>
+                  <c:v>23.02130064102564</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.923828205128213</c:v>
+                  <c:v>23.123757692307692</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.104216666666673</c:v>
+                  <c:v>23.354841666666672</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.140232051282041</c:v>
+                  <c:v>23.358410256410252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.138370512820519</c:v>
+                  <c:v>23.386335576923077</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.15403717948718</c:v>
+                  <c:v>23.392670512820516</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.205534615384611</c:v>
+                  <c:v>23.43043269230769</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.217211538461537</c:v>
+                  <c:v>23.432930128205129</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.248267948717952</c:v>
+                  <c:v>23.500928525641029</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.309441025641025</c:v>
+                  <c:v>23.564544551282054</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.345485897435889</c:v>
+                  <c:v>23.591149038461541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1061,13 +1077,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000001-82C1-4C53-BB09-08E13F3E67B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
+          <c:tx>
+            <c:v>N=3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1165,61 +1184,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.272782051282057</c:v>
+                  <c:v>17.528198717948719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.34985897435897</c:v>
+                  <c:v>19.555371474358971</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.212976923076926</c:v>
+                  <c:v>21.379004807692311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.27448076923076</c:v>
+                  <c:v>22.423802564102559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.745719230769236</c:v>
+                  <c:v>22.931094230769229</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.999110256410262</c:v>
+                  <c:v>23.182351282051282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.203498717948715</c:v>
+                  <c:v>23.393377243589747</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.202425641025638</c:v>
+                  <c:v>23.409429807692309</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.364739743589734</c:v>
+                  <c:v>23.581668910256411</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.480076923076929</c:v>
+                  <c:v>23.682445833333333</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.636847435897437</c:v>
+                  <c:v>23.882925641025643</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.700301282051285</c:v>
+                  <c:v>23.922077564102562</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.682803846153853</c:v>
+                  <c:v>23.935152564102562</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.728834615384613</c:v>
+                  <c:v>23.971645512820515</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.820328205128206</c:v>
+                  <c:v>24.066922115384617</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.859155128205128</c:v>
+                  <c:v>24.10449134615385</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.817733333333337</c:v>
+                  <c:v>24.078456730769233</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.868192307692304</c:v>
+                  <c:v>24.130399038461537</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.942687179487173</c:v>
+                  <c:v>24.200632692307693</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1227,13 +1246,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000002-82C1-4C53-BB09-08E13F3E67B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
+          <c:tx>
+            <c:v>N=4</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1331,61 +1353,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.310923076923075</c:v>
+                  <c:v>17.547102243589745</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.63426153846153</c:v>
+                  <c:v>19.79319743589744</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.608951282051279</c:v>
+                  <c:v>21.725263782051282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.224717948717949</c:v>
+                  <c:v>22.350893269230767</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.61620512820512</c:v>
+                  <c:v>22.781944230769227</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.554734615384618</c:v>
+                  <c:v>22.717795512820512</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.693446153846164</c:v>
+                  <c:v>22.848016346153852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.737529487179479</c:v>
+                  <c:v>22.916784615384614</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.060852564102554</c:v>
+                  <c:v>23.220244871794868</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.056633333333341</c:v>
+                  <c:v>23.226355128205135</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.410166666666662</c:v>
+                  <c:v>23.589633974358975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.301905128205131</c:v>
+                  <c:v>23.468601923076925</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.320062820512813</c:v>
+                  <c:v>23.513107692307688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.315032051282049</c:v>
+                  <c:v>23.491004487179488</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.31769743589744</c:v>
+                  <c:v>23.496506410256412</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.213105128205132</c:v>
+                  <c:v>23.397791987179495</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.453130769230757</c:v>
+                  <c:v>23.640057371794871</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.51981923076923</c:v>
+                  <c:v>23.701457051282055</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.446294871794869</c:v>
+                  <c:v>23.638172756410253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,13 +1415,16 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000003-82C1-4C53-BB09-08E13F3E67B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
           <c:order val="4"/>
+          <c:tx>
+            <c:v>N=5</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1497,61 +1522,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>17.426308974358978</c:v>
+                  <c:v>17.669300961538465</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.679421794871796</c:v>
+                  <c:v>19.837805448717948</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.552280769230773</c:v>
+                  <c:v>21.652507051282051</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.193143589743602</c:v>
+                  <c:v>22.309620512820512</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.604306410256413</c:v>
+                  <c:v>22.767121153846151</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.603956410256409</c:v>
+                  <c:v>22.779497756410255</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.79833846153846</c:v>
+                  <c:v>22.981329166666669</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.816441025641023</c:v>
+                  <c:v>23.014354487179489</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23.121764102564107</c:v>
+                  <c:v>23.292565384615386</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.095743589743584</c:v>
+                  <c:v>23.273103205128201</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23.433337179487182</c:v>
+                  <c:v>23.619437499999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.336497435897439</c:v>
+                  <c:v>23.512697435897437</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.34396794871795</c:v>
+                  <c:v>23.544421794871791</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>23.352783333333342</c:v>
+                  <c:v>23.540282692307699</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>23.401357692307695</c:v>
+                  <c:v>23.603541025641029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>23.309714102564101</c:v>
+                  <c:v>23.525268589743586</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23.495664102564099</c:v>
+                  <c:v>23.697362179487179</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>23.551088461538463</c:v>
+                  <c:v>23.741741025641026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>23.501671794871797</c:v>
+                  <c:v>23.713309294871795</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1559,7 +1584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-3774-48D8-864E-5CC1F1FD4B91}"/>
+              <c16:uniqueId val="{00000004-82C1-4C53-BB09-08E13F3E67B7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1595,18 +1620,83 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800" baseline="0"/>
+                  <a:t> of layers</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.42227424150652498"/>
+              <c:y val="0.91274509803921566"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1617,16 +1707,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1640,7 +1730,7 @@
         <c:axId val="653846640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="16"/>
+          <c:min val="15"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1658,18 +1748,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP" sz="1800"/>
+                  <a:t>PSNR[dB]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -1680,16 +1823,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ja-JP"/>
@@ -1702,18 +1845,34 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.83958661417322833"/>
+          <c:y val="0.45038340795635839"/>
+          <c:w val="0.10404190297891087"/>
+          <c:h val="0.31546446400082345"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
-        <a:noFill/>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1722,16 +1881,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="ja-JP"/>
@@ -1747,12 +1906,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1762,7 +1916,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -2336,26 +2493,28 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>606425</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>555625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9B191ED-D1DD-5076-4405-B273E9EABC43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17F3A09C-CC77-40BA-BE32-37D7FB168241}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2719,19 +2878,24 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16.909830769230769</v>
+        <f>'N=1'!F2</f>
+        <v>17.23591634615385</v>
       </c>
       <c r="C2">
-        <v>17.024170512820522</v>
+        <f>'N=2'!F2</f>
+        <v>17.291458012820517</v>
       </c>
       <c r="D2">
-        <v>17.272782051282057</v>
+        <f>'N=3'!F2</f>
+        <v>17.528198717948719</v>
       </c>
       <c r="E2">
-        <v>17.310923076923075</v>
+        <f>'N=4'!F2</f>
+        <v>17.547102243589745</v>
       </c>
       <c r="F2">
-        <v>17.426308974358978</v>
+        <f>'N=5'!F2</f>
+        <v>17.669300961538465</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2739,19 +2903,24 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>18.529319230769232</v>
+        <f>'N=1'!F3</f>
+        <v>18.878749999999997</v>
       </c>
       <c r="C3">
-        <v>19.073202564102569</v>
+        <f>'N=2'!F3</f>
+        <v>19.301215705128207</v>
       </c>
       <c r="D3">
-        <v>19.34985897435897</v>
+        <f>'N=3'!F3</f>
+        <v>19.555371474358971</v>
       </c>
       <c r="E3">
-        <v>19.63426153846153</v>
+        <f>'N=4'!F3</f>
+        <v>19.79319743589744</v>
       </c>
       <c r="F3">
-        <v>19.679421794871796</v>
+        <f>'N=5'!F3</f>
+        <v>19.837805448717948</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2759,19 +2928,24 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>19.947376923076924</v>
+        <f>'N=1'!F4</f>
+        <v>20.313032371794876</v>
       </c>
       <c r="C4">
-        <v>20.93600769230769</v>
+        <f>'N=2'!F4</f>
+        <v>21.136026602564101</v>
       </c>
       <c r="D4">
-        <v>21.212976923076926</v>
+        <f>'N=3'!F4</f>
+        <v>21.379004807692311</v>
       </c>
       <c r="E4">
-        <v>21.608951282051279</v>
+        <f>'N=4'!F4</f>
+        <v>21.725263782051282</v>
       </c>
       <c r="F4">
-        <v>21.552280769230773</v>
+        <f>'N=5'!F4</f>
+        <v>21.652507051282051</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2779,19 +2953,24 @@
         <v>25</v>
       </c>
       <c r="B5">
-        <v>20.999284615384621</v>
+        <f>'N=1'!F5</f>
+        <v>21.354677884615388</v>
       </c>
       <c r="C5">
-        <v>21.884916666666658</v>
+        <f>'N=2'!F5</f>
+        <v>22.058010897435892</v>
       </c>
       <c r="D5">
-        <v>22.27448076923076</v>
+        <f>'N=3'!F5</f>
+        <v>22.423802564102559</v>
       </c>
       <c r="E5">
-        <v>22.224717948717949</v>
+        <f>'N=4'!F5</f>
+        <v>22.350893269230767</v>
       </c>
       <c r="F5">
-        <v>22.193143589743602</v>
+        <f>'N=5'!F5</f>
+        <v>22.309620512820512</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2799,19 +2978,24 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>21.366232051282047</v>
+        <f>'N=1'!F6</f>
+        <v>21.779724038461531</v>
       </c>
       <c r="C6">
-        <v>22.315194871794876</v>
+        <f>'N=2'!F6</f>
+        <v>22.519056089743593</v>
       </c>
       <c r="D6">
-        <v>22.745719230769236</v>
+        <f>'N=3'!F6</f>
+        <v>22.931094230769229</v>
       </c>
       <c r="E6">
-        <v>22.61620512820512</v>
+        <f>'N=4'!F6</f>
+        <v>22.781944230769227</v>
       </c>
       <c r="F6">
-        <v>22.604306410256413</v>
+        <f>'N=5'!F6</f>
+        <v>22.767121153846151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2819,19 +3003,24 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>21.706700000000001</v>
+        <f>'N=1'!F7</f>
+        <v>22.104230128205124</v>
       </c>
       <c r="C7">
-        <v>22.471134615384617</v>
+        <f>'N=2'!F7</f>
+        <v>22.646645833333331</v>
       </c>
       <c r="D7">
-        <v>22.999110256410262</v>
+        <f>'N=3'!F7</f>
+        <v>23.182351282051282</v>
       </c>
       <c r="E7">
-        <v>22.554734615384618</v>
+        <f>'N=4'!F7</f>
+        <v>22.717795512820512</v>
       </c>
       <c r="F7">
-        <v>22.603956410256409</v>
+        <f>'N=5'!F7</f>
+        <v>22.779497756410255</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2839,19 +3028,24 @@
         <v>40</v>
       </c>
       <c r="B8">
-        <v>21.887039743589746</v>
+        <f>'N=1'!F8</f>
+        <v>22.29774358974359</v>
       </c>
       <c r="C8">
-        <v>22.599669230769226</v>
+        <f>'N=2'!F8</f>
+        <v>22.767449679487179</v>
       </c>
       <c r="D8">
-        <v>23.203498717948715</v>
+        <f>'N=3'!F8</f>
+        <v>23.393377243589747</v>
       </c>
       <c r="E8">
-        <v>22.693446153846164</v>
+        <f>'N=4'!F8</f>
+        <v>22.848016346153852</v>
       </c>
       <c r="F8">
-        <v>22.79833846153846</v>
+        <f>'N=5'!F8</f>
+        <v>22.981329166666669</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2859,19 +3053,24 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>21.835582051282046</v>
+        <f>'N=1'!F9</f>
+        <v>22.268152243589743</v>
       </c>
       <c r="C9">
-        <v>22.618425641025638</v>
+        <f>'N=2'!F9</f>
+        <v>22.814139743589742</v>
       </c>
       <c r="D9">
-        <v>23.202425641025638</v>
+        <f>'N=3'!F9</f>
+        <v>23.409429807692309</v>
       </c>
       <c r="E9">
-        <v>22.737529487179479</v>
+        <f>'N=4'!F9</f>
+        <v>22.916784615384614</v>
       </c>
       <c r="F9">
-        <v>22.816441025641023</v>
+        <f>'N=5'!F9</f>
+        <v>23.014354487179489</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2879,19 +3078,24 @@
         <v>50</v>
       </c>
       <c r="B10">
-        <v>21.917998717948723</v>
+        <f>'N=1'!F10</f>
+        <v>22.378147115384621</v>
       </c>
       <c r="C10">
-        <v>22.811114102564098</v>
+        <f>'N=2'!F10</f>
+        <v>23.02130064102564</v>
       </c>
       <c r="D10">
-        <v>23.364739743589734</v>
+        <f>'N=3'!F10</f>
+        <v>23.581668910256411</v>
       </c>
       <c r="E10">
-        <v>23.060852564102554</v>
+        <f>'N=4'!F10</f>
+        <v>23.220244871794868</v>
       </c>
       <c r="F10">
-        <v>23.121764102564107</v>
+        <f>'N=5'!F10</f>
+        <v>23.292565384615386</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2899,19 +3103,24 @@
         <v>55</v>
       </c>
       <c r="B11">
-        <v>21.918410256410262</v>
+        <f>'N=1'!F11</f>
+        <v>22.383321153846161</v>
       </c>
       <c r="C11">
-        <v>22.923828205128213</v>
+        <f>'N=2'!F11</f>
+        <v>23.123757692307692</v>
       </c>
       <c r="D11">
-        <v>23.480076923076929</v>
+        <f>'N=3'!F11</f>
+        <v>23.682445833333333</v>
       </c>
       <c r="E11">
-        <v>23.056633333333341</v>
+        <f>'N=4'!F11</f>
+        <v>23.226355128205135</v>
       </c>
       <c r="F11">
-        <v>23.095743589743584</v>
+        <f>'N=5'!F11</f>
+        <v>23.273103205128201</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2919,19 +3128,24 @@
         <v>60</v>
       </c>
       <c r="B12">
-        <v>22.021707692307686</v>
+        <f>'N=1'!F12</f>
+        <v>22.524962499999994</v>
       </c>
       <c r="C12">
-        <v>23.104216666666673</v>
+        <f>'N=2'!F12</f>
+        <v>23.354841666666672</v>
       </c>
       <c r="D12">
-        <v>23.636847435897437</v>
+        <f>'N=3'!F12</f>
+        <v>23.882925641025643</v>
       </c>
       <c r="E12">
-        <v>23.410166666666662</v>
+        <f>'N=4'!F12</f>
+        <v>23.589633974358975</v>
       </c>
       <c r="F12">
-        <v>23.433337179487182</v>
+        <f>'N=5'!F12</f>
+        <v>23.619437499999997</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2939,19 +3153,24 @@
         <v>65</v>
       </c>
       <c r="B13">
-        <v>22.096375641025642</v>
+        <f>'N=1'!F13</f>
+        <v>22.580151602564101</v>
       </c>
       <c r="C13">
-        <v>23.140232051282041</v>
+        <f>'N=2'!F13</f>
+        <v>23.358410256410252</v>
       </c>
       <c r="D13">
-        <v>23.700301282051285</v>
+        <f>'N=3'!F13</f>
+        <v>23.922077564102562</v>
       </c>
       <c r="E13">
-        <v>23.301905128205131</v>
+        <f>'N=4'!F13</f>
+        <v>23.468601923076925</v>
       </c>
       <c r="F13">
-        <v>23.336497435897439</v>
+        <f>'N=5'!F13</f>
+        <v>23.512697435897437</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2959,19 +3178,24 @@
         <v>70</v>
       </c>
       <c r="B14">
-        <v>22.1096576923077</v>
+        <f>'N=1'!F14</f>
+        <v>22.610210256410255</v>
       </c>
       <c r="C14">
-        <v>23.138370512820519</v>
+        <f>'N=2'!F14</f>
+        <v>23.386335576923077</v>
       </c>
       <c r="D14">
-        <v>23.682803846153853</v>
+        <f>'N=3'!F14</f>
+        <v>23.935152564102562</v>
       </c>
       <c r="E14">
-        <v>23.320062820512813</v>
+        <f>'N=4'!F14</f>
+        <v>23.513107692307688</v>
       </c>
       <c r="F14">
-        <v>23.34396794871795</v>
+        <f>'N=5'!F14</f>
+        <v>23.544421794871791</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2979,19 +3203,24 @@
         <v>75</v>
       </c>
       <c r="B15">
-        <v>22.141389743589748</v>
+        <f>'N=1'!F15</f>
+        <v>22.634574999999998</v>
       </c>
       <c r="C15">
-        <v>23.15403717948718</v>
+        <f>'N=2'!F15</f>
+        <v>23.392670512820516</v>
       </c>
       <c r="D15">
-        <v>23.728834615384613</v>
+        <f>'N=3'!F15</f>
+        <v>23.971645512820515</v>
       </c>
       <c r="E15">
-        <v>23.315032051282049</v>
+        <f>'N=4'!F15</f>
+        <v>23.491004487179488</v>
       </c>
       <c r="F15">
-        <v>23.352783333333342</v>
+        <f>'N=5'!F15</f>
+        <v>23.540282692307699</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2999,19 +3228,24 @@
         <v>80</v>
       </c>
       <c r="B16">
-        <v>22.250193589743599</v>
+        <f>'N=1'!F16</f>
+        <v>22.749571794871798</v>
       </c>
       <c r="C16">
-        <v>23.205534615384611</v>
+        <f>'N=2'!F16</f>
+        <v>23.43043269230769</v>
       </c>
       <c r="D16">
-        <v>23.820328205128206</v>
+        <f>'N=3'!F16</f>
+        <v>24.066922115384617</v>
       </c>
       <c r="E16">
-        <v>23.31769743589744</v>
+        <f>'N=4'!F16</f>
+        <v>23.496506410256412</v>
       </c>
       <c r="F16">
-        <v>23.401357692307695</v>
+        <f>'N=5'!F16</f>
+        <v>23.603541025641029</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3019,19 +3253,24 @@
         <v>85</v>
       </c>
       <c r="B17">
-        <v>22.288241025641018</v>
+        <f>'N=1'!F17</f>
+        <v>22.793363461538462</v>
       </c>
       <c r="C17">
-        <v>23.217211538461537</v>
+        <f>'N=2'!F17</f>
+        <v>23.432930128205129</v>
       </c>
       <c r="D17">
-        <v>23.859155128205128</v>
+        <f>'N=3'!F17</f>
+        <v>24.10449134615385</v>
       </c>
       <c r="E17">
-        <v>23.213105128205132</v>
+        <f>'N=4'!F17</f>
+        <v>23.397791987179495</v>
       </c>
       <c r="F17">
-        <v>23.309714102564101</v>
+        <f>'N=5'!F17</f>
+        <v>23.525268589743586</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3039,19 +3278,24 @@
         <v>90</v>
       </c>
       <c r="B18">
-        <v>22.176043589743578</v>
+        <f>'N=1'!F18</f>
+        <v>22.69820352564102</v>
       </c>
       <c r="C18">
-        <v>23.248267948717952</v>
+        <f>'N=2'!F18</f>
+        <v>23.500928525641029</v>
       </c>
       <c r="D18">
-        <v>23.817733333333337</v>
+        <f>'N=3'!F18</f>
+        <v>24.078456730769233</v>
       </c>
       <c r="E18">
-        <v>23.453130769230757</v>
+        <f>'N=4'!F18</f>
+        <v>23.640057371794871</v>
       </c>
       <c r="F18">
-        <v>23.495664102564099</v>
+        <f>'N=5'!F18</f>
+        <v>23.697362179487179</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3059,19 +3303,24 @@
         <v>95</v>
       </c>
       <c r="B19">
-        <v>22.155919230769239</v>
+        <f>'N=1'!F19</f>
+        <v>22.683748717948724</v>
       </c>
       <c r="C19">
-        <v>23.309441025641025</v>
+        <f>'N=2'!F19</f>
+        <v>23.564544551282054</v>
       </c>
       <c r="D19">
-        <v>23.868192307692304</v>
+        <f>'N=3'!F19</f>
+        <v>24.130399038461537</v>
       </c>
       <c r="E19">
-        <v>23.51981923076923</v>
+        <f>'N=4'!F19</f>
+        <v>23.701457051282055</v>
       </c>
       <c r="F19">
-        <v>23.551088461538463</v>
+        <f>'N=5'!F19</f>
+        <v>23.741741025641026</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3079,19 +3328,24 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>22.275970512820511</v>
+        <f>'N=1'!F20</f>
+        <v>22.794874038461536</v>
       </c>
       <c r="C20">
-        <v>23.345485897435889</v>
+        <f>'N=2'!F20</f>
+        <v>23.591149038461541</v>
       </c>
       <c r="D20">
-        <v>23.942687179487173</v>
+        <f>'N=3'!F20</f>
+        <v>24.200632692307693</v>
       </c>
       <c r="E20">
-        <v>23.446294871794869</v>
+        <f>'N=4'!F20</f>
+        <v>23.638172756410253</v>
       </c>
       <c r="F20">
-        <v>23.501671794871797</v>
+        <f>'N=5'!F20</f>
+        <v>23.713309294871795</v>
       </c>
     </row>
   </sheetData>
@@ -3103,7 +3357,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35F5954-E7CD-4758-8230-9A4C512CB0F4}">
-  <dimension ref="A1:CA39"/>
+  <dimension ref="A1:CB39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A39"/>
@@ -3111,4659 +3365,4659 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A1">
-        <f>AVERAGE(B1:CA1)</f>
-        <v>17.426308974358978</v>
-      </c>
-      <c r="B1">
-        <v>18.709599999999998</v>
+        <f>AVERAGE(C1:CB1)</f>
+        <v>18.662774358974364</v>
       </c>
       <c r="C1">
-        <v>30.385000000000002</v>
+        <v>19.318100000000001</v>
       </c>
       <c r="D1">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E1">
-        <v>18.966899999999999</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F1">
-        <v>22.515799999999999</v>
+        <v>18.929600000000001</v>
       </c>
       <c r="G1">
-        <v>15.757199999999999</v>
+        <v>22.8903</v>
       </c>
       <c r="H1">
-        <v>18.869599999999998</v>
+        <v>16.188099999999999</v>
       </c>
       <c r="I1">
-        <v>25.5839</v>
+        <v>19.506900000000002</v>
       </c>
       <c r="J1">
-        <v>22.677700000000002</v>
+        <v>26.5914</v>
       </c>
       <c r="K1">
-        <v>17.5276</v>
+        <v>22.6492</v>
       </c>
       <c r="L1">
-        <v>16.137899999999998</v>
+        <v>18.1755</v>
       </c>
       <c r="M1">
-        <v>15.647600000000001</v>
+        <v>16.8324</v>
       </c>
       <c r="N1">
-        <v>17.051100000000002</v>
+        <v>16.6846</v>
       </c>
       <c r="O1">
-        <v>18.969200000000001</v>
+        <v>17.9543</v>
       </c>
       <c r="P1">
-        <v>20.064900000000002</v>
+        <v>19.6358</v>
       </c>
       <c r="Q1">
-        <v>21.578900000000001</v>
+        <v>21.0091</v>
       </c>
       <c r="R1">
-        <v>24.554300000000001</v>
+        <v>22.725100000000001</v>
       </c>
       <c r="S1">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T1">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U1">
-        <v>22.8628</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V1">
-        <v>21.5182</v>
+        <v>23.303799999999999</v>
       </c>
       <c r="W1">
-        <v>20.5031</v>
+        <v>22.035</v>
       </c>
       <c r="X1">
-        <v>19.1846</v>
+        <v>21.059000000000001</v>
       </c>
       <c r="Y1">
-        <v>19.177</v>
+        <v>20.037800000000001</v>
       </c>
       <c r="Z1">
-        <v>17.882999999999999</v>
+        <v>19.889199999999999</v>
       </c>
       <c r="AA1">
-        <v>17.824300000000001</v>
+        <v>18.9071</v>
       </c>
       <c r="AB1">
-        <v>17.017099999999999</v>
+        <v>18.744900000000001</v>
       </c>
       <c r="AC1">
-        <v>17.046399999999998</v>
+        <v>18.202400000000001</v>
       </c>
       <c r="AD1">
-        <v>16.354299999999999</v>
+        <v>18.157499999999999</v>
       </c>
       <c r="AE1">
-        <v>16.334800000000001</v>
+        <v>17.572600000000001</v>
       </c>
       <c r="AF1">
-        <v>15.85</v>
+        <v>17.479099999999999</v>
       </c>
       <c r="AG1">
-        <v>15.8698</v>
+        <v>17.130700000000001</v>
       </c>
       <c r="AH1">
-        <v>15.7896</v>
+        <v>17.125800000000002</v>
       </c>
       <c r="AI1">
-        <v>15.283799999999999</v>
+        <v>17.028400000000001</v>
       </c>
       <c r="AJ1">
-        <v>15.2568</v>
+        <v>16.693000000000001</v>
       </c>
       <c r="AK1">
-        <v>15.2333</v>
+        <v>16.652899999999999</v>
       </c>
       <c r="AL1">
-        <v>15.2562</v>
+        <v>16.604700000000001</v>
       </c>
       <c r="AM1">
-        <v>14.728400000000001</v>
+        <v>16.618300000000001</v>
       </c>
       <c r="AN1">
-        <v>14.209300000000001</v>
+        <v>16.252099999999999</v>
       </c>
       <c r="AO1">
-        <v>14.1854</v>
+        <v>15.821899999999999</v>
       </c>
       <c r="AP1">
-        <v>14.1707</v>
+        <v>15.805199999999999</v>
       </c>
       <c r="AQ1">
-        <v>14.1967</v>
+        <v>15.8184</v>
       </c>
       <c r="AR1">
-        <v>14.2178</v>
+        <v>15.8421</v>
       </c>
       <c r="AS1">
-        <v>14.1975</v>
+        <v>15.870100000000001</v>
       </c>
       <c r="AT1">
-        <v>14.212999999999999</v>
+        <v>15.864599999999999</v>
       </c>
       <c r="AU1">
-        <v>14.2209</v>
+        <v>15.902900000000001</v>
       </c>
       <c r="AV1">
-        <v>14.2477</v>
+        <v>15.942</v>
       </c>
       <c r="AW1">
-        <v>14.2433</v>
+        <v>15.9899</v>
       </c>
       <c r="AX1">
-        <v>14.235900000000001</v>
+        <v>16.012699999999999</v>
       </c>
       <c r="AY1">
-        <v>14.208</v>
+        <v>16.055900000000001</v>
       </c>
       <c r="AZ1">
-        <v>14.2216</v>
+        <v>16.153099999999998</v>
       </c>
       <c r="BA1">
-        <v>14.2582</v>
+        <v>16.180199999999999</v>
       </c>
       <c r="BB1">
-        <v>14.2613</v>
+        <v>16.177</v>
       </c>
       <c r="BC1">
-        <v>16.587700000000002</v>
+        <v>16.192599999999999</v>
       </c>
       <c r="BD1">
-        <v>16.5915</v>
+        <v>18.062899999999999</v>
       </c>
       <c r="BE1">
-        <v>16.5961</v>
+        <v>18.079699999999999</v>
       </c>
       <c r="BF1">
-        <v>16.578900000000001</v>
+        <v>18.053100000000001</v>
       </c>
       <c r="BG1">
-        <v>16.601500000000001</v>
+        <v>18.039100000000001</v>
       </c>
       <c r="BH1">
-        <v>16.597899999999999</v>
+        <v>18.037700000000001</v>
       </c>
       <c r="BI1">
-        <v>16.570699999999999</v>
+        <v>17.998100000000001</v>
       </c>
       <c r="BJ1">
-        <v>16.605899999999998</v>
+        <v>17.974799999999998</v>
       </c>
       <c r="BK1">
-        <v>16.602699999999999</v>
+        <v>17.991</v>
       </c>
       <c r="BL1">
-        <v>16.600999999999999</v>
+        <v>17.976700000000001</v>
       </c>
       <c r="BM1">
-        <v>16.5975</v>
+        <v>17.976900000000001</v>
       </c>
       <c r="BN1">
-        <v>16.573</v>
+        <v>17.989899999999999</v>
       </c>
       <c r="BO1">
-        <v>16.562999999999999</v>
+        <v>17.959800000000001</v>
       </c>
       <c r="BP1">
-        <v>16.5901</v>
+        <v>17.9283</v>
       </c>
       <c r="BQ1">
-        <v>16.560199999999998</v>
+        <v>17.965499999999999</v>
       </c>
       <c r="BR1">
-        <v>16.565100000000001</v>
+        <v>17.942399999999999</v>
       </c>
       <c r="BS1">
-        <v>16.587800000000001</v>
+        <v>17.9834</v>
       </c>
       <c r="BT1">
-        <v>16.584800000000001</v>
+        <v>17.992000000000001</v>
       </c>
       <c r="BU1">
-        <v>16.554200000000002</v>
+        <v>17.991700000000002</v>
       </c>
       <c r="BV1">
-        <v>16.547699999999999</v>
+        <v>17.970199999999998</v>
       </c>
       <c r="BW1">
-        <v>16.5564</v>
+        <v>17.972999999999999</v>
       </c>
       <c r="BX1">
-        <v>16.5672</v>
+        <v>17.991800000000001</v>
       </c>
       <c r="BY1">
-        <v>16.564900000000002</v>
+        <v>17.997800000000002</v>
       </c>
       <c r="BZ1">
-        <v>16.583500000000001</v>
+        <v>18.0092</v>
       </c>
       <c r="CA1">
-        <v>16.5944</v>
-      </c>
-    </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.0398</v>
+      </c>
+      <c r="CB1">
+        <v>18.058800000000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <f t="shared" ref="A2:A19" si="0">AVERAGE(B2:CA2)</f>
-        <v>19.679421794871796</v>
-      </c>
-      <c r="B2">
-        <v>28.193200000000001</v>
+        <f t="shared" ref="A2:A19" si="0">AVERAGE(C2:CB2)</f>
+        <v>20.714446153846154</v>
       </c>
       <c r="C2">
-        <v>18.6204</v>
+        <v>30.014299999999999</v>
       </c>
       <c r="D2">
-        <v>29.486000000000001</v>
+        <v>19.0303</v>
       </c>
       <c r="E2">
-        <v>29.561800000000002</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F2">
-        <v>21.461600000000001</v>
+        <v>30.627400000000002</v>
       </c>
       <c r="G2">
-        <v>22.636099999999999</v>
+        <v>21.665700000000001</v>
       </c>
       <c r="H2">
-        <v>18.869599999999998</v>
+        <v>22.699300000000001</v>
       </c>
       <c r="I2">
-        <v>25.5839</v>
+        <v>19.506900000000002</v>
       </c>
       <c r="J2">
-        <v>22.677700000000002</v>
+        <v>26.5914</v>
       </c>
       <c r="K2">
-        <v>17.5276</v>
+        <v>22.6492</v>
       </c>
       <c r="L2">
-        <v>19.233699999999999</v>
+        <v>18.1755</v>
       </c>
       <c r="M2">
-        <v>22.414300000000001</v>
+        <v>19.805599999999998</v>
       </c>
       <c r="N2">
-        <v>24.8232</v>
+        <v>23.0747</v>
       </c>
       <c r="O2">
-        <v>23.5062</v>
+        <v>25.7058</v>
       </c>
       <c r="P2">
-        <v>21.569900000000001</v>
+        <v>24.220800000000001</v>
       </c>
       <c r="Q2">
-        <v>20.398299999999999</v>
+        <v>22.189800000000002</v>
       </c>
       <c r="R2">
-        <v>17.9999</v>
+        <v>20.814800000000002</v>
       </c>
       <c r="S2">
-        <v>16.9772</v>
+        <v>18.824400000000001</v>
       </c>
       <c r="T2">
-        <v>17.1572</v>
+        <v>18.0059</v>
       </c>
       <c r="U2">
-        <v>17.260899999999999</v>
+        <v>18.1966</v>
       </c>
       <c r="V2">
-        <v>17.937100000000001</v>
+        <v>18.421800000000001</v>
       </c>
       <c r="W2">
-        <v>19.2196</v>
+        <v>19.086600000000001</v>
       </c>
       <c r="X2">
-        <v>20.354399999999998</v>
+        <v>20.2531</v>
       </c>
       <c r="Y2">
-        <v>20.177</v>
+        <v>21.278099999999998</v>
       </c>
       <c r="Z2">
-        <v>22.031400000000001</v>
+        <v>21.398599999999998</v>
       </c>
       <c r="AA2">
-        <v>21.923200000000001</v>
+        <v>22.855499999999999</v>
       </c>
       <c r="AB2">
-        <v>22.898099999999999</v>
+        <v>23.010200000000001</v>
       </c>
       <c r="AC2">
-        <v>22.569500000000001</v>
+        <v>23.786200000000001</v>
       </c>
       <c r="AD2">
-        <v>23.8323</v>
+        <v>23.630800000000001</v>
       </c>
       <c r="AE2">
-        <v>23.473800000000001</v>
+        <v>24.457899999999999</v>
       </c>
       <c r="AF2">
-        <v>23.3249</v>
+        <v>24.2117</v>
       </c>
       <c r="AG2">
-        <v>23.085599999999999</v>
+        <v>24.004999999999999</v>
       </c>
       <c r="AH2">
-        <v>22.805099999999999</v>
+        <v>23.808800000000002</v>
       </c>
       <c r="AI2">
-        <v>22.190100000000001</v>
+        <v>23.503799999999998</v>
       </c>
       <c r="AJ2">
-        <v>22.0001</v>
+        <v>22.9924</v>
       </c>
       <c r="AK2">
-        <v>21.825900000000001</v>
+        <v>22.790299999999998</v>
       </c>
       <c r="AL2">
-        <v>21.687100000000001</v>
+        <v>22.586500000000001</v>
       </c>
       <c r="AM2">
-        <v>20.9575</v>
+        <v>22.3674</v>
       </c>
       <c r="AN2">
-        <v>20.809799999999999</v>
+        <v>21.795300000000001</v>
       </c>
       <c r="AO2">
-        <v>20.663599999999999</v>
+        <v>21.608000000000001</v>
       </c>
       <c r="AP2">
-        <v>20.6081</v>
+        <v>21.386500000000002</v>
       </c>
       <c r="AQ2">
-        <v>19.577200000000001</v>
+        <v>21.2974</v>
       </c>
       <c r="AR2">
-        <v>19.5044</v>
+        <v>20.611799999999999</v>
       </c>
       <c r="AS2">
-        <v>19.4361</v>
+        <v>20.4984</v>
       </c>
       <c r="AT2">
-        <v>19.371300000000002</v>
+        <v>20.3995</v>
       </c>
       <c r="AU2">
-        <v>19.277100000000001</v>
+        <v>20.306999999999999</v>
       </c>
       <c r="AV2">
-        <v>18.5884</v>
+        <v>20.228300000000001</v>
       </c>
       <c r="AW2">
-        <v>18.564</v>
+        <v>19.735700000000001</v>
       </c>
       <c r="AX2">
-        <v>18.517199999999999</v>
+        <v>19.738</v>
       </c>
       <c r="AY2">
-        <v>18.486899999999999</v>
+        <v>19.6601</v>
       </c>
       <c r="AZ2">
-        <v>18.367100000000001</v>
+        <v>19.615500000000001</v>
       </c>
       <c r="BA2">
-        <v>18.310099999999998</v>
+        <v>19.516400000000001</v>
       </c>
       <c r="BB2">
-        <v>18.223500000000001</v>
+        <v>19.429500000000001</v>
       </c>
       <c r="BC2">
-        <v>17.374700000000001</v>
+        <v>19.3523</v>
       </c>
       <c r="BD2">
-        <v>17.368300000000001</v>
+        <v>18.7897</v>
       </c>
       <c r="BE2">
-        <v>17.366700000000002</v>
+        <v>18.775400000000001</v>
       </c>
       <c r="BF2">
-        <v>17.386800000000001</v>
+        <v>18.7575</v>
       </c>
       <c r="BG2">
-        <v>17.374199999999998</v>
+        <v>18.759599999999999</v>
       </c>
       <c r="BH2">
-        <v>16.597899999999999</v>
+        <v>18.735499999999998</v>
       </c>
       <c r="BI2">
-        <v>16.570699999999999</v>
+        <v>17.998100000000001</v>
       </c>
       <c r="BJ2">
-        <v>16.605899999999998</v>
+        <v>17.974799999999998</v>
       </c>
       <c r="BK2">
-        <v>16.602699999999999</v>
+        <v>17.991</v>
       </c>
       <c r="BL2">
-        <v>16.600999999999999</v>
+        <v>17.976700000000001</v>
       </c>
       <c r="BM2">
-        <v>16.5975</v>
+        <v>17.976900000000001</v>
       </c>
       <c r="BN2">
-        <v>16.573</v>
+        <v>17.989899999999999</v>
       </c>
       <c r="BO2">
-        <v>16.562999999999999</v>
+        <v>17.959800000000001</v>
       </c>
       <c r="BP2">
-        <v>16.5901</v>
+        <v>17.9283</v>
       </c>
       <c r="BQ2">
-        <v>16.560199999999998</v>
+        <v>17.965499999999999</v>
       </c>
       <c r="BR2">
-        <v>16.565100000000001</v>
+        <v>17.942399999999999</v>
       </c>
       <c r="BS2">
-        <v>16.587800000000001</v>
+        <v>17.9834</v>
       </c>
       <c r="BT2">
-        <v>16.584800000000001</v>
+        <v>17.992000000000001</v>
       </c>
       <c r="BU2">
-        <v>16.554200000000002</v>
+        <v>17.991700000000002</v>
       </c>
       <c r="BV2">
-        <v>16.547699999999999</v>
+        <v>17.970199999999998</v>
       </c>
       <c r="BW2">
-        <v>16.5564</v>
+        <v>17.972999999999999</v>
       </c>
       <c r="BX2">
-        <v>16.5672</v>
+        <v>17.991800000000001</v>
       </c>
       <c r="BY2">
-        <v>16.564900000000002</v>
+        <v>17.997800000000002</v>
       </c>
       <c r="BZ2">
-        <v>16.583500000000001</v>
+        <v>18.0092</v>
       </c>
       <c r="CA2">
-        <v>16.5944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.0398</v>
+      </c>
+      <c r="CB2">
+        <v>18.058800000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>21.552280769230773</v>
-      </c>
-      <c r="B3">
-        <v>28.0944</v>
+        <v>22.404116666666667</v>
       </c>
       <c r="C3">
-        <v>30.385000000000002</v>
+        <v>27.068300000000001</v>
       </c>
       <c r="D3">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E3">
-        <v>21.8095</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F3">
-        <v>22.515799999999999</v>
+        <v>22.354099999999999</v>
       </c>
       <c r="G3">
-        <v>27.475899999999999</v>
+        <v>22.8903</v>
       </c>
       <c r="H3">
-        <v>18.869599999999998</v>
+        <v>28.547599999999999</v>
       </c>
       <c r="I3">
-        <v>25.5839</v>
+        <v>19.506900000000002</v>
       </c>
       <c r="J3">
-        <v>22.677700000000002</v>
+        <v>26.5914</v>
       </c>
       <c r="K3">
-        <v>20.0365</v>
+        <v>22.6492</v>
       </c>
       <c r="L3">
-        <v>24.6252</v>
+        <v>20.606400000000001</v>
       </c>
       <c r="M3">
-        <v>25.482299999999999</v>
+        <v>25.267700000000001</v>
       </c>
       <c r="N3">
-        <v>21.4681</v>
+        <v>25.8703</v>
       </c>
       <c r="O3">
-        <v>19.302900000000001</v>
+        <v>22.113199999999999</v>
       </c>
       <c r="P3">
-        <v>20.064900000000002</v>
+        <v>19.906500000000001</v>
       </c>
       <c r="Q3">
-        <v>21.578900000000001</v>
+        <v>21.0091</v>
       </c>
       <c r="R3">
-        <v>24.554300000000001</v>
+        <v>22.725100000000001</v>
       </c>
       <c r="S3">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T3">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U3">
-        <v>22.8628</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V3">
-        <v>21.5182</v>
+        <v>23.303799999999999</v>
       </c>
       <c r="W3">
-        <v>20.5031</v>
+        <v>22.035</v>
       </c>
       <c r="X3">
-        <v>19.1846</v>
+        <v>21.059000000000001</v>
       </c>
       <c r="Y3">
-        <v>19.177</v>
+        <v>20.037800000000001</v>
       </c>
       <c r="Z3">
-        <v>17.751200000000001</v>
+        <v>19.889199999999999</v>
       </c>
       <c r="AA3">
-        <v>17.761600000000001</v>
+        <v>18.8687</v>
       </c>
       <c r="AB3">
-        <v>18.4132</v>
+        <v>19.018699999999999</v>
       </c>
       <c r="AC3">
-        <v>18.377800000000001</v>
+        <v>19.5243</v>
       </c>
       <c r="AD3">
-        <v>19.190000000000001</v>
+        <v>19.6066</v>
       </c>
       <c r="AE3">
-        <v>19.1892</v>
+        <v>20.342500000000001</v>
       </c>
       <c r="AF3">
-        <v>20.8507</v>
+        <v>20.523599999999998</v>
       </c>
       <c r="AG3">
-        <v>20.817900000000002</v>
+        <v>21.8338</v>
       </c>
       <c r="AH3">
-        <v>20.9499</v>
+        <v>21.965599999999998</v>
       </c>
       <c r="AI3">
-        <v>22.782900000000001</v>
+        <v>22.1782</v>
       </c>
       <c r="AJ3">
-        <v>22.912600000000001</v>
+        <v>23.483000000000001</v>
       </c>
       <c r="AK3">
-        <v>22.8279</v>
+        <v>23.6953</v>
       </c>
       <c r="AL3">
-        <v>22.523299999999999</v>
+        <v>23.7422</v>
       </c>
       <c r="AM3">
-        <v>23.56</v>
+        <v>23.565899999999999</v>
       </c>
       <c r="AN3">
-        <v>23.453399999999998</v>
+        <v>24.301100000000002</v>
       </c>
       <c r="AO3">
-        <v>23.2363</v>
+        <v>24.266100000000002</v>
       </c>
       <c r="AP3">
-        <v>23.0321</v>
+        <v>24.110800000000001</v>
       </c>
       <c r="AQ3">
-        <v>23.4588</v>
+        <v>23.862400000000001</v>
       </c>
       <c r="AR3">
-        <v>23.323799999999999</v>
+        <v>24.013100000000001</v>
       </c>
       <c r="AS3">
-        <v>23.135100000000001</v>
+        <v>23.907299999999999</v>
       </c>
       <c r="AT3">
-        <v>22.950800000000001</v>
+        <v>23.801400000000001</v>
       </c>
       <c r="AU3">
-        <v>22.74</v>
+        <v>23.639800000000001</v>
       </c>
       <c r="AV3">
-        <v>22.494599999999998</v>
+        <v>23.4617</v>
       </c>
       <c r="AW3">
-        <v>22.340199999999999</v>
+        <v>23.255400000000002</v>
       </c>
       <c r="AX3">
-        <v>22.247</v>
+        <v>23.1372</v>
       </c>
       <c r="AY3">
-        <v>22.042100000000001</v>
+        <v>22.972999999999999</v>
       </c>
       <c r="AZ3">
-        <v>21.844899999999999</v>
+        <v>22.759799999999998</v>
       </c>
       <c r="BA3">
-        <v>21.734500000000001</v>
+        <v>22.594200000000001</v>
       </c>
       <c r="BB3">
-        <v>21.571100000000001</v>
+        <v>22.4665</v>
       </c>
       <c r="BC3">
-        <v>20.986999999999998</v>
+        <v>22.355799999999999</v>
       </c>
       <c r="BD3">
-        <v>20.9072</v>
+        <v>21.817799999999998</v>
       </c>
       <c r="BE3">
-        <v>20.766300000000001</v>
+        <v>21.765699999999999</v>
       </c>
       <c r="BF3">
-        <v>20.7197</v>
+        <v>21.6312</v>
       </c>
       <c r="BG3">
-        <v>20.682400000000001</v>
+        <v>21.5715</v>
       </c>
       <c r="BH3">
-        <v>20.5761</v>
+        <v>21.540800000000001</v>
       </c>
       <c r="BI3">
-        <v>20.455300000000001</v>
+        <v>21.441500000000001</v>
       </c>
       <c r="BJ3">
-        <v>20.3794</v>
+        <v>21.346699999999998</v>
       </c>
       <c r="BK3">
-        <v>20.3508</v>
+        <v>21.265499999999999</v>
       </c>
       <c r="BL3">
-        <v>19.838699999999999</v>
+        <v>21.281700000000001</v>
       </c>
       <c r="BM3">
-        <v>19.843599999999999</v>
+        <v>20.918199999999999</v>
       </c>
       <c r="BN3">
-        <v>19.863499999999998</v>
+        <v>20.919899999999998</v>
       </c>
       <c r="BO3">
-        <v>19.8</v>
+        <v>20.9163</v>
       </c>
       <c r="BP3">
-        <v>19.7532</v>
+        <v>20.854299999999999</v>
       </c>
       <c r="BQ3">
-        <v>19.734999999999999</v>
+        <v>20.7866</v>
       </c>
       <c r="BR3">
-        <v>19.6694</v>
+        <v>20.787099999999999</v>
       </c>
       <c r="BS3">
-        <v>19.621600000000001</v>
+        <v>20.688199999999998</v>
       </c>
       <c r="BT3">
-        <v>19.6113</v>
+        <v>20.679300000000001</v>
       </c>
       <c r="BU3">
-        <v>19.587900000000001</v>
+        <v>20.6023</v>
       </c>
       <c r="BV3">
-        <v>19.584299999999999</v>
+        <v>20.587900000000001</v>
       </c>
       <c r="BW3">
-        <v>19.547000000000001</v>
+        <v>20.585699999999999</v>
       </c>
       <c r="BX3">
-        <v>19.042300000000001</v>
+        <v>20.555499999999999</v>
       </c>
       <c r="BY3">
-        <v>19.028099999999998</v>
+        <v>20.235800000000001</v>
       </c>
       <c r="BZ3">
-        <v>18.9954</v>
+        <v>20.208300000000001</v>
       </c>
       <c r="CA3">
-        <v>18.9785</v>
-      </c>
-    </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.181899999999999</v>
+      </c>
+      <c r="CB3">
+        <v>20.167000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>22.193143589743602</v>
-      </c>
-      <c r="B4">
-        <v>23.311299999999999</v>
+        <v>22.990244871794868</v>
       </c>
       <c r="C4">
-        <v>21.987400000000001</v>
+        <v>24.3507</v>
       </c>
       <c r="D4">
-        <v>29.486000000000001</v>
+        <v>22.342199999999998</v>
       </c>
       <c r="E4">
-        <v>25.029800000000002</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F4">
-        <v>27.275500000000001</v>
+        <v>24.9162</v>
       </c>
       <c r="G4">
-        <v>23.6677</v>
+        <v>27.549900000000001</v>
       </c>
       <c r="H4">
-        <v>21.3001</v>
+        <v>24.366800000000001</v>
       </c>
       <c r="I4">
-        <v>25.5839</v>
+        <v>21.675999999999998</v>
       </c>
       <c r="J4">
-        <v>22.677700000000002</v>
+        <v>26.5914</v>
       </c>
       <c r="K4">
-        <v>24.118500000000001</v>
+        <v>22.6492</v>
       </c>
       <c r="L4">
-        <v>25.130700000000001</v>
+        <v>24.717099999999999</v>
       </c>
       <c r="M4">
-        <v>21.1343</v>
+        <v>25.6538</v>
       </c>
       <c r="N4">
-        <v>21.0868</v>
+        <v>21.874700000000001</v>
       </c>
       <c r="O4">
-        <v>24.195</v>
+        <v>21.8186</v>
       </c>
       <c r="P4">
-        <v>25.000499999999999</v>
+        <v>24.688700000000001</v>
       </c>
       <c r="Q4">
-        <v>23.465299999999999</v>
+        <v>25.573399999999999</v>
       </c>
       <c r="R4">
-        <v>21.3553</v>
+        <v>24.069600000000001</v>
       </c>
       <c r="S4">
-        <v>20.195599999999999</v>
+        <v>22.2026</v>
       </c>
       <c r="T4">
-        <v>20.363299999999999</v>
+        <v>20.799900000000001</v>
       </c>
       <c r="U4">
-        <v>20.5059</v>
+        <v>21.162400000000002</v>
       </c>
       <c r="V4">
-        <v>22.021899999999999</v>
+        <v>21.6128</v>
       </c>
       <c r="W4">
-        <v>23.0928</v>
+        <v>22.9633</v>
       </c>
       <c r="X4">
-        <v>24.0092</v>
+        <v>24.1218</v>
       </c>
       <c r="Y4">
-        <v>23.636399999999998</v>
+        <v>24.7258</v>
       </c>
       <c r="Z4">
-        <v>23.560400000000001</v>
+        <v>24.452000000000002</v>
       </c>
       <c r="AA4">
-        <v>23.1082</v>
+        <v>24.2605</v>
       </c>
       <c r="AB4">
-        <v>22.4527</v>
+        <v>23.752400000000002</v>
       </c>
       <c r="AC4">
-        <v>22.166499999999999</v>
+        <v>23.1158</v>
       </c>
       <c r="AD4">
-        <v>21.488600000000002</v>
+        <v>22.689800000000002</v>
       </c>
       <c r="AE4">
-        <v>21.278099999999998</v>
+        <v>22.072800000000001</v>
       </c>
       <c r="AF4">
-        <v>19.8964</v>
+        <v>21.7319</v>
       </c>
       <c r="AG4">
-        <v>17.9727</v>
+        <v>20.8504</v>
       </c>
       <c r="AH4">
-        <v>18.102499999999999</v>
+        <v>19.241800000000001</v>
       </c>
       <c r="AI4">
-        <v>19.040600000000001</v>
+        <v>19.431899999999999</v>
       </c>
       <c r="AJ4">
-        <v>19.117799999999999</v>
+        <v>20.261900000000001</v>
       </c>
       <c r="AK4">
-        <v>19.1539</v>
+        <v>20.458200000000001</v>
       </c>
       <c r="AL4">
-        <v>19.047999999999998</v>
+        <v>20.618600000000001</v>
       </c>
       <c r="AM4">
-        <v>21.534199999999998</v>
+        <v>20.58</v>
       </c>
       <c r="AN4">
-        <v>21.5959</v>
+        <v>22.445399999999999</v>
       </c>
       <c r="AO4">
-        <v>21.552199999999999</v>
+        <v>22.547799999999999</v>
       </c>
       <c r="AP4">
-        <v>21.5166</v>
+        <v>22.545200000000001</v>
       </c>
       <c r="AQ4">
-        <v>22.4969</v>
+        <v>22.5274</v>
       </c>
       <c r="AR4">
-        <v>22.552399999999999</v>
+        <v>23.1707</v>
       </c>
       <c r="AS4">
-        <v>22.549900000000001</v>
+        <v>23.2392</v>
       </c>
       <c r="AT4">
-        <v>22.5487</v>
+        <v>23.3233</v>
       </c>
       <c r="AU4">
-        <v>22.4815</v>
+        <v>23.348700000000001</v>
       </c>
       <c r="AV4">
-        <v>23.208400000000001</v>
+        <v>23.340299999999999</v>
       </c>
       <c r="AW4">
-        <v>23.113700000000001</v>
+        <v>23.7789</v>
       </c>
       <c r="AX4">
-        <v>22.9773</v>
+        <v>23.746500000000001</v>
       </c>
       <c r="AY4">
-        <v>22.895700000000001</v>
+        <v>23.667000000000002</v>
       </c>
       <c r="AZ4">
-        <v>22.750900000000001</v>
+        <v>23.614899999999999</v>
       </c>
       <c r="BA4">
-        <v>22.707799999999999</v>
+        <v>23.532699999999998</v>
       </c>
       <c r="BB4">
-        <v>22.612200000000001</v>
+        <v>23.429300000000001</v>
       </c>
       <c r="BC4">
-        <v>23.022200000000002</v>
+        <v>23.4024</v>
       </c>
       <c r="BD4">
-        <v>22.8216</v>
+        <v>23.6556</v>
       </c>
       <c r="BE4">
-        <v>22.6599</v>
+        <v>23.5182</v>
       </c>
       <c r="BF4">
-        <v>22.509499999999999</v>
+        <v>23.382899999999999</v>
       </c>
       <c r="BG4">
-        <v>22.4221</v>
+        <v>23.2879</v>
       </c>
       <c r="BH4">
-        <v>22.244599999999998</v>
+        <v>23.256799999999998</v>
       </c>
       <c r="BI4">
-        <v>22.056899999999999</v>
+        <v>23.082699999999999</v>
       </c>
       <c r="BJ4">
-        <v>21.993400000000001</v>
+        <v>22.907399999999999</v>
       </c>
       <c r="BK4">
-        <v>21.837800000000001</v>
+        <v>22.830500000000001</v>
       </c>
       <c r="BL4">
-        <v>21.9984</v>
+        <v>22.711500000000001</v>
       </c>
       <c r="BM4">
-        <v>21.990500000000001</v>
+        <v>22.807099999999998</v>
       </c>
       <c r="BN4">
-        <v>22.003</v>
+        <v>22.8002</v>
       </c>
       <c r="BO4">
-        <v>21.830500000000001</v>
+        <v>22.780200000000001</v>
       </c>
       <c r="BP4">
-        <v>21.779699999999998</v>
+        <v>22.6389</v>
       </c>
       <c r="BQ4">
-        <v>21.734300000000001</v>
+        <v>22.573799999999999</v>
       </c>
       <c r="BR4">
-        <v>21.649000000000001</v>
+        <v>22.574000000000002</v>
       </c>
       <c r="BS4">
-        <v>21.6038</v>
+        <v>22.4816</v>
       </c>
       <c r="BT4">
-        <v>21.533999999999999</v>
+        <v>22.469799999999999</v>
       </c>
       <c r="BU4">
-        <v>21.392700000000001</v>
+        <v>22.364000000000001</v>
       </c>
       <c r="BV4">
-        <v>21.320799999999998</v>
+        <v>22.269300000000001</v>
       </c>
       <c r="BW4">
-        <v>21.254999999999999</v>
+        <v>22.217500000000001</v>
       </c>
       <c r="BX4">
-        <v>21.1709</v>
+        <v>22.1767</v>
       </c>
       <c r="BY4">
-        <v>21.082100000000001</v>
+        <v>22.116399999999999</v>
       </c>
       <c r="BZ4">
-        <v>21.0336</v>
+        <v>22.0181</v>
       </c>
       <c r="CA4">
-        <v>21.007300000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>21.985900000000001</v>
+      </c>
+      <c r="CB4">
+        <v>21.952300000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>22.604306410256413</v>
-      </c>
-      <c r="B5">
-        <v>28.193200000000001</v>
+        <v>23.460807692307696</v>
       </c>
       <c r="C5">
-        <v>30.385000000000002</v>
+        <v>30.014299999999999</v>
       </c>
       <c r="D5">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E5">
-        <v>29.561800000000002</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F5">
-        <v>22.515799999999999</v>
+        <v>30.627400000000002</v>
       </c>
       <c r="G5">
-        <v>22.636099999999999</v>
+        <v>22.8903</v>
       </c>
       <c r="H5">
-        <v>24.132999999999999</v>
+        <v>22.699300000000001</v>
       </c>
       <c r="I5">
-        <v>25.5839</v>
+        <v>24.488499999999998</v>
       </c>
       <c r="J5">
-        <v>21.016100000000002</v>
+        <v>26.5914</v>
       </c>
       <c r="K5">
-        <v>26.0473</v>
+        <v>21.655000000000001</v>
       </c>
       <c r="L5">
-        <v>22.320699999999999</v>
+        <v>26.660399999999999</v>
       </c>
       <c r="M5">
-        <v>22.414300000000001</v>
+        <v>22.954999999999998</v>
       </c>
       <c r="N5">
-        <v>24.8232</v>
+        <v>23.0747</v>
       </c>
       <c r="O5">
-        <v>23.5062</v>
+        <v>25.7058</v>
       </c>
       <c r="P5">
-        <v>21.569900000000001</v>
+        <v>24.220800000000001</v>
       </c>
       <c r="Q5">
-        <v>21.578900000000001</v>
+        <v>22.189800000000002</v>
       </c>
       <c r="R5">
-        <v>24.554300000000001</v>
+        <v>22.725100000000001</v>
       </c>
       <c r="S5">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T5">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U5">
-        <v>22.8628</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V5">
-        <v>21.5182</v>
+        <v>23.303799999999999</v>
       </c>
       <c r="W5">
-        <v>20.5031</v>
+        <v>22.035</v>
       </c>
       <c r="X5">
-        <v>20.354399999999998</v>
+        <v>21.059000000000001</v>
       </c>
       <c r="Y5">
-        <v>20.177</v>
+        <v>21.278099999999998</v>
       </c>
       <c r="Z5">
-        <v>22.031400000000001</v>
+        <v>21.398599999999998</v>
       </c>
       <c r="AA5">
-        <v>21.923200000000001</v>
+        <v>22.855499999999999</v>
       </c>
       <c r="AB5">
-        <v>22.898099999999999</v>
+        <v>23.010200000000001</v>
       </c>
       <c r="AC5">
-        <v>22.569500000000001</v>
+        <v>23.786200000000001</v>
       </c>
       <c r="AD5">
-        <v>23.8323</v>
+        <v>23.630800000000001</v>
       </c>
       <c r="AE5">
-        <v>23.473800000000001</v>
+        <v>24.457899999999999</v>
       </c>
       <c r="AF5">
-        <v>23.3249</v>
+        <v>24.2117</v>
       </c>
       <c r="AG5">
-        <v>23.085599999999999</v>
+        <v>24.004999999999999</v>
       </c>
       <c r="AH5">
-        <v>22.805099999999999</v>
+        <v>23.808800000000002</v>
       </c>
       <c r="AI5">
-        <v>22.190100000000001</v>
+        <v>23.503799999999998</v>
       </c>
       <c r="AJ5">
-        <v>22.0001</v>
+        <v>22.9924</v>
       </c>
       <c r="AK5">
-        <v>21.825900000000001</v>
+        <v>22.790299999999998</v>
       </c>
       <c r="AL5">
-        <v>21.687100000000001</v>
+        <v>22.586500000000001</v>
       </c>
       <c r="AM5">
-        <v>20.9575</v>
+        <v>22.3674</v>
       </c>
       <c r="AN5">
-        <v>19.255199999999999</v>
+        <v>21.795300000000001</v>
       </c>
       <c r="AO5">
-        <v>19.247699999999998</v>
+        <v>20.5806</v>
       </c>
       <c r="AP5">
-        <v>19.1877</v>
+        <v>20.6538</v>
       </c>
       <c r="AQ5">
-        <v>21.202500000000001</v>
+        <v>20.633500000000002</v>
       </c>
       <c r="AR5">
-        <v>21.2654</v>
+        <v>22.065999999999999</v>
       </c>
       <c r="AS5">
-        <v>21.294599999999999</v>
+        <v>22.148800000000001</v>
       </c>
       <c r="AT5">
-        <v>21.343</v>
+        <v>22.238900000000001</v>
       </c>
       <c r="AU5">
-        <v>21.344899999999999</v>
+        <v>22.299900000000001</v>
       </c>
       <c r="AV5">
-        <v>22.3233</v>
+        <v>22.3474</v>
       </c>
       <c r="AW5">
-        <v>22.263999999999999</v>
+        <v>23.018599999999999</v>
       </c>
       <c r="AX5">
-        <v>22.21</v>
+        <v>23.020199999999999</v>
       </c>
       <c r="AY5">
-        <v>22.0748</v>
+        <v>23.020299999999999</v>
       </c>
       <c r="AZ5">
-        <v>22.007000000000001</v>
+        <v>22.951799999999999</v>
       </c>
       <c r="BA5">
-        <v>22.0274</v>
+        <v>22.943100000000001</v>
       </c>
       <c r="BB5">
-        <v>21.9483</v>
+        <v>22.917000000000002</v>
       </c>
       <c r="BC5">
-        <v>22.7212</v>
+        <v>22.913599999999999</v>
       </c>
       <c r="BD5">
-        <v>22.6068</v>
+        <v>23.407900000000001</v>
       </c>
       <c r="BE5">
-        <v>22.506900000000002</v>
+        <v>23.341100000000001</v>
       </c>
       <c r="BF5">
-        <v>22.404699999999998</v>
+        <v>23.282</v>
       </c>
       <c r="BG5">
-        <v>22.364699999999999</v>
+        <v>23.226600000000001</v>
       </c>
       <c r="BH5">
-        <v>22.217400000000001</v>
+        <v>23.241299999999999</v>
       </c>
       <c r="BI5">
-        <v>22.0733</v>
+        <v>23.1325</v>
       </c>
       <c r="BJ5">
-        <v>22.046800000000001</v>
+        <v>23.0046</v>
       </c>
       <c r="BK5">
-        <v>21.943899999999999</v>
+        <v>22.985099999999999</v>
       </c>
       <c r="BL5">
-        <v>22.6873</v>
+        <v>22.9039</v>
       </c>
       <c r="BM5">
-        <v>22.5398</v>
+        <v>23.409600000000001</v>
       </c>
       <c r="BN5">
-        <v>22.464700000000001</v>
+        <v>23.314399999999999</v>
       </c>
       <c r="BO5">
-        <v>22.343599999999999</v>
+        <v>23.253799999999998</v>
       </c>
       <c r="BP5">
-        <v>22.305900000000001</v>
+        <v>23.142499999999998</v>
       </c>
       <c r="BQ5">
-        <v>22.2209</v>
+        <v>23.124700000000001</v>
       </c>
       <c r="BR5">
-        <v>22.127800000000001</v>
+        <v>23.093599999999999</v>
       </c>
       <c r="BS5">
-        <v>22.0595</v>
+        <v>23.049399999999999</v>
       </c>
       <c r="BT5">
-        <v>22.027000000000001</v>
+        <v>23.031400000000001</v>
       </c>
       <c r="BU5">
-        <v>21.909400000000002</v>
+        <v>22.940100000000001</v>
       </c>
       <c r="BV5">
-        <v>21.8202</v>
+        <v>22.854199999999999</v>
       </c>
       <c r="BW5">
-        <v>21.770099999999999</v>
+        <v>22.7928</v>
       </c>
       <c r="BX5">
-        <v>22.276499999999999</v>
+        <v>22.762699999999999</v>
       </c>
       <c r="BY5">
-        <v>22.1539</v>
+        <v>23.1111</v>
       </c>
       <c r="BZ5">
-        <v>22.1112</v>
+        <v>22.998699999999999</v>
       </c>
       <c r="CA5">
-        <v>22.106400000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.968299999999999</v>
+      </c>
+      <c r="CB5">
+        <v>22.9436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>22.603956410256409</v>
-      </c>
-      <c r="B6">
-        <v>29.867799999999999</v>
+        <v>23.457629487179481</v>
       </c>
       <c r="C6">
-        <v>23.794499999999999</v>
+        <v>29.8613</v>
       </c>
       <c r="D6">
-        <v>29.486000000000001</v>
+        <v>24.387899999999998</v>
       </c>
       <c r="E6">
-        <v>25.4665</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F6">
-        <v>28.552099999999999</v>
+        <v>25.865400000000001</v>
       </c>
       <c r="G6">
-        <v>26.296800000000001</v>
+        <v>29.287400000000002</v>
       </c>
       <c r="H6">
-        <v>26.256499999999999</v>
+        <v>26.690899999999999</v>
       </c>
       <c r="I6">
-        <v>25.5839</v>
+        <v>26.592199999999998</v>
       </c>
       <c r="J6">
-        <v>23.7119</v>
+        <v>26.5914</v>
       </c>
       <c r="K6">
-        <v>25.636900000000001</v>
+        <v>24.0473</v>
       </c>
       <c r="L6">
-        <v>22.255500000000001</v>
+        <v>26.106400000000001</v>
       </c>
       <c r="M6">
-        <v>25.222300000000001</v>
+        <v>22.934799999999999</v>
       </c>
       <c r="N6">
-        <v>23.3704</v>
+        <v>26.065000000000001</v>
       </c>
       <c r="O6">
-        <v>21.916699999999999</v>
+        <v>24.023</v>
       </c>
       <c r="P6">
-        <v>23.493400000000001</v>
+        <v>22.545400000000001</v>
       </c>
       <c r="Q6">
-        <v>24.729600000000001</v>
+        <v>24.4986</v>
       </c>
       <c r="R6">
-        <v>22.9941</v>
+        <v>25.3538</v>
       </c>
       <c r="S6">
-        <v>21.7851</v>
+        <v>23.829499999999999</v>
       </c>
       <c r="T6">
-        <v>21.9467</v>
+        <v>22.421900000000001</v>
       </c>
       <c r="U6">
-        <v>21.9346</v>
+        <v>22.6755</v>
       </c>
       <c r="V6">
-        <v>23.303699999999999</v>
+        <v>23.080200000000001</v>
       </c>
       <c r="W6">
-        <v>24.0867</v>
+        <v>24.216200000000001</v>
       </c>
       <c r="X6">
-        <v>23.761199999999999</v>
+        <v>24.754999999999999</v>
       </c>
       <c r="Y6">
-        <v>23.259599999999999</v>
+        <v>24.4099</v>
       </c>
       <c r="Z6">
-        <v>22.293700000000001</v>
+        <v>23.902999999999999</v>
       </c>
       <c r="AA6">
-        <v>21.863099999999999</v>
+        <v>22.9739</v>
       </c>
       <c r="AB6">
-        <v>20.355399999999999</v>
+        <v>22.486699999999999</v>
       </c>
       <c r="AC6">
-        <v>20.265999999999998</v>
+        <v>21.398599999999998</v>
       </c>
       <c r="AD6">
-        <v>21.841000000000001</v>
+        <v>21.485600000000002</v>
       </c>
       <c r="AE6">
-        <v>21.8157</v>
+        <v>22.757400000000001</v>
       </c>
       <c r="AF6">
-        <v>23.004100000000001</v>
+        <v>22.902999999999999</v>
       </c>
       <c r="AG6">
-        <v>22.874700000000001</v>
+        <v>23.738700000000001</v>
       </c>
       <c r="AH6">
-        <v>22.837800000000001</v>
+        <v>23.787500000000001</v>
       </c>
       <c r="AI6">
-        <v>23.586400000000001</v>
+        <v>23.822800000000001</v>
       </c>
       <c r="AJ6">
-        <v>23.4739</v>
+        <v>24.392399999999999</v>
       </c>
       <c r="AK6">
-        <v>23.354099999999999</v>
+        <v>24.335000000000001</v>
       </c>
       <c r="AL6">
-        <v>23.1341</v>
+        <v>24.2257</v>
       </c>
       <c r="AM6">
-        <v>22.9328</v>
+        <v>23.953299999999999</v>
       </c>
       <c r="AN6">
-        <v>22.7471</v>
+        <v>23.659400000000002</v>
       </c>
       <c r="AO6">
-        <v>22.5654</v>
+        <v>23.449300000000001</v>
       </c>
       <c r="AP6">
-        <v>22.4314</v>
+        <v>23.228300000000001</v>
       </c>
       <c r="AQ6">
-        <v>21.822099999999999</v>
+        <v>23.052099999999999</v>
       </c>
       <c r="AR6">
-        <v>21.683299999999999</v>
+        <v>22.562200000000001</v>
       </c>
       <c r="AS6">
-        <v>21.4846</v>
+        <v>22.423500000000001</v>
       </c>
       <c r="AT6">
-        <v>19.2224</v>
+        <v>22.253900000000002</v>
       </c>
       <c r="AU6">
-        <v>19.249199999999998</v>
+        <v>20.560199999999998</v>
       </c>
       <c r="AV6">
-        <v>20.650500000000001</v>
+        <v>20.613900000000001</v>
       </c>
       <c r="AW6">
-        <v>20.624099999999999</v>
+        <v>21.641300000000001</v>
       </c>
       <c r="AX6">
-        <v>20.617799999999999</v>
+        <v>21.641100000000002</v>
       </c>
       <c r="AY6">
-        <v>20.546199999999999</v>
+        <v>21.692699999999999</v>
       </c>
       <c r="AZ6">
-        <v>20.540299999999998</v>
+        <v>21.684799999999999</v>
       </c>
       <c r="BA6">
-        <v>20.5839</v>
+        <v>21.704000000000001</v>
       </c>
       <c r="BB6">
-        <v>20.572600000000001</v>
+        <v>21.719000000000001</v>
       </c>
       <c r="BC6">
-        <v>21.8245</v>
+        <v>21.7559</v>
       </c>
       <c r="BD6">
-        <v>21.782499999999999</v>
+        <v>22.562000000000001</v>
       </c>
       <c r="BE6">
-        <v>21.7133</v>
+        <v>22.569700000000001</v>
       </c>
       <c r="BF6">
-        <v>21.600200000000001</v>
+        <v>22.5381</v>
       </c>
       <c r="BG6">
-        <v>21.572900000000001</v>
+        <v>22.498999999999999</v>
       </c>
       <c r="BH6">
-        <v>21.4832</v>
+        <v>22.543900000000001</v>
       </c>
       <c r="BI6">
-        <v>21.3827</v>
+        <v>22.491700000000002</v>
       </c>
       <c r="BJ6">
-        <v>21.406600000000001</v>
+        <v>22.413799999999998</v>
       </c>
       <c r="BK6">
-        <v>21.354700000000001</v>
+        <v>22.4526</v>
       </c>
       <c r="BL6">
-        <v>22.0871</v>
+        <v>22.4068</v>
       </c>
       <c r="BM6">
-        <v>22.001000000000001</v>
+        <v>22.923300000000001</v>
       </c>
       <c r="BN6">
-        <v>21.919</v>
+        <v>22.878499999999999</v>
       </c>
       <c r="BO6">
-        <v>21.844200000000001</v>
+        <v>22.829499999999999</v>
       </c>
       <c r="BP6">
-        <v>21.838200000000001</v>
+        <v>22.7349</v>
       </c>
       <c r="BQ6">
-        <v>21.743500000000001</v>
+        <v>22.775400000000001</v>
       </c>
       <c r="BR6">
-        <v>21.674600000000002</v>
+        <v>22.715</v>
       </c>
       <c r="BS6">
-        <v>21.652699999999999</v>
+        <v>22.742599999999999</v>
       </c>
       <c r="BT6">
-        <v>21.591699999999999</v>
+        <v>22.749099999999999</v>
       </c>
       <c r="BU6">
-        <v>21.496600000000001</v>
+        <v>22.648</v>
       </c>
       <c r="BV6">
-        <v>21.423500000000001</v>
+        <v>22.5792</v>
       </c>
       <c r="BW6">
-        <v>21.4068</v>
+        <v>22.563300000000002</v>
       </c>
       <c r="BX6">
-        <v>22.733799999999999</v>
+        <v>22.566299999999998</v>
       </c>
       <c r="BY6">
-        <v>22.6479</v>
+        <v>23.457699999999999</v>
       </c>
       <c r="BZ6">
-        <v>22.632400000000001</v>
+        <v>23.415199999999999</v>
       </c>
       <c r="CA6">
-        <v>22.608799999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.408799999999999</v>
+      </c>
+      <c r="CB6">
+        <v>23.411300000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>22.79833846153846</v>
-      </c>
-      <c r="B7">
-        <v>25.534700000000001</v>
+        <v>23.667312820512819</v>
       </c>
       <c r="C7">
-        <v>30.385000000000002</v>
+        <v>26.5824</v>
       </c>
       <c r="D7">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E7">
-        <v>27.763000000000002</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F7">
-        <v>24.7545</v>
+        <v>27.825600000000001</v>
       </c>
       <c r="G7">
-        <v>27.475899999999999</v>
+        <v>25.0169</v>
       </c>
       <c r="H7">
-        <v>27.367100000000001</v>
+        <v>28.547599999999999</v>
       </c>
       <c r="I7">
-        <v>25.5839</v>
+        <v>28.051500000000001</v>
       </c>
       <c r="J7">
-        <v>24.555599999999998</v>
+        <v>26.5914</v>
       </c>
       <c r="K7">
-        <v>24.684000000000001</v>
+        <v>25.089099999999998</v>
       </c>
       <c r="L7">
-        <v>24.6252</v>
+        <v>25.050899999999999</v>
       </c>
       <c r="M7">
-        <v>25.482299999999999</v>
+        <v>25.267700000000001</v>
       </c>
       <c r="N7">
-        <v>23.095199999999998</v>
+        <v>25.8703</v>
       </c>
       <c r="O7">
-        <v>25.171399999999998</v>
+        <v>23.7287</v>
       </c>
       <c r="P7">
-        <v>23.9221</v>
+        <v>25.714600000000001</v>
       </c>
       <c r="Q7">
-        <v>21.578900000000001</v>
+        <v>24.506399999999999</v>
       </c>
       <c r="R7">
-        <v>24.554300000000001</v>
+        <v>22.725100000000001</v>
       </c>
       <c r="S7">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T7">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U7">
-        <v>22.8628</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V7">
-        <v>19.997499999999999</v>
+        <v>23.303799999999999</v>
       </c>
       <c r="W7">
-        <v>21.605599999999999</v>
+        <v>21.134</v>
       </c>
       <c r="X7">
-        <v>23.097200000000001</v>
+        <v>22.690799999999999</v>
       </c>
       <c r="Y7">
-        <v>22.830300000000001</v>
+        <v>23.806100000000001</v>
       </c>
       <c r="Z7">
-        <v>23.982199999999999</v>
+        <v>23.8186</v>
       </c>
       <c r="AA7">
-        <v>23.651299999999999</v>
+        <v>24.6965</v>
       </c>
       <c r="AB7">
-        <v>23.2879</v>
+        <v>24.455100000000002</v>
       </c>
       <c r="AC7">
-        <v>22.7791</v>
+        <v>24.068999999999999</v>
       </c>
       <c r="AD7">
-        <v>22.639600000000002</v>
+        <v>23.547599999999999</v>
       </c>
       <c r="AE7">
-        <v>22.260899999999999</v>
+        <v>23.270700000000001</v>
       </c>
       <c r="AF7">
-        <v>20.8507</v>
+        <v>22.872299999999999</v>
       </c>
       <c r="AG7">
-        <v>20.817900000000002</v>
+        <v>21.8338</v>
       </c>
       <c r="AH7">
-        <v>20.9499</v>
+        <v>21.965599999999998</v>
       </c>
       <c r="AI7">
-        <v>22.782900000000001</v>
+        <v>22.1782</v>
       </c>
       <c r="AJ7">
-        <v>22.912600000000001</v>
+        <v>23.483000000000001</v>
       </c>
       <c r="AK7">
-        <v>22.8279</v>
+        <v>23.6953</v>
       </c>
       <c r="AL7">
-        <v>22.523299999999999</v>
+        <v>23.7422</v>
       </c>
       <c r="AM7">
-        <v>23.56</v>
+        <v>23.565899999999999</v>
       </c>
       <c r="AN7">
-        <v>23.453399999999998</v>
+        <v>24.301100000000002</v>
       </c>
       <c r="AO7">
-        <v>23.2363</v>
+        <v>24.266100000000002</v>
       </c>
       <c r="AP7">
-        <v>23.0321</v>
+        <v>24.110800000000001</v>
       </c>
       <c r="AQ7">
-        <v>23.4588</v>
+        <v>23.862400000000001</v>
       </c>
       <c r="AR7">
-        <v>23.323799999999999</v>
+        <v>24.013100000000001</v>
       </c>
       <c r="AS7">
-        <v>23.135100000000001</v>
+        <v>23.907299999999999</v>
       </c>
       <c r="AT7">
-        <v>22.950800000000001</v>
+        <v>23.801400000000001</v>
       </c>
       <c r="AU7">
-        <v>22.74</v>
+        <v>23.639800000000001</v>
       </c>
       <c r="AV7">
-        <v>22.494599999999998</v>
+        <v>23.4617</v>
       </c>
       <c r="AW7">
-        <v>22.340199999999999</v>
+        <v>23.255400000000002</v>
       </c>
       <c r="AX7">
-        <v>22.247</v>
+        <v>23.1372</v>
       </c>
       <c r="AY7">
-        <v>22.042100000000001</v>
+        <v>22.972999999999999</v>
       </c>
       <c r="AZ7">
-        <v>21.844899999999999</v>
+        <v>22.759799999999998</v>
       </c>
       <c r="BA7">
-        <v>19.3127</v>
+        <v>22.594200000000001</v>
       </c>
       <c r="BB7">
-        <v>19.325099999999999</v>
+        <v>20.667999999999999</v>
       </c>
       <c r="BC7">
-        <v>20.889700000000001</v>
+        <v>20.718499999999999</v>
       </c>
       <c r="BD7">
-        <v>20.8521</v>
+        <v>21.7744</v>
       </c>
       <c r="BE7">
-        <v>20.8278</v>
+        <v>21.788599999999999</v>
       </c>
       <c r="BF7">
-        <v>20.745999999999999</v>
+        <v>21.787700000000001</v>
       </c>
       <c r="BG7">
-        <v>20.752800000000001</v>
+        <v>21.755600000000001</v>
       </c>
       <c r="BH7">
-        <v>20.689800000000002</v>
+        <v>21.822900000000001</v>
       </c>
       <c r="BI7">
-        <v>20.620799999999999</v>
+        <v>21.7925</v>
       </c>
       <c r="BJ7">
-        <v>20.6602</v>
+        <v>21.7363</v>
       </c>
       <c r="BK7">
-        <v>20.6098</v>
+        <v>21.7942</v>
       </c>
       <c r="BL7">
-        <v>21.643000000000001</v>
+        <v>21.7502</v>
       </c>
       <c r="BM7">
-        <v>21.5914</v>
+        <v>22.495899999999999</v>
       </c>
       <c r="BN7">
-        <v>21.534700000000001</v>
+        <v>22.472799999999999</v>
       </c>
       <c r="BO7">
-        <v>21.497399999999999</v>
+        <v>22.452000000000002</v>
       </c>
       <c r="BP7">
-        <v>21.512</v>
+        <v>22.3962</v>
       </c>
       <c r="BQ7">
-        <v>21.432500000000001</v>
+        <v>22.4617</v>
       </c>
       <c r="BR7">
-        <v>21.395900000000001</v>
+        <v>22.405899999999999</v>
       </c>
       <c r="BS7">
-        <v>21.368200000000002</v>
+        <v>22.4908</v>
       </c>
       <c r="BT7">
-        <v>21.3233</v>
+        <v>22.482399999999998</v>
       </c>
       <c r="BU7">
-        <v>21.196400000000001</v>
+        <v>22.430299999999999</v>
       </c>
       <c r="BV7">
-        <v>21.151</v>
+        <v>22.354399999999998</v>
       </c>
       <c r="BW7">
-        <v>21.153099999999998</v>
+        <v>22.3673</v>
       </c>
       <c r="BX7">
-        <v>22.4604</v>
+        <v>22.390599999999999</v>
       </c>
       <c r="BY7">
-        <v>22.405799999999999</v>
+        <v>23.298100000000002</v>
       </c>
       <c r="BZ7">
-        <v>22.407699999999998</v>
+        <v>23.286100000000001</v>
       </c>
       <c r="CA7">
-        <v>22.3886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.295200000000001</v>
+      </c>
+      <c r="CB7">
+        <v>23.302299999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>22.816441025641023</v>
-      </c>
-      <c r="B8">
-        <v>28.193200000000001</v>
+        <v>23.7085641025641</v>
       </c>
       <c r="C8">
-        <v>25.183399999999999</v>
+        <v>30.014299999999999</v>
       </c>
       <c r="D8">
-        <v>29.486000000000001</v>
+        <v>25.799099999999999</v>
       </c>
       <c r="E8">
-        <v>29.561800000000002</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F8">
-        <v>27.802600000000002</v>
+        <v>30.627400000000002</v>
       </c>
       <c r="G8">
-        <v>26.005600000000001</v>
+        <v>28.633299999999998</v>
       </c>
       <c r="H8">
-        <v>26.96</v>
+        <v>26.874300000000002</v>
       </c>
       <c r="I8">
-        <v>25.5839</v>
+        <v>27.900300000000001</v>
       </c>
       <c r="J8">
-        <v>25.146999999999998</v>
+        <v>26.5914</v>
       </c>
       <c r="K8">
-        <v>23.6387</v>
+        <v>25.900500000000001</v>
       </c>
       <c r="L8">
-        <v>25.4422</v>
+        <v>24.101299999999998</v>
       </c>
       <c r="M8">
-        <v>22.414300000000001</v>
+        <v>26.247299999999999</v>
       </c>
       <c r="N8">
-        <v>24.8232</v>
+        <v>23.0747</v>
       </c>
       <c r="O8">
-        <v>23.5062</v>
+        <v>25.7058</v>
       </c>
       <c r="P8">
-        <v>22.8139</v>
+        <v>24.220800000000001</v>
       </c>
       <c r="Q8">
-        <v>24.588000000000001</v>
+        <v>23.8368</v>
       </c>
       <c r="R8">
-        <v>23.677099999999999</v>
+        <v>25.3507</v>
       </c>
       <c r="S8">
-        <v>22.5731</v>
+        <v>24.524899999999999</v>
       </c>
       <c r="T8">
-        <v>23.6007</v>
+        <v>23.284400000000002</v>
       </c>
       <c r="U8">
-        <v>23.462399999999999</v>
+        <v>24.167400000000001</v>
       </c>
       <c r="V8">
-        <v>24.075399999999998</v>
+        <v>24.365100000000002</v>
       </c>
       <c r="W8">
-        <v>23.7119</v>
+        <v>24.723500000000001</v>
       </c>
       <c r="X8">
-        <v>22.661899999999999</v>
+        <v>24.420200000000001</v>
       </c>
       <c r="Y8">
-        <v>20.177</v>
+        <v>23.428999999999998</v>
       </c>
       <c r="Z8">
-        <v>22.031400000000001</v>
+        <v>21.398599999999998</v>
       </c>
       <c r="AA8">
-        <v>21.923200000000001</v>
+        <v>22.855499999999999</v>
       </c>
       <c r="AB8">
-        <v>22.898099999999999</v>
+        <v>23.010200000000001</v>
       </c>
       <c r="AC8">
-        <v>22.569500000000001</v>
+        <v>23.786200000000001</v>
       </c>
       <c r="AD8">
-        <v>23.8323</v>
+        <v>23.630800000000001</v>
       </c>
       <c r="AE8">
-        <v>23.473800000000001</v>
+        <v>24.457899999999999</v>
       </c>
       <c r="AF8">
-        <v>23.3249</v>
+        <v>24.2117</v>
       </c>
       <c r="AG8">
-        <v>23.085599999999999</v>
+        <v>24.004999999999999</v>
       </c>
       <c r="AH8">
-        <v>22.805099999999999</v>
+        <v>23.808800000000002</v>
       </c>
       <c r="AI8">
-        <v>22.190100000000001</v>
+        <v>23.503799999999998</v>
       </c>
       <c r="AJ8">
-        <v>20.76</v>
+        <v>22.9924</v>
       </c>
       <c r="AK8">
-        <v>20.805900000000001</v>
+        <v>21.911100000000001</v>
       </c>
       <c r="AL8">
-        <v>20.663699999999999</v>
+        <v>22.088899999999999</v>
       </c>
       <c r="AM8">
-        <v>22.496099999999998</v>
+        <v>22.0243</v>
       </c>
       <c r="AN8">
-        <v>22.476099999999999</v>
+        <v>23.293500000000002</v>
       </c>
       <c r="AO8">
-        <v>22.366299999999999</v>
+        <v>23.353400000000001</v>
       </c>
       <c r="AP8">
-        <v>22.2591</v>
+        <v>23.297799999999999</v>
       </c>
       <c r="AQ8">
-        <v>23.3443</v>
+        <v>23.2013</v>
       </c>
       <c r="AR8">
-        <v>23.322500000000002</v>
+        <v>23.883500000000002</v>
       </c>
       <c r="AS8">
-        <v>23.217700000000001</v>
+        <v>23.870699999999999</v>
       </c>
       <c r="AT8">
-        <v>23.130800000000001</v>
+        <v>23.8583</v>
       </c>
       <c r="AU8">
-        <v>22.9663</v>
+        <v>23.802199999999999</v>
       </c>
       <c r="AV8">
-        <v>23.258700000000001</v>
+        <v>23.7059</v>
       </c>
       <c r="AW8">
-        <v>23.146000000000001</v>
+        <v>23.894100000000002</v>
       </c>
       <c r="AX8">
-        <v>22.8858</v>
+        <v>23.848700000000001</v>
       </c>
       <c r="AY8">
-        <v>22.738499999999998</v>
+        <v>23.662800000000001</v>
       </c>
       <c r="AZ8">
-        <v>22.555800000000001</v>
+        <v>23.547000000000001</v>
       </c>
       <c r="BA8">
-        <v>22.469000000000001</v>
+        <v>23.399699999999999</v>
       </c>
       <c r="BB8">
-        <v>22.331600000000002</v>
+        <v>23.262599999999999</v>
       </c>
       <c r="BC8">
-        <v>22.388400000000001</v>
+        <v>23.182500000000001</v>
       </c>
       <c r="BD8">
-        <v>22.288399999999999</v>
+        <v>23.088999999999999</v>
       </c>
       <c r="BE8">
-        <v>22.105599999999999</v>
+        <v>23.029</v>
       </c>
       <c r="BF8">
-        <v>21.892700000000001</v>
+        <v>22.8828</v>
       </c>
       <c r="BG8">
-        <v>21.8263</v>
+        <v>22.729800000000001</v>
       </c>
       <c r="BH8">
-        <v>19.706199999999999</v>
+        <v>22.680099999999999</v>
       </c>
       <c r="BI8">
-        <v>19.651199999999999</v>
+        <v>20.978000000000002</v>
       </c>
       <c r="BJ8">
-        <v>19.6937</v>
+        <v>20.9237</v>
       </c>
       <c r="BK8">
-        <v>19.658899999999999</v>
+        <v>20.985399999999998</v>
       </c>
       <c r="BL8">
-        <v>21.212399999999999</v>
+        <v>20.940899999999999</v>
       </c>
       <c r="BM8">
-        <v>21.180299999999999</v>
+        <v>22.035499999999999</v>
       </c>
       <c r="BN8">
-        <v>21.137699999999999</v>
+        <v>22.0276</v>
       </c>
       <c r="BO8">
-        <v>21.0944</v>
+        <v>22.015699999999999</v>
       </c>
       <c r="BP8">
-        <v>21.1203</v>
+        <v>21.9649</v>
       </c>
       <c r="BQ8">
-        <v>21.0503</v>
+        <v>22.039100000000001</v>
       </c>
       <c r="BR8">
-        <v>21.033300000000001</v>
+        <v>21.996600000000001</v>
       </c>
       <c r="BS8">
-        <v>21.0334</v>
+        <v>22.1</v>
       </c>
       <c r="BT8">
-        <v>20.996600000000001</v>
+        <v>22.104500000000002</v>
       </c>
       <c r="BU8">
-        <v>20.905200000000001</v>
+        <v>22.0684</v>
       </c>
       <c r="BV8">
-        <v>20.858699999999999</v>
+        <v>22.015000000000001</v>
       </c>
       <c r="BW8">
-        <v>20.8065</v>
+        <v>22.0273</v>
       </c>
       <c r="BX8">
-        <v>21.933199999999999</v>
+        <v>22.030100000000001</v>
       </c>
       <c r="BY8">
-        <v>21.8965</v>
+        <v>22.809899999999999</v>
       </c>
       <c r="BZ8">
-        <v>21.9116</v>
+        <v>22.811199999999999</v>
       </c>
       <c r="CA8">
-        <v>21.882899999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.832100000000001</v>
+      </c>
+      <c r="CB8">
+        <v>22.834499999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>23.121764102564107</v>
-      </c>
-      <c r="B9">
-        <v>30.826000000000001</v>
+        <v>23.953612820512824</v>
       </c>
       <c r="C9">
-        <v>30.385000000000002</v>
+        <v>31.373100000000001</v>
       </c>
       <c r="D9">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E9">
-        <v>27.148</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F9">
-        <v>27.275500000000001</v>
+        <v>27.852499999999999</v>
       </c>
       <c r="G9">
-        <v>25.535399999999999</v>
+        <v>27.549900000000001</v>
       </c>
       <c r="H9">
-        <v>26.880800000000001</v>
+        <v>25.573599999999999</v>
       </c>
       <c r="I9">
-        <v>25.5839</v>
+        <v>27.754999999999999</v>
       </c>
       <c r="J9">
-        <v>25.998899999999999</v>
+        <v>26.5914</v>
       </c>
       <c r="K9">
-        <v>24.118500000000001</v>
+        <v>26.7803</v>
       </c>
       <c r="L9">
-        <v>25.130700000000001</v>
+        <v>24.717099999999999</v>
       </c>
       <c r="M9">
-        <v>24.900500000000001</v>
+        <v>25.6538</v>
       </c>
       <c r="N9">
-        <v>24.183700000000002</v>
+        <v>25.658300000000001</v>
       </c>
       <c r="O9">
-        <v>24.195</v>
+        <v>24.905799999999999</v>
       </c>
       <c r="P9">
-        <v>25.000499999999999</v>
+        <v>24.688700000000001</v>
       </c>
       <c r="Q9">
-        <v>23.465299999999999</v>
+        <v>25.573399999999999</v>
       </c>
       <c r="R9">
-        <v>24.554300000000001</v>
+        <v>24.069600000000001</v>
       </c>
       <c r="S9">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T9">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U9">
-        <v>22.8628</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V9">
-        <v>22.021899999999999</v>
+        <v>23.303799999999999</v>
       </c>
       <c r="W9">
-        <v>23.0928</v>
+        <v>22.9633</v>
       </c>
       <c r="X9">
-        <v>24.0092</v>
+        <v>24.1218</v>
       </c>
       <c r="Y9">
-        <v>23.636399999999998</v>
+        <v>24.7258</v>
       </c>
       <c r="Z9">
-        <v>23.560400000000001</v>
+        <v>24.452000000000002</v>
       </c>
       <c r="AA9">
-        <v>23.1082</v>
+        <v>24.2605</v>
       </c>
       <c r="AB9">
-        <v>21.293199999999999</v>
+        <v>23.752400000000002</v>
       </c>
       <c r="AC9">
-        <v>21.125</v>
+        <v>22.2849</v>
       </c>
       <c r="AD9">
-        <v>22.504899999999999</v>
+        <v>22.321000000000002</v>
       </c>
       <c r="AE9">
-        <v>22.387799999999999</v>
+        <v>23.396999999999998</v>
       </c>
       <c r="AF9">
-        <v>23.632899999999999</v>
+        <v>23.426200000000001</v>
       </c>
       <c r="AG9">
-        <v>23.386399999999998</v>
+        <v>24.2759</v>
       </c>
       <c r="AH9">
-        <v>23.297499999999999</v>
+        <v>24.215</v>
       </c>
       <c r="AI9">
-        <v>23.6965</v>
+        <v>24.151900000000001</v>
       </c>
       <c r="AJ9">
-        <v>23.5002</v>
+        <v>24.3445</v>
       </c>
       <c r="AK9">
-        <v>23.3721</v>
+        <v>24.146999999999998</v>
       </c>
       <c r="AL9">
-        <v>23.055099999999999</v>
+        <v>23.967099999999999</v>
       </c>
       <c r="AM9">
-        <v>22.244800000000001</v>
+        <v>23.633500000000002</v>
       </c>
       <c r="AN9">
-        <v>21.5959</v>
+        <v>23.011500000000002</v>
       </c>
       <c r="AO9">
-        <v>21.552199999999999</v>
+        <v>22.547799999999999</v>
       </c>
       <c r="AP9">
-        <v>21.5166</v>
+        <v>22.545200000000001</v>
       </c>
       <c r="AQ9">
-        <v>22.4969</v>
+        <v>22.5274</v>
       </c>
       <c r="AR9">
-        <v>22.552399999999999</v>
+        <v>23.1707</v>
       </c>
       <c r="AS9">
-        <v>22.549900000000001</v>
+        <v>23.2392</v>
       </c>
       <c r="AT9">
-        <v>22.5487</v>
+        <v>23.3233</v>
       </c>
       <c r="AU9">
-        <v>22.4815</v>
+        <v>23.348700000000001</v>
       </c>
       <c r="AV9">
-        <v>23.208400000000001</v>
+        <v>23.340299999999999</v>
       </c>
       <c r="AW9">
-        <v>23.113700000000001</v>
+        <v>23.7789</v>
       </c>
       <c r="AX9">
-        <v>22.9773</v>
+        <v>23.746500000000001</v>
       </c>
       <c r="AY9">
-        <v>22.895700000000001</v>
+        <v>23.667000000000002</v>
       </c>
       <c r="AZ9">
-        <v>22.750900000000001</v>
+        <v>23.614899999999999</v>
       </c>
       <c r="BA9">
-        <v>22.707799999999999</v>
+        <v>23.532699999999998</v>
       </c>
       <c r="BB9">
-        <v>22.612200000000001</v>
+        <v>23.429300000000001</v>
       </c>
       <c r="BC9">
-        <v>23.022200000000002</v>
+        <v>23.4024</v>
       </c>
       <c r="BD9">
-        <v>22.8216</v>
+        <v>23.6556</v>
       </c>
       <c r="BE9">
-        <v>22.6599</v>
+        <v>23.5182</v>
       </c>
       <c r="BF9">
-        <v>22.509499999999999</v>
+        <v>23.382899999999999</v>
       </c>
       <c r="BG9">
-        <v>22.4221</v>
+        <v>23.2879</v>
       </c>
       <c r="BH9">
-        <v>22.244599999999998</v>
+        <v>23.256799999999998</v>
       </c>
       <c r="BI9">
-        <v>22.056899999999999</v>
+        <v>23.082699999999999</v>
       </c>
       <c r="BJ9">
-        <v>21.993400000000001</v>
+        <v>22.907399999999999</v>
       </c>
       <c r="BK9">
-        <v>21.837800000000001</v>
+        <v>22.830500000000001</v>
       </c>
       <c r="BL9">
-        <v>21.9984</v>
+        <v>22.711500000000001</v>
       </c>
       <c r="BM9">
-        <v>21.990500000000001</v>
+        <v>22.807099999999998</v>
       </c>
       <c r="BN9">
-        <v>20.581800000000001</v>
+        <v>22.8002</v>
       </c>
       <c r="BO9">
-        <v>20.5488</v>
+        <v>21.654699999999998</v>
       </c>
       <c r="BP9">
-        <v>20.571400000000001</v>
+        <v>21.611899999999999</v>
       </c>
       <c r="BQ9">
-        <v>20.502199999999998</v>
+        <v>21.681100000000001</v>
       </c>
       <c r="BR9">
-        <v>20.483799999999999</v>
+        <v>21.639399999999998</v>
       </c>
       <c r="BS9">
-        <v>20.486599999999999</v>
+        <v>21.749099999999999</v>
       </c>
       <c r="BT9">
-        <v>20.4618</v>
+        <v>21.756399999999999</v>
       </c>
       <c r="BU9">
-        <v>20.374099999999999</v>
+        <v>21.720099999999999</v>
       </c>
       <c r="BV9">
-        <v>20.3399</v>
+        <v>21.6706</v>
       </c>
       <c r="BW9">
-        <v>20.3248</v>
+        <v>21.688099999999999</v>
       </c>
       <c r="BX9">
-        <v>21.835899999999999</v>
+        <v>21.7011</v>
       </c>
       <c r="BY9">
-        <v>21.8049</v>
+        <v>22.744700000000002</v>
       </c>
       <c r="BZ9">
-        <v>21.824300000000001</v>
+        <v>22.7516</v>
       </c>
       <c r="CA9">
-        <v>21.799800000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.7761</v>
+      </c>
+      <c r="CB9">
+        <v>22.784700000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>23.095743589743584</v>
-      </c>
-      <c r="B10">
-        <v>25.8385</v>
+        <v>23.934225641025645</v>
       </c>
       <c r="C10">
-        <v>25.628399999999999</v>
+        <v>27.2743</v>
       </c>
       <c r="D10">
-        <v>29.486000000000001</v>
+        <v>26.569900000000001</v>
       </c>
       <c r="E10">
-        <v>28.2956</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F10">
-        <v>26.9953</v>
+        <v>28.592099999999999</v>
       </c>
       <c r="G10">
-        <v>26.8186</v>
+        <v>27.733000000000001</v>
       </c>
       <c r="H10">
-        <v>26.898299999999999</v>
+        <v>27.597000000000001</v>
       </c>
       <c r="I10">
-        <v>25.5839</v>
+        <v>27.599900000000002</v>
       </c>
       <c r="J10">
-        <v>26.061699999999998</v>
+        <v>26.5914</v>
       </c>
       <c r="K10">
-        <v>25.286799999999999</v>
+        <v>26.8797</v>
       </c>
       <c r="L10">
-        <v>23.209700000000002</v>
+        <v>26.039200000000001</v>
       </c>
       <c r="M10">
-        <v>25.500599999999999</v>
+        <v>23.817</v>
       </c>
       <c r="N10">
-        <v>24.037400000000002</v>
+        <v>26.148099999999999</v>
       </c>
       <c r="O10">
-        <v>25.104399999999998</v>
+        <v>24.684999999999999</v>
       </c>
       <c r="P10">
-        <v>21.9024</v>
+        <v>25.6416</v>
       </c>
       <c r="Q10">
-        <v>23.742699999999999</v>
+        <v>22.875</v>
       </c>
       <c r="R10">
-        <v>24.495000000000001</v>
+        <v>24.6401</v>
       </c>
       <c r="S10">
-        <v>23.366499999999998</v>
+        <v>25.133500000000002</v>
       </c>
       <c r="T10">
-        <v>23.7911</v>
+        <v>24.061900000000001</v>
       </c>
       <c r="U10">
-        <v>23.499700000000001</v>
+        <v>24.439</v>
       </c>
       <c r="V10">
-        <v>24.393699999999999</v>
+        <v>24.497</v>
       </c>
       <c r="W10">
-        <v>23.6067</v>
+        <v>24.891400000000001</v>
       </c>
       <c r="X10">
-        <v>22.591699999999999</v>
+        <v>24.253599999999999</v>
       </c>
       <c r="Y10">
-        <v>22.361799999999999</v>
+        <v>23.331099999999999</v>
       </c>
       <c r="Z10">
-        <v>23.6617</v>
+        <v>23.417100000000001</v>
       </c>
       <c r="AA10">
-        <v>23.319199999999999</v>
+        <v>24.4099</v>
       </c>
       <c r="AB10">
-        <v>23.445</v>
+        <v>24.269400000000001</v>
       </c>
       <c r="AC10">
-        <v>22.9282</v>
+        <v>24.2439</v>
       </c>
       <c r="AD10">
-        <v>22.8812</v>
+        <v>23.758900000000001</v>
       </c>
       <c r="AE10">
-        <v>21.040500000000002</v>
+        <v>23.517800000000001</v>
       </c>
       <c r="AF10">
-        <v>22.78</v>
+        <v>22.263200000000001</v>
       </c>
       <c r="AG10">
-        <v>22.737400000000001</v>
+        <v>23.459800000000001</v>
       </c>
       <c r="AH10">
-        <v>22.7806</v>
+        <v>23.591999999999999</v>
       </c>
       <c r="AI10">
-        <v>23.501899999999999</v>
+        <v>23.709900000000001</v>
       </c>
       <c r="AJ10">
-        <v>23.4786</v>
+        <v>24.294699999999999</v>
       </c>
       <c r="AK10">
-        <v>23.4025</v>
+        <v>24.331499999999998</v>
       </c>
       <c r="AL10">
-        <v>23.174299999999999</v>
+        <v>24.2927</v>
       </c>
       <c r="AM10">
-        <v>23.7606</v>
+        <v>24.067699999999999</v>
       </c>
       <c r="AN10">
-        <v>23.537299999999998</v>
+        <v>24.336300000000001</v>
       </c>
       <c r="AO10">
-        <v>23.1983</v>
+        <v>24.1356</v>
       </c>
       <c r="AP10">
-        <v>22.817</v>
+        <v>23.846499999999999</v>
       </c>
       <c r="AQ10">
-        <v>22.415800000000001</v>
+        <v>23.475000000000001</v>
       </c>
       <c r="AR10">
-        <v>21.904399999999999</v>
+        <v>23.103400000000001</v>
       </c>
       <c r="AS10">
-        <v>21.928799999999999</v>
+        <v>22.6448</v>
       </c>
       <c r="AT10">
-        <v>21.9758</v>
+        <v>22.726299999999998</v>
       </c>
       <c r="AU10">
-        <v>21.962399999999999</v>
+        <v>22.7851</v>
       </c>
       <c r="AV10">
-        <v>22.7438</v>
+        <v>22.821100000000001</v>
       </c>
       <c r="AW10">
-        <v>22.665900000000001</v>
+        <v>23.37</v>
       </c>
       <c r="AX10">
-        <v>22.581199999999999</v>
+        <v>23.349299999999999</v>
       </c>
       <c r="AY10">
-        <v>22.491599999999998</v>
+        <v>23.311399999999999</v>
       </c>
       <c r="AZ10">
-        <v>22.400600000000001</v>
+        <v>23.2531</v>
       </c>
       <c r="BA10">
-        <v>22.3993</v>
+        <v>23.224299999999999</v>
       </c>
       <c r="BB10">
-        <v>22.349900000000002</v>
+        <v>23.18</v>
       </c>
       <c r="BC10">
-        <v>22.736499999999999</v>
+        <v>23.193000000000001</v>
       </c>
       <c r="BD10">
-        <v>22.6005</v>
+        <v>23.448599999999999</v>
       </c>
       <c r="BE10">
-        <v>22.481100000000001</v>
+        <v>23.368300000000001</v>
       </c>
       <c r="BF10">
-        <v>22.362100000000002</v>
+        <v>23.287700000000001</v>
       </c>
       <c r="BG10">
-        <v>22.305900000000001</v>
+        <v>23.22</v>
       </c>
       <c r="BH10">
-        <v>22.148499999999999</v>
+        <v>23.2301</v>
       </c>
       <c r="BI10">
-        <v>21.992100000000001</v>
+        <v>23.094200000000001</v>
       </c>
       <c r="BJ10">
-        <v>21.9528</v>
+        <v>22.953800000000001</v>
       </c>
       <c r="BK10">
-        <v>21.8383</v>
+        <v>22.9145</v>
       </c>
       <c r="BL10">
-        <v>22.417100000000001</v>
+        <v>22.823899999999998</v>
       </c>
       <c r="BM10">
-        <v>22.260999999999999</v>
+        <v>23.178999999999998</v>
       </c>
       <c r="BN10">
-        <v>22.180399999999999</v>
+        <v>23.078099999999999</v>
       </c>
       <c r="BO10">
-        <v>22.049499999999998</v>
+        <v>23.004100000000001</v>
       </c>
       <c r="BP10">
-        <v>22.0063</v>
+        <v>22.8856</v>
       </c>
       <c r="BQ10">
-        <v>21.9238</v>
+        <v>22.852</v>
       </c>
       <c r="BR10">
-        <v>21.822500000000002</v>
+        <v>22.823499999999999</v>
       </c>
       <c r="BS10">
-        <v>21.743400000000001</v>
+        <v>22.750299999999999</v>
       </c>
       <c r="BT10">
-        <v>21.707000000000001</v>
+        <v>22.729199999999999</v>
       </c>
       <c r="BU10">
-        <v>19.651199999999999</v>
+        <v>22.6236</v>
       </c>
       <c r="BV10">
-        <v>19.607099999999999</v>
+        <v>20.9956</v>
       </c>
       <c r="BW10">
-        <v>19.602</v>
+        <v>20.9998</v>
       </c>
       <c r="BX10">
-        <v>21.333200000000001</v>
+        <v>21.015799999999999</v>
       </c>
       <c r="BY10">
-        <v>21.313700000000001</v>
+        <v>22.242699999999999</v>
       </c>
       <c r="BZ10">
-        <v>21.3416</v>
+        <v>22.2712</v>
       </c>
       <c r="CA10">
-        <v>21.330100000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.301100000000002</v>
+      </c>
+      <c r="CB10">
+        <v>22.327200000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>23.433337179487182</v>
-      </c>
-      <c r="B11">
-        <v>28.193200000000001</v>
+        <v>24.280403846153845</v>
       </c>
       <c r="C11">
-        <v>30.385000000000002</v>
+        <v>30.014299999999999</v>
       </c>
       <c r="D11">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E11">
-        <v>29.561800000000002</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F11">
-        <v>28.449300000000001</v>
+        <v>30.627400000000002</v>
       </c>
       <c r="G11">
-        <v>27.475899999999999</v>
+        <v>29.032599999999999</v>
       </c>
       <c r="H11">
-        <v>25.767099999999999</v>
+        <v>28.547599999999999</v>
       </c>
       <c r="I11">
-        <v>25.5839</v>
+        <v>26.468900000000001</v>
       </c>
       <c r="J11">
-        <v>25.964099999999998</v>
+        <v>26.5914</v>
       </c>
       <c r="K11">
-        <v>26.0473</v>
+        <v>26.817299999999999</v>
       </c>
       <c r="L11">
-        <v>24.6252</v>
+        <v>26.660399999999999</v>
       </c>
       <c r="M11">
-        <v>25.482299999999999</v>
+        <v>25.267700000000001</v>
       </c>
       <c r="N11">
-        <v>24.8232</v>
+        <v>25.8703</v>
       </c>
       <c r="O11">
-        <v>23.5062</v>
+        <v>25.7058</v>
       </c>
       <c r="P11">
-        <v>24.324400000000001</v>
+        <v>24.220800000000001</v>
       </c>
       <c r="Q11">
-        <v>24.4175</v>
+        <v>25.234400000000001</v>
       </c>
       <c r="R11">
-        <v>24.554300000000001</v>
+        <v>24.924199999999999</v>
       </c>
       <c r="S11">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T11">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U11">
-        <v>21.236499999999999</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V11">
-        <v>23.185700000000001</v>
+        <v>22.459099999999999</v>
       </c>
       <c r="W11">
-        <v>24.177600000000002</v>
+        <v>24.031500000000001</v>
       </c>
       <c r="X11">
-        <v>24.128399999999999</v>
+        <v>24.8413</v>
       </c>
       <c r="Y11">
-        <v>23.750599999999999</v>
+        <v>24.772400000000001</v>
       </c>
       <c r="Z11">
-        <v>22.031400000000001</v>
+        <v>24.389700000000001</v>
       </c>
       <c r="AA11">
-        <v>21.923200000000001</v>
+        <v>22.855499999999999</v>
       </c>
       <c r="AB11">
-        <v>22.898099999999999</v>
+        <v>23.010200000000001</v>
       </c>
       <c r="AC11">
-        <v>22.569500000000001</v>
+        <v>23.786200000000001</v>
       </c>
       <c r="AD11">
-        <v>23.8323</v>
+        <v>23.630800000000001</v>
       </c>
       <c r="AE11">
-        <v>23.473800000000001</v>
+        <v>24.457899999999999</v>
       </c>
       <c r="AF11">
-        <v>23.3249</v>
+        <v>24.2117</v>
       </c>
       <c r="AG11">
-        <v>23.085599999999999</v>
+        <v>24.004999999999999</v>
       </c>
       <c r="AH11">
-        <v>20.9499</v>
+        <v>23.808800000000002</v>
       </c>
       <c r="AI11">
-        <v>22.782900000000001</v>
+        <v>22.1782</v>
       </c>
       <c r="AJ11">
-        <v>22.912600000000001</v>
+        <v>23.483000000000001</v>
       </c>
       <c r="AK11">
-        <v>22.8279</v>
+        <v>23.6953</v>
       </c>
       <c r="AL11">
-        <v>22.523299999999999</v>
+        <v>23.7422</v>
       </c>
       <c r="AM11">
-        <v>23.56</v>
+        <v>23.565899999999999</v>
       </c>
       <c r="AN11">
-        <v>23.453399999999998</v>
+        <v>24.301100000000002</v>
       </c>
       <c r="AO11">
-        <v>23.2363</v>
+        <v>24.266100000000002</v>
       </c>
       <c r="AP11">
-        <v>23.0321</v>
+        <v>24.110800000000001</v>
       </c>
       <c r="AQ11">
-        <v>23.4588</v>
+        <v>23.862400000000001</v>
       </c>
       <c r="AR11">
-        <v>23.323799999999999</v>
+        <v>24.013100000000001</v>
       </c>
       <c r="AS11">
-        <v>23.135100000000001</v>
+        <v>23.907299999999999</v>
       </c>
       <c r="AT11">
-        <v>22.950800000000001</v>
+        <v>23.801400000000001</v>
       </c>
       <c r="AU11">
-        <v>22.74</v>
+        <v>23.639800000000001</v>
       </c>
       <c r="AV11">
-        <v>22.3233</v>
+        <v>23.4617</v>
       </c>
       <c r="AW11">
-        <v>22.263999999999999</v>
+        <v>23.018599999999999</v>
       </c>
       <c r="AX11">
-        <v>22.21</v>
+        <v>23.020199999999999</v>
       </c>
       <c r="AY11">
-        <v>22.0748</v>
+        <v>23.020299999999999</v>
       </c>
       <c r="AZ11">
-        <v>22.007000000000001</v>
+        <v>22.951799999999999</v>
       </c>
       <c r="BA11">
-        <v>22.0274</v>
+        <v>22.943100000000001</v>
       </c>
       <c r="BB11">
-        <v>21.9483</v>
+        <v>22.917000000000002</v>
       </c>
       <c r="BC11">
-        <v>22.7212</v>
+        <v>22.913599999999999</v>
       </c>
       <c r="BD11">
-        <v>22.6068</v>
+        <v>23.407900000000001</v>
       </c>
       <c r="BE11">
-        <v>22.506900000000002</v>
+        <v>23.341100000000001</v>
       </c>
       <c r="BF11">
-        <v>22.404699999999998</v>
+        <v>23.282</v>
       </c>
       <c r="BG11">
-        <v>22.364699999999999</v>
+        <v>23.226600000000001</v>
       </c>
       <c r="BH11">
-        <v>22.217400000000001</v>
+        <v>23.241299999999999</v>
       </c>
       <c r="BI11">
-        <v>22.0733</v>
+        <v>23.1325</v>
       </c>
       <c r="BJ11">
-        <v>22.046800000000001</v>
+        <v>23.0046</v>
       </c>
       <c r="BK11">
-        <v>21.943899999999999</v>
+        <v>22.985099999999999</v>
       </c>
       <c r="BL11">
-        <v>22.6873</v>
+        <v>22.9039</v>
       </c>
       <c r="BM11">
-        <v>22.5398</v>
+        <v>23.409600000000001</v>
       </c>
       <c r="BN11">
-        <v>22.464700000000001</v>
+        <v>23.314399999999999</v>
       </c>
       <c r="BO11">
-        <v>22.343599999999999</v>
+        <v>23.253799999999998</v>
       </c>
       <c r="BP11">
-        <v>22.305900000000001</v>
+        <v>23.142499999999998</v>
       </c>
       <c r="BQ11">
-        <v>22.2209</v>
+        <v>23.124700000000001</v>
       </c>
       <c r="BR11">
-        <v>22.127800000000001</v>
+        <v>23.093599999999999</v>
       </c>
       <c r="BS11">
-        <v>22.0595</v>
+        <v>23.049399999999999</v>
       </c>
       <c r="BT11">
-        <v>22.027000000000001</v>
+        <v>23.031400000000001</v>
       </c>
       <c r="BU11">
-        <v>21.909400000000002</v>
+        <v>22.940100000000001</v>
       </c>
       <c r="BV11">
-        <v>21.8202</v>
+        <v>22.854199999999999</v>
       </c>
       <c r="BW11">
-        <v>21.770099999999999</v>
+        <v>22.7928</v>
       </c>
       <c r="BX11">
-        <v>22.276499999999999</v>
+        <v>22.762699999999999</v>
       </c>
       <c r="BY11">
-        <v>22.1539</v>
+        <v>23.1111</v>
       </c>
       <c r="BZ11">
-        <v>22.1112</v>
+        <v>22.998699999999999</v>
       </c>
       <c r="CA11">
-        <v>22.106400000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.968299999999999</v>
+      </c>
+      <c r="CB11">
+        <v>22.9436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>23.336497435897439</v>
-      </c>
-      <c r="B12">
-        <v>30.962299999999999</v>
+        <v>24.152088461538472</v>
       </c>
       <c r="C12">
-        <v>25.952200000000001</v>
+        <v>31.677499999999998</v>
       </c>
       <c r="D12">
-        <v>29.486000000000001</v>
+        <v>27.229600000000001</v>
       </c>
       <c r="E12">
-        <v>27.522500000000001</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F12">
-        <v>26.144400000000001</v>
+        <v>28.395099999999999</v>
       </c>
       <c r="G12">
-        <v>26.326599999999999</v>
+        <v>26.589600000000001</v>
       </c>
       <c r="H12">
-        <v>25.484200000000001</v>
+        <v>27.2881</v>
       </c>
       <c r="I12">
-        <v>25.5839</v>
+        <v>26.011299999999999</v>
       </c>
       <c r="J12">
-        <v>25.8398</v>
+        <v>26.5914</v>
       </c>
       <c r="K12">
-        <v>25.938199999999998</v>
+        <v>26.645600000000002</v>
       </c>
       <c r="L12">
-        <v>25.249700000000001</v>
+        <v>26.525700000000001</v>
       </c>
       <c r="M12">
-        <v>24.040299999999998</v>
+        <v>26.128900000000002</v>
       </c>
       <c r="N12">
-        <v>24.965599999999998</v>
+        <v>24.783000000000001</v>
       </c>
       <c r="O12">
-        <v>25.1358</v>
+        <v>25.504999999999999</v>
       </c>
       <c r="P12">
-        <v>24.628399999999999</v>
+        <v>25.610299999999999</v>
       </c>
       <c r="Q12">
-        <v>23.040199999999999</v>
+        <v>25.1035</v>
       </c>
       <c r="R12">
-        <v>24.578600000000002</v>
+        <v>24.138300000000001</v>
       </c>
       <c r="S12">
-        <v>23.4941</v>
+        <v>25.180900000000001</v>
       </c>
       <c r="T12">
-        <v>23.956900000000001</v>
+        <v>24.105599999999999</v>
       </c>
       <c r="U12">
-        <v>23.594999999999999</v>
+        <v>24.625399999999999</v>
       </c>
       <c r="V12">
-        <v>24.271100000000001</v>
+        <v>24.571400000000001</v>
       </c>
       <c r="W12">
-        <v>22.776299999999999</v>
+        <v>24.7254</v>
       </c>
       <c r="X12">
-        <v>23.884399999999999</v>
+        <v>23.624300000000002</v>
       </c>
       <c r="Y12">
-        <v>23.507899999999999</v>
+        <v>24.4026</v>
       </c>
       <c r="Z12">
-        <v>23.892900000000001</v>
+        <v>24.2807</v>
       </c>
       <c r="AA12">
-        <v>23.4587</v>
+        <v>24.608499999999999</v>
       </c>
       <c r="AB12">
-        <v>21.8719</v>
+        <v>24.2392</v>
       </c>
       <c r="AC12">
-        <v>21.7193</v>
+        <v>22.840499999999999</v>
       </c>
       <c r="AD12">
-        <v>22.942599999999999</v>
+        <v>22.867100000000001</v>
       </c>
       <c r="AE12">
-        <v>22.799600000000002</v>
+        <v>23.738800000000001</v>
       </c>
       <c r="AF12">
-        <v>23.624600000000001</v>
+        <v>23.718599999999999</v>
       </c>
       <c r="AG12">
-        <v>23.338000000000001</v>
+        <v>24.3002</v>
       </c>
       <c r="AH12">
-        <v>23.2166</v>
+        <v>24.190999999999999</v>
       </c>
       <c r="AI12">
-        <v>23.5718</v>
+        <v>24.084299999999999</v>
       </c>
       <c r="AJ12">
-        <v>23.348099999999999</v>
+        <v>24.242899999999999</v>
       </c>
       <c r="AK12">
-        <v>21.520800000000001</v>
+        <v>24.014299999999999</v>
       </c>
       <c r="AL12">
-        <v>21.340900000000001</v>
+        <v>22.678999999999998</v>
       </c>
       <c r="AM12">
-        <v>23.210599999999999</v>
+        <v>22.606000000000002</v>
       </c>
       <c r="AN12">
-        <v>23.187000000000001</v>
+        <v>23.9057</v>
       </c>
       <c r="AO12">
-        <v>23.066600000000001</v>
+        <v>23.9771</v>
       </c>
       <c r="AP12">
-        <v>22.866499999999998</v>
+        <v>23.916599999999999</v>
       </c>
       <c r="AQ12">
-        <v>23.3825</v>
+        <v>23.744399999999999</v>
       </c>
       <c r="AR12">
-        <v>23.316099999999999</v>
+        <v>23.979299999999999</v>
       </c>
       <c r="AS12">
-        <v>23.1769</v>
+        <v>23.9147</v>
       </c>
       <c r="AT12">
-        <v>23.06</v>
+        <v>23.862100000000002</v>
       </c>
       <c r="AU12">
-        <v>22.864100000000001</v>
+        <v>23.761299999999999</v>
       </c>
       <c r="AV12">
-        <v>22.9467</v>
+        <v>23.629300000000001</v>
       </c>
       <c r="AW12">
-        <v>22.818100000000001</v>
+        <v>23.640999999999998</v>
       </c>
       <c r="AX12">
-        <v>22.552800000000001</v>
+        <v>23.564299999999999</v>
       </c>
       <c r="AY12">
-        <v>22.3947</v>
+        <v>23.369399999999999</v>
       </c>
       <c r="AZ12">
-        <v>21.167400000000001</v>
+        <v>23.233599999999999</v>
       </c>
       <c r="BA12">
-        <v>21.221499999999999</v>
+        <v>22.1599</v>
       </c>
       <c r="BB12">
-        <v>21.189900000000002</v>
+        <v>22.1678</v>
       </c>
       <c r="BC12">
-        <v>22.422599999999999</v>
+        <v>22.2028</v>
       </c>
       <c r="BD12">
-        <v>22.351800000000001</v>
+        <v>22.993500000000001</v>
       </c>
       <c r="BE12">
-        <v>22.2913</v>
+        <v>22.979700000000001</v>
       </c>
       <c r="BF12">
-        <v>22.1891</v>
+        <v>22.956199999999999</v>
       </c>
       <c r="BG12">
-        <v>22.182500000000001</v>
+        <v>22.921099999999999</v>
       </c>
       <c r="BH12">
-        <v>22.075500000000002</v>
+        <v>22.977900000000002</v>
       </c>
       <c r="BI12">
-        <v>21.9575</v>
+        <v>22.913</v>
       </c>
       <c r="BJ12">
-        <v>21.9664</v>
+        <v>22.8141</v>
       </c>
       <c r="BK12">
-        <v>21.8965</v>
+        <v>22.837800000000001</v>
       </c>
       <c r="BL12">
-        <v>22.615400000000001</v>
+        <v>22.786799999999999</v>
       </c>
       <c r="BM12">
-        <v>22.520600000000002</v>
+        <v>23.344899999999999</v>
       </c>
       <c r="BN12">
-        <v>22.401700000000002</v>
+        <v>23.290500000000002</v>
       </c>
       <c r="BO12">
-        <v>22.308599999999998</v>
+        <v>23.2121</v>
       </c>
       <c r="BP12">
-        <v>22.290900000000001</v>
+        <v>23.1251</v>
       </c>
       <c r="BQ12">
-        <v>22.121600000000001</v>
+        <v>23.1494</v>
       </c>
       <c r="BR12">
-        <v>22.061699999999998</v>
+        <v>23.064699999999998</v>
       </c>
       <c r="BS12">
-        <v>22.021999999999998</v>
+        <v>23.0732</v>
       </c>
       <c r="BT12">
-        <v>21.9602</v>
+        <v>23.068100000000001</v>
       </c>
       <c r="BU12">
-        <v>21.851099999999999</v>
+        <v>22.979500000000002</v>
       </c>
       <c r="BV12">
-        <v>21.773399999999999</v>
+        <v>22.903500000000001</v>
       </c>
       <c r="BW12">
-        <v>21.742999999999999</v>
+        <v>22.876200000000001</v>
       </c>
       <c r="BX12">
-        <v>22.542300000000001</v>
+        <v>22.866900000000001</v>
       </c>
       <c r="BY12">
-        <v>22.454799999999999</v>
+        <v>23.317</v>
       </c>
       <c r="BZ12">
-        <v>22.427399999999999</v>
+        <v>23.259599999999999</v>
       </c>
       <c r="CA12">
-        <v>22.3873</v>
-      </c>
-    </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.242799999999999</v>
+      </c>
+      <c r="CB12">
+        <v>23.235199999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>23.34396794871795</v>
-      </c>
-      <c r="B13">
-        <v>27.735600000000002</v>
+        <v>24.199221794871782</v>
       </c>
       <c r="C13">
-        <v>30.385000000000002</v>
+        <v>29.1387</v>
       </c>
       <c r="D13">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E13">
-        <v>28.652200000000001</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F13">
-        <v>28.552099999999999</v>
+        <v>29.2407</v>
       </c>
       <c r="G13">
-        <v>26.296800000000001</v>
+        <v>29.287400000000002</v>
       </c>
       <c r="H13">
-        <v>26.256499999999999</v>
+        <v>26.690899999999999</v>
       </c>
       <c r="I13">
-        <v>25.5839</v>
+        <v>26.592199999999998</v>
       </c>
       <c r="J13">
-        <v>25.614100000000001</v>
+        <v>26.5914</v>
       </c>
       <c r="K13">
-        <v>25.636900000000001</v>
+        <v>26.306699999999999</v>
       </c>
       <c r="L13">
-        <v>25.476900000000001</v>
+        <v>26.106400000000001</v>
       </c>
       <c r="M13">
-        <v>25.222300000000001</v>
+        <v>26.1645</v>
       </c>
       <c r="N13">
-        <v>24.244199999999999</v>
+        <v>26.065000000000001</v>
       </c>
       <c r="O13">
-        <v>24.6645</v>
+        <v>25.126000000000001</v>
       </c>
       <c r="P13">
-        <v>23.493400000000001</v>
+        <v>25.3063</v>
       </c>
       <c r="Q13">
-        <v>24.729600000000001</v>
+        <v>24.4986</v>
       </c>
       <c r="R13">
-        <v>24.554300000000001</v>
+        <v>25.3538</v>
       </c>
       <c r="S13">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T13">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U13">
-        <v>21.9346</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V13">
-        <v>23.303699999999999</v>
+        <v>23.080200000000001</v>
       </c>
       <c r="W13">
-        <v>24.0867</v>
+        <v>24.216200000000001</v>
       </c>
       <c r="X13">
-        <v>23.761199999999999</v>
+        <v>24.754999999999999</v>
       </c>
       <c r="Y13">
-        <v>22.2516</v>
+        <v>24.4099</v>
       </c>
       <c r="Z13">
-        <v>23.605399999999999</v>
+        <v>23.235499999999998</v>
       </c>
       <c r="AA13">
-        <v>23.337299999999999</v>
+        <v>24.301200000000001</v>
       </c>
       <c r="AB13">
-        <v>23.6159</v>
+        <v>24.262799999999999</v>
       </c>
       <c r="AC13">
-        <v>22.9725</v>
+        <v>24.3903</v>
       </c>
       <c r="AD13">
-        <v>23.3447</v>
+        <v>23.874500000000001</v>
       </c>
       <c r="AE13">
-        <v>21.8157</v>
+        <v>23.926400000000001</v>
       </c>
       <c r="AF13">
-        <v>23.004100000000001</v>
+        <v>22.902999999999999</v>
       </c>
       <c r="AG13">
-        <v>22.874700000000001</v>
+        <v>23.738700000000001</v>
       </c>
       <c r="AH13">
-        <v>22.837800000000001</v>
+        <v>23.787500000000001</v>
       </c>
       <c r="AI13">
-        <v>23.586400000000001</v>
+        <v>23.822800000000001</v>
       </c>
       <c r="AJ13">
-        <v>23.4739</v>
+        <v>24.392399999999999</v>
       </c>
       <c r="AK13">
-        <v>23.354099999999999</v>
+        <v>24.335000000000001</v>
       </c>
       <c r="AL13">
-        <v>23.1341</v>
+        <v>24.2257</v>
       </c>
       <c r="AM13">
-        <v>22.9328</v>
+        <v>23.953299999999999</v>
       </c>
       <c r="AN13">
-        <v>22.392600000000002</v>
+        <v>23.659400000000002</v>
       </c>
       <c r="AO13">
-        <v>22.299700000000001</v>
+        <v>23.216000000000001</v>
       </c>
       <c r="AP13">
-        <v>22.2133</v>
+        <v>23.170300000000001</v>
       </c>
       <c r="AQ13">
-        <v>22.995200000000001</v>
+        <v>23.102699999999999</v>
       </c>
       <c r="AR13">
-        <v>22.991599999999998</v>
+        <v>23.6252</v>
       </c>
       <c r="AS13">
-        <v>22.924900000000001</v>
+        <v>23.6402</v>
       </c>
       <c r="AT13">
-        <v>22.853999999999999</v>
+        <v>23.674900000000001</v>
       </c>
       <c r="AU13">
-        <v>22.722100000000001</v>
+        <v>23.651199999999999</v>
       </c>
       <c r="AV13">
-        <v>23.205200000000001</v>
+        <v>23.583600000000001</v>
       </c>
       <c r="AW13">
-        <v>23.112500000000001</v>
+        <v>23.877700000000001</v>
       </c>
       <c r="AX13">
-        <v>22.904299999999999</v>
+        <v>23.849</v>
       </c>
       <c r="AY13">
-        <v>22.776399999999999</v>
+        <v>23.6995</v>
       </c>
       <c r="AZ13">
-        <v>22.596599999999999</v>
+        <v>23.604399999999998</v>
       </c>
       <c r="BA13">
-        <v>22.524899999999999</v>
+        <v>23.470400000000001</v>
       </c>
       <c r="BB13">
-        <v>22.3963</v>
+        <v>23.3308</v>
       </c>
       <c r="BC13">
-        <v>22.5261</v>
+        <v>23.259599999999999</v>
       </c>
       <c r="BD13">
-        <v>21.782499999999999</v>
+        <v>23.232199999999999</v>
       </c>
       <c r="BE13">
-        <v>21.7133</v>
+        <v>22.569700000000001</v>
       </c>
       <c r="BF13">
-        <v>21.600200000000001</v>
+        <v>22.5381</v>
       </c>
       <c r="BG13">
-        <v>21.572900000000001</v>
+        <v>22.498999999999999</v>
       </c>
       <c r="BH13">
-        <v>21.4832</v>
+        <v>22.543900000000001</v>
       </c>
       <c r="BI13">
-        <v>21.3827</v>
+        <v>22.491700000000002</v>
       </c>
       <c r="BJ13">
-        <v>21.406600000000001</v>
+        <v>22.413799999999998</v>
       </c>
       <c r="BK13">
-        <v>21.354700000000001</v>
+        <v>22.4526</v>
       </c>
       <c r="BL13">
-        <v>22.0871</v>
+        <v>22.4068</v>
       </c>
       <c r="BM13">
-        <v>22.001000000000001</v>
+        <v>22.923300000000001</v>
       </c>
       <c r="BN13">
-        <v>21.919</v>
+        <v>22.878499999999999</v>
       </c>
       <c r="BO13">
-        <v>21.844200000000001</v>
+        <v>22.829499999999999</v>
       </c>
       <c r="BP13">
-        <v>21.838200000000001</v>
+        <v>22.7349</v>
       </c>
       <c r="BQ13">
-        <v>21.743500000000001</v>
+        <v>22.775400000000001</v>
       </c>
       <c r="BR13">
-        <v>21.674600000000002</v>
+        <v>22.715</v>
       </c>
       <c r="BS13">
-        <v>21.652699999999999</v>
+        <v>22.742599999999999</v>
       </c>
       <c r="BT13">
-        <v>21.591699999999999</v>
+        <v>22.749099999999999</v>
       </c>
       <c r="BU13">
-        <v>21.496600000000001</v>
+        <v>22.648</v>
       </c>
       <c r="BV13">
-        <v>21.423500000000001</v>
+        <v>22.5792</v>
       </c>
       <c r="BW13">
-        <v>21.4068</v>
+        <v>22.563300000000002</v>
       </c>
       <c r="BX13">
-        <v>22.733799999999999</v>
+        <v>22.566299999999998</v>
       </c>
       <c r="BY13">
-        <v>22.6479</v>
+        <v>23.457699999999999</v>
       </c>
       <c r="BZ13">
-        <v>22.632400000000001</v>
+        <v>23.415199999999999</v>
       </c>
       <c r="CA13">
-        <v>22.608799999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.408799999999999</v>
+      </c>
+      <c r="CB13">
+        <v>23.411300000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>23.352783333333342</v>
-      </c>
-      <c r="B14">
-        <v>28.193200000000001</v>
+        <v>24.188593589743594</v>
       </c>
       <c r="C14">
-        <v>26.756599999999999</v>
+        <v>30.014299999999999</v>
       </c>
       <c r="D14">
-        <v>29.486000000000001</v>
+        <v>28.037500000000001</v>
       </c>
       <c r="E14">
-        <v>29.561800000000002</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F14">
-        <v>27.275500000000001</v>
+        <v>30.627400000000002</v>
       </c>
       <c r="G14">
-        <v>27.040800000000001</v>
+        <v>27.549900000000001</v>
       </c>
       <c r="H14">
-        <v>26.674199999999999</v>
+        <v>27.989599999999999</v>
       </c>
       <c r="I14">
-        <v>25.5839</v>
+        <v>27.236699999999999</v>
       </c>
       <c r="J14">
-        <v>25.536799999999999</v>
+        <v>26.5914</v>
       </c>
       <c r="K14">
-        <v>25.296800000000001</v>
+        <v>26.2042</v>
       </c>
       <c r="L14">
-        <v>25.130700000000001</v>
+        <v>25.644300000000001</v>
       </c>
       <c r="M14">
-        <v>25.411200000000001</v>
+        <v>25.6538</v>
       </c>
       <c r="N14">
-        <v>24.8232</v>
+        <v>26.0581</v>
       </c>
       <c r="O14">
-        <v>24.195</v>
+        <v>25.7058</v>
       </c>
       <c r="P14">
-        <v>25.000499999999999</v>
+        <v>24.688700000000001</v>
       </c>
       <c r="Q14">
-        <v>22.9968</v>
+        <v>25.573399999999999</v>
       </c>
       <c r="R14">
-        <v>24.688300000000002</v>
+        <v>24.087800000000001</v>
       </c>
       <c r="S14">
-        <v>23.5763</v>
+        <v>25.2483</v>
       </c>
       <c r="T14">
-        <v>24.394100000000002</v>
+        <v>24.194500000000001</v>
       </c>
       <c r="U14">
-        <v>24.085100000000001</v>
+        <v>24.966799999999999</v>
       </c>
       <c r="V14">
-        <v>23.894600000000001</v>
+        <v>24.7454</v>
       </c>
       <c r="W14">
-        <v>23.0928</v>
+        <v>24.434200000000001</v>
       </c>
       <c r="X14">
-        <v>24.0092</v>
+        <v>24.1218</v>
       </c>
       <c r="Y14">
-        <v>23.636399999999998</v>
+        <v>24.7258</v>
       </c>
       <c r="Z14">
-        <v>23.560400000000001</v>
+        <v>24.452000000000002</v>
       </c>
       <c r="AA14">
-        <v>21.923200000000001</v>
+        <v>24.2605</v>
       </c>
       <c r="AB14">
-        <v>22.898099999999999</v>
+        <v>23.010200000000001</v>
       </c>
       <c r="AC14">
-        <v>22.569500000000001</v>
+        <v>23.786200000000001</v>
       </c>
       <c r="AD14">
-        <v>23.8323</v>
+        <v>23.630800000000001</v>
       </c>
       <c r="AE14">
-        <v>23.473800000000001</v>
+        <v>24.457899999999999</v>
       </c>
       <c r="AF14">
-        <v>23.3249</v>
+        <v>24.2117</v>
       </c>
       <c r="AG14">
-        <v>22.1496</v>
+        <v>24.004999999999999</v>
       </c>
       <c r="AH14">
-        <v>22.229800000000001</v>
+        <v>23.043099999999999</v>
       </c>
       <c r="AI14">
-        <v>23.261500000000002</v>
+        <v>23.2043</v>
       </c>
       <c r="AJ14">
-        <v>23.3</v>
+        <v>23.9772</v>
       </c>
       <c r="AK14">
-        <v>23.150200000000002</v>
+        <v>24.106000000000002</v>
       </c>
       <c r="AL14">
-        <v>22.811900000000001</v>
+        <v>24.080500000000001</v>
       </c>
       <c r="AM14">
-        <v>23.848500000000001</v>
+        <v>23.837700000000002</v>
       </c>
       <c r="AN14">
-        <v>23.664000000000001</v>
+        <v>24.4893</v>
       </c>
       <c r="AO14">
-        <v>23.368500000000001</v>
+        <v>24.3582</v>
       </c>
       <c r="AP14">
-        <v>21.5166</v>
+        <v>24.114899999999999</v>
       </c>
       <c r="AQ14">
-        <v>22.4969</v>
+        <v>22.5274</v>
       </c>
       <c r="AR14">
-        <v>22.552399999999999</v>
+        <v>23.1707</v>
       </c>
       <c r="AS14">
-        <v>22.549900000000001</v>
+        <v>23.2392</v>
       </c>
       <c r="AT14">
-        <v>22.5487</v>
+        <v>23.3233</v>
       </c>
       <c r="AU14">
-        <v>22.4815</v>
+        <v>23.348700000000001</v>
       </c>
       <c r="AV14">
-        <v>23.208400000000001</v>
+        <v>23.340299999999999</v>
       </c>
       <c r="AW14">
-        <v>23.113700000000001</v>
+        <v>23.7789</v>
       </c>
       <c r="AX14">
-        <v>22.9773</v>
+        <v>23.746500000000001</v>
       </c>
       <c r="AY14">
-        <v>22.895700000000001</v>
+        <v>23.667000000000002</v>
       </c>
       <c r="AZ14">
-        <v>22.750900000000001</v>
+        <v>23.614899999999999</v>
       </c>
       <c r="BA14">
-        <v>22.707799999999999</v>
+        <v>23.532699999999998</v>
       </c>
       <c r="BB14">
-        <v>22.612200000000001</v>
+        <v>23.429300000000001</v>
       </c>
       <c r="BC14">
-        <v>23.022200000000002</v>
+        <v>23.4024</v>
       </c>
       <c r="BD14">
-        <v>22.8216</v>
+        <v>23.6556</v>
       </c>
       <c r="BE14">
-        <v>22.6599</v>
+        <v>23.5182</v>
       </c>
       <c r="BF14">
-        <v>22.509499999999999</v>
+        <v>23.382899999999999</v>
       </c>
       <c r="BG14">
-        <v>22.4221</v>
+        <v>23.2879</v>
       </c>
       <c r="BH14">
-        <v>21.0288</v>
+        <v>23.256799999999998</v>
       </c>
       <c r="BI14">
-        <v>20.941600000000001</v>
+        <v>22.138000000000002</v>
       </c>
       <c r="BJ14">
-        <v>20.9755</v>
+        <v>22.0626</v>
       </c>
       <c r="BK14">
-        <v>20.9346</v>
+        <v>22.112100000000002</v>
       </c>
       <c r="BL14">
-        <v>21.994599999999998</v>
+        <v>22.073699999999999</v>
       </c>
       <c r="BM14">
-        <v>21.925899999999999</v>
+        <v>22.798100000000002</v>
       </c>
       <c r="BN14">
-        <v>21.857500000000002</v>
+        <v>22.761700000000001</v>
       </c>
       <c r="BO14">
-        <v>21.8005</v>
+        <v>22.7254</v>
       </c>
       <c r="BP14">
-        <v>21.8094</v>
+        <v>22.647500000000001</v>
       </c>
       <c r="BQ14">
-        <v>21.719899999999999</v>
+        <v>22.700600000000001</v>
       </c>
       <c r="BR14">
-        <v>21.668500000000002</v>
+        <v>22.642700000000001</v>
       </c>
       <c r="BS14">
-        <v>21.660599999999999</v>
+        <v>22.686900000000001</v>
       </c>
       <c r="BT14">
-        <v>21.602499999999999</v>
+        <v>22.699400000000001</v>
       </c>
       <c r="BU14">
-        <v>21.516100000000002</v>
+        <v>22.6295</v>
       </c>
       <c r="BV14">
-        <v>21.45</v>
+        <v>22.573</v>
       </c>
       <c r="BW14">
-        <v>21.442799999999998</v>
+        <v>22.572800000000001</v>
       </c>
       <c r="BX14">
-        <v>22.466999999999999</v>
+        <v>22.586500000000001</v>
       </c>
       <c r="BY14">
-        <v>22.403199999999998</v>
+        <v>23.314900000000002</v>
       </c>
       <c r="BZ14">
-        <v>22.397200000000002</v>
+        <v>23.289100000000001</v>
       </c>
       <c r="CA14">
-        <v>22.367599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.286899999999999</v>
+      </c>
+      <c r="CB14">
+        <v>23.285799999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>23.401357692307695</v>
-      </c>
-      <c r="B15">
-        <v>31.268699999999999</v>
+        <v>24.257756410256412</v>
       </c>
       <c r="C15">
-        <v>30.385000000000002</v>
+        <v>32.254300000000001</v>
       </c>
       <c r="D15">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E15">
-        <v>27.613</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F15">
-        <v>27.963899999999999</v>
+        <v>28.652999999999999</v>
       </c>
       <c r="G15">
-        <v>27.475899999999999</v>
+        <v>28.826499999999999</v>
       </c>
       <c r="H15">
-        <v>27.367100000000001</v>
+        <v>28.547599999999999</v>
       </c>
       <c r="I15">
-        <v>25.5839</v>
+        <v>28.051500000000001</v>
       </c>
       <c r="J15">
-        <v>25.7121</v>
+        <v>26.5914</v>
       </c>
       <c r="K15">
-        <v>24.465</v>
+        <v>26.2682</v>
       </c>
       <c r="L15">
-        <v>24.6252</v>
+        <v>25.245000000000001</v>
       </c>
       <c r="M15">
-        <v>23.642199999999999</v>
+        <v>25.267700000000001</v>
       </c>
       <c r="N15">
-        <v>25.018999999999998</v>
+        <v>24.477699999999999</v>
       </c>
       <c r="O15">
-        <v>25.171399999999998</v>
+        <v>25.579799999999999</v>
       </c>
       <c r="P15">
-        <v>22.934200000000001</v>
+        <v>25.714600000000001</v>
       </c>
       <c r="Q15">
-        <v>24.564599999999999</v>
+        <v>24.055499999999999</v>
       </c>
       <c r="R15">
-        <v>24.554300000000001</v>
+        <v>25.32</v>
       </c>
       <c r="S15">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T15">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U15">
-        <v>22.6159</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V15">
-        <v>24.126799999999999</v>
+        <v>23.669899999999998</v>
       </c>
       <c r="W15">
-        <v>23.921500000000002</v>
+        <v>24.742699999999999</v>
       </c>
       <c r="X15">
-        <v>23.097200000000001</v>
+        <v>24.6294</v>
       </c>
       <c r="Y15">
-        <v>22.830300000000001</v>
+        <v>23.806100000000001</v>
       </c>
       <c r="Z15">
-        <v>23.982199999999999</v>
+        <v>23.8186</v>
       </c>
       <c r="AA15">
-        <v>23.651299999999999</v>
+        <v>24.6965</v>
       </c>
       <c r="AB15">
-        <v>23.2879</v>
+        <v>24.455100000000002</v>
       </c>
       <c r="AC15">
-        <v>21.811599999999999</v>
+        <v>24.068999999999999</v>
       </c>
       <c r="AD15">
-        <v>23.000499999999999</v>
+        <v>22.974299999999999</v>
       </c>
       <c r="AE15">
-        <v>22.811699999999998</v>
+        <v>23.832000000000001</v>
       </c>
       <c r="AF15">
-        <v>23.566400000000002</v>
+        <v>23.760300000000001</v>
       </c>
       <c r="AG15">
-        <v>23.416599999999999</v>
+        <v>24.268599999999999</v>
       </c>
       <c r="AH15">
-        <v>23.216699999999999</v>
+        <v>24.222999999999999</v>
       </c>
       <c r="AI15">
-        <v>22.782900000000001</v>
+        <v>24.036100000000001</v>
       </c>
       <c r="AJ15">
-        <v>22.912600000000001</v>
+        <v>23.483000000000001</v>
       </c>
       <c r="AK15">
-        <v>22.8279</v>
+        <v>23.6953</v>
       </c>
       <c r="AL15">
-        <v>22.523299999999999</v>
+        <v>23.7422</v>
       </c>
       <c r="AM15">
-        <v>23.56</v>
+        <v>23.565899999999999</v>
       </c>
       <c r="AN15">
-        <v>23.453399999999998</v>
+        <v>24.301100000000002</v>
       </c>
       <c r="AO15">
-        <v>23.2363</v>
+        <v>24.266100000000002</v>
       </c>
       <c r="AP15">
-        <v>23.0321</v>
+        <v>24.110800000000001</v>
       </c>
       <c r="AQ15">
-        <v>23.4588</v>
+        <v>23.862400000000001</v>
       </c>
       <c r="AR15">
-        <v>23.323799999999999</v>
+        <v>24.013100000000001</v>
       </c>
       <c r="AS15">
-        <v>22.042000000000002</v>
+        <v>23.907299999999999</v>
       </c>
       <c r="AT15">
-        <v>22.076599999999999</v>
+        <v>22.841799999999999</v>
       </c>
       <c r="AU15">
-        <v>22.0503</v>
+        <v>22.893699999999999</v>
       </c>
       <c r="AV15">
-        <v>22.831299999999999</v>
+        <v>22.922000000000001</v>
       </c>
       <c r="AW15">
-        <v>22.737400000000001</v>
+        <v>23.466000000000001</v>
       </c>
       <c r="AX15">
-        <v>22.634599999999999</v>
+        <v>23.4361</v>
       </c>
       <c r="AY15">
-        <v>22.527899999999999</v>
+        <v>23.383600000000001</v>
       </c>
       <c r="AZ15">
-        <v>22.4194</v>
+        <v>23.328800000000001</v>
       </c>
       <c r="BA15">
-        <v>22.407299999999999</v>
+        <v>23.286899999999999</v>
       </c>
       <c r="BB15">
-        <v>22.345300000000002</v>
+        <v>23.2226</v>
       </c>
       <c r="BC15">
-        <v>23.051200000000001</v>
+        <v>23.221499999999999</v>
       </c>
       <c r="BD15">
-        <v>22.8706</v>
+        <v>23.654800000000002</v>
       </c>
       <c r="BE15">
-        <v>22.735299999999999</v>
+        <v>23.545100000000001</v>
       </c>
       <c r="BF15">
-        <v>22.604900000000001</v>
+        <v>23.443200000000001</v>
       </c>
       <c r="BG15">
-        <v>22.5382</v>
+        <v>23.360099999999999</v>
       </c>
       <c r="BH15">
-        <v>22.370699999999999</v>
+        <v>23.34</v>
       </c>
       <c r="BI15">
-        <v>22.1921</v>
+        <v>23.191400000000002</v>
       </c>
       <c r="BJ15">
-        <v>22.142900000000001</v>
+        <v>23.036899999999999</v>
       </c>
       <c r="BK15">
-        <v>22.0029</v>
+        <v>22.990100000000002</v>
       </c>
       <c r="BL15">
-        <v>21.643000000000001</v>
+        <v>22.877300000000002</v>
       </c>
       <c r="BM15">
-        <v>21.5914</v>
+        <v>22.495899999999999</v>
       </c>
       <c r="BN15">
-        <v>21.534700000000001</v>
+        <v>22.472799999999999</v>
       </c>
       <c r="BO15">
-        <v>21.497399999999999</v>
+        <v>22.452000000000002</v>
       </c>
       <c r="BP15">
-        <v>21.512</v>
+        <v>22.3962</v>
       </c>
       <c r="BQ15">
-        <v>21.432500000000001</v>
+        <v>22.4617</v>
       </c>
       <c r="BR15">
-        <v>21.395900000000001</v>
+        <v>22.405899999999999</v>
       </c>
       <c r="BS15">
-        <v>21.368200000000002</v>
+        <v>22.4908</v>
       </c>
       <c r="BT15">
-        <v>21.3233</v>
+        <v>22.482399999999998</v>
       </c>
       <c r="BU15">
-        <v>21.196400000000001</v>
+        <v>22.430299999999999</v>
       </c>
       <c r="BV15">
-        <v>21.151</v>
+        <v>22.354399999999998</v>
       </c>
       <c r="BW15">
-        <v>21.153099999999998</v>
+        <v>22.3673</v>
       </c>
       <c r="BX15">
-        <v>22.4604</v>
+        <v>22.390599999999999</v>
       </c>
       <c r="BY15">
-        <v>22.405799999999999</v>
+        <v>23.298100000000002</v>
       </c>
       <c r="BZ15">
-        <v>22.407699999999998</v>
+        <v>23.286100000000001</v>
       </c>
       <c r="CA15">
-        <v>22.3886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.295200000000001</v>
+      </c>
+      <c r="CB15">
+        <v>23.302299999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>23.309714102564101</v>
-      </c>
-      <c r="B16">
-        <v>27.7776</v>
+        <v>24.191160256410249</v>
       </c>
       <c r="C16">
-        <v>27.041</v>
+        <v>29.179600000000001</v>
       </c>
       <c r="D16">
-        <v>29.486000000000001</v>
+        <v>28.674499999999998</v>
       </c>
       <c r="E16">
-        <v>28.877600000000001</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F16">
-        <v>27.8322</v>
+        <v>29.587700000000002</v>
       </c>
       <c r="G16">
-        <v>27.3569</v>
+        <v>28.5259</v>
       </c>
       <c r="H16">
-        <v>27.503499999999999</v>
+        <v>28.268899999999999</v>
       </c>
       <c r="I16">
-        <v>25.5839</v>
+        <v>28.257000000000001</v>
       </c>
       <c r="J16">
-        <v>24.776499999999999</v>
+        <v>26.5914</v>
       </c>
       <c r="K16">
-        <v>25.286799999999999</v>
+        <v>25.448599999999999</v>
       </c>
       <c r="L16">
-        <v>25.249500000000001</v>
+        <v>26.039200000000001</v>
       </c>
       <c r="M16">
-        <v>25.1571</v>
+        <v>26.079799999999999</v>
       </c>
       <c r="N16">
-        <v>24.2882</v>
+        <v>25.905200000000001</v>
       </c>
       <c r="O16">
-        <v>24.335799999999999</v>
+        <v>25.221599999999999</v>
       </c>
       <c r="P16">
-        <v>24.317799999999998</v>
+        <v>25.009</v>
       </c>
       <c r="Q16">
-        <v>22.408000000000001</v>
+        <v>25.2056</v>
       </c>
       <c r="R16">
-        <v>24.723400000000002</v>
+        <v>23.637799999999999</v>
       </c>
       <c r="S16">
-        <v>23.7136</v>
+        <v>25.2913</v>
       </c>
       <c r="T16">
-        <v>24.450399999999998</v>
+        <v>24.400099999999998</v>
       </c>
       <c r="U16">
-        <v>23.990500000000001</v>
+        <v>25.098199999999999</v>
       </c>
       <c r="V16">
-        <v>22.9907</v>
+        <v>24.620999999999999</v>
       </c>
       <c r="W16">
-        <v>24.177800000000001</v>
+        <v>23.802199999999999</v>
       </c>
       <c r="X16">
-        <v>24.2209</v>
+        <v>24.819600000000001</v>
       </c>
       <c r="Y16">
-        <v>23.9087</v>
+        <v>24.858799999999999</v>
       </c>
       <c r="Z16">
-        <v>23.0198</v>
+        <v>24.574400000000001</v>
       </c>
       <c r="AA16">
-        <v>22.713899999999999</v>
+        <v>23.782800000000002</v>
       </c>
       <c r="AB16">
-        <v>23.6799</v>
+        <v>23.761600000000001</v>
       </c>
       <c r="AC16">
-        <v>23.084599999999998</v>
+        <v>24.433800000000002</v>
       </c>
       <c r="AD16">
-        <v>22.3597</v>
+        <v>23.9739</v>
       </c>
       <c r="AE16">
-        <v>22.299800000000001</v>
+        <v>23.243600000000001</v>
       </c>
       <c r="AF16">
-        <v>23.3415</v>
+        <v>23.322500000000002</v>
       </c>
       <c r="AG16">
-        <v>23.133900000000001</v>
+        <v>24.067</v>
       </c>
       <c r="AH16">
-        <v>23.032800000000002</v>
+        <v>24.046800000000001</v>
       </c>
       <c r="AI16">
-        <v>23.500499999999999</v>
+        <v>24.001000000000001</v>
       </c>
       <c r="AJ16">
-        <v>23.355599999999999</v>
+        <v>24.3201</v>
       </c>
       <c r="AK16">
-        <v>22.158799999999999</v>
+        <v>24.1845</v>
       </c>
       <c r="AL16">
-        <v>21.9435</v>
+        <v>23.165500000000002</v>
       </c>
       <c r="AM16">
-        <v>23.271899999999999</v>
+        <v>23.070399999999999</v>
       </c>
       <c r="AN16">
-        <v>23.2271</v>
+        <v>23.9833</v>
       </c>
       <c r="AO16">
-        <v>23.083200000000001</v>
+        <v>24.037099999999999</v>
       </c>
       <c r="AP16">
-        <v>22.866599999999998</v>
+        <v>23.964300000000001</v>
       </c>
       <c r="AQ16">
-        <v>23.363299999999999</v>
+        <v>23.775700000000001</v>
       </c>
       <c r="AR16">
-        <v>23.276900000000001</v>
+        <v>23.9954</v>
       </c>
       <c r="AS16">
-        <v>23.1191</v>
+        <v>23.931999999999999</v>
       </c>
       <c r="AT16">
-        <v>22.991199999999999</v>
+        <v>23.880700000000001</v>
       </c>
       <c r="AU16">
-        <v>22.7821</v>
+        <v>23.756499999999999</v>
       </c>
       <c r="AV16">
-        <v>22.4453</v>
+        <v>23.607900000000001</v>
       </c>
       <c r="AW16">
-        <v>22.371500000000001</v>
+        <v>23.147099999999998</v>
       </c>
       <c r="AX16">
-        <v>22.299600000000002</v>
+        <v>23.1386</v>
       </c>
       <c r="AY16">
-        <v>22.148299999999999</v>
+        <v>23.125399999999999</v>
       </c>
       <c r="AZ16">
-        <v>22.064900000000002</v>
+        <v>23.0412</v>
       </c>
       <c r="BA16">
-        <v>22.072399999999998</v>
+        <v>23.0213</v>
       </c>
       <c r="BB16">
-        <v>21.979900000000001</v>
+        <v>22.982800000000001</v>
       </c>
       <c r="BC16">
-        <v>22.741</v>
+        <v>22.9725</v>
       </c>
       <c r="BD16">
-        <v>22.612200000000001</v>
+        <v>23.458100000000002</v>
       </c>
       <c r="BE16">
-        <v>22.498799999999999</v>
+        <v>23.385899999999999</v>
       </c>
       <c r="BF16">
-        <v>22.384699999999999</v>
+        <v>23.310500000000001</v>
       </c>
       <c r="BG16">
-        <v>22.333300000000001</v>
+        <v>23.246700000000001</v>
       </c>
       <c r="BH16">
-        <v>22.179200000000002</v>
+        <v>23.261800000000001</v>
       </c>
       <c r="BI16">
-        <v>22.0276</v>
+        <v>23.126799999999999</v>
       </c>
       <c r="BJ16">
-        <v>21.991199999999999</v>
+        <v>22.9924</v>
       </c>
       <c r="BK16">
-        <v>21.88</v>
+        <v>22.958600000000001</v>
       </c>
       <c r="BL16">
-        <v>22.466799999999999</v>
+        <v>22.870200000000001</v>
       </c>
       <c r="BM16">
-        <v>22.3126</v>
+        <v>23.2348</v>
       </c>
       <c r="BN16">
-        <v>22.235600000000002</v>
+        <v>23.134</v>
       </c>
       <c r="BO16">
-        <v>22.108799999999999</v>
+        <v>23.062799999999999</v>
       </c>
       <c r="BP16">
-        <v>21.2317</v>
+        <v>22.9466</v>
       </c>
       <c r="BQ16">
-        <v>21.1568</v>
+        <v>22.1966</v>
       </c>
       <c r="BR16">
-        <v>21.128699999999998</v>
+        <v>22.1419</v>
       </c>
       <c r="BS16">
-        <v>21.1203</v>
+        <v>22.249500000000001</v>
       </c>
       <c r="BT16">
-        <v>21.0809</v>
+        <v>22.250399999999999</v>
       </c>
       <c r="BU16">
-        <v>20.981000000000002</v>
+        <v>22.203099999999999</v>
       </c>
       <c r="BV16">
-        <v>20.927199999999999</v>
+        <v>22.143699999999999</v>
       </c>
       <c r="BW16">
-        <v>20.867899999999999</v>
+        <v>22.1511</v>
       </c>
       <c r="BX16">
-        <v>22.392600000000002</v>
+        <v>22.148700000000002</v>
       </c>
       <c r="BY16">
-        <v>22.349399999999999</v>
+        <v>23.197299999999998</v>
       </c>
       <c r="BZ16">
-        <v>22.3584</v>
+        <v>23.195</v>
       </c>
       <c r="CA16">
-        <v>22.349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.2118</v>
+      </c>
+      <c r="CB16">
+        <v>23.224299999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>23.495664102564099</v>
-      </c>
-      <c r="B17">
-        <v>28.193200000000001</v>
+        <v>24.345823076923079</v>
       </c>
       <c r="C17">
-        <v>30.385000000000002</v>
+        <v>30.014299999999999</v>
       </c>
       <c r="D17">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E17">
-        <v>29.561800000000002</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F17">
-        <v>27.802600000000002</v>
+        <v>30.627400000000002</v>
       </c>
       <c r="G17">
-        <v>26.635899999999999</v>
+        <v>28.633299999999998</v>
       </c>
       <c r="H17">
-        <v>26.96</v>
+        <v>27.1967</v>
       </c>
       <c r="I17">
-        <v>25.5839</v>
+        <v>27.900300000000001</v>
       </c>
       <c r="J17">
-        <v>25.146999999999998</v>
+        <v>26.5914</v>
       </c>
       <c r="K17">
-        <v>26.0473</v>
+        <v>25.900500000000001</v>
       </c>
       <c r="L17">
-        <v>25.4422</v>
+        <v>26.660399999999999</v>
       </c>
       <c r="M17">
-        <v>25.2118</v>
+        <v>26.247299999999999</v>
       </c>
       <c r="N17">
-        <v>24.8232</v>
+        <v>26.0762</v>
       </c>
       <c r="O17">
-        <v>25.052399999999999</v>
+        <v>25.7058</v>
       </c>
       <c r="P17">
-        <v>24.768999999999998</v>
+        <v>25.520900000000001</v>
       </c>
       <c r="Q17">
-        <v>24.588000000000001</v>
+        <v>25.248000000000001</v>
       </c>
       <c r="R17">
-        <v>24.554300000000001</v>
+        <v>25.3507</v>
       </c>
       <c r="S17">
-        <v>24.489699999999999</v>
+        <v>25.1691</v>
       </c>
       <c r="T17">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U17">
-        <v>23.462399999999999</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V17">
-        <v>24.075399999999998</v>
+        <v>24.365100000000002</v>
       </c>
       <c r="W17">
-        <v>23.7119</v>
+        <v>24.723500000000001</v>
       </c>
       <c r="X17">
-        <v>23.978100000000001</v>
+        <v>24.420200000000001</v>
       </c>
       <c r="Y17">
-        <v>23.503499999999999</v>
+        <v>24.512599999999999</v>
       </c>
       <c r="Z17">
-        <v>23.7896</v>
+        <v>24.293299999999999</v>
       </c>
       <c r="AA17">
-        <v>21.923200000000001</v>
+        <v>24.5169</v>
       </c>
       <c r="AB17">
-        <v>22.898099999999999</v>
+        <v>23.010200000000001</v>
       </c>
       <c r="AC17">
-        <v>22.569500000000001</v>
+        <v>23.786200000000001</v>
       </c>
       <c r="AD17">
-        <v>23.8323</v>
+        <v>23.630800000000001</v>
       </c>
       <c r="AE17">
-        <v>23.473800000000001</v>
+        <v>24.457899999999999</v>
       </c>
       <c r="AF17">
-        <v>22.876899999999999</v>
+        <v>24.2117</v>
       </c>
       <c r="AG17">
-        <v>22.804300000000001</v>
+        <v>23.574300000000001</v>
       </c>
       <c r="AH17">
-        <v>22.821200000000001</v>
+        <v>23.674900000000001</v>
       </c>
       <c r="AI17">
-        <v>23.622499999999999</v>
+        <v>23.767499999999998</v>
       </c>
       <c r="AJ17">
-        <v>23.566700000000001</v>
+        <v>24.401900000000001</v>
       </c>
       <c r="AK17">
-        <v>23.496700000000001</v>
+        <v>24.396799999999999</v>
       </c>
       <c r="AL17">
-        <v>23.300899999999999</v>
+        <v>24.3475</v>
       </c>
       <c r="AM17">
-        <v>23.4693</v>
+        <v>24.138500000000001</v>
       </c>
       <c r="AN17">
-        <v>22.476099999999999</v>
+        <v>24.0946</v>
       </c>
       <c r="AO17">
-        <v>22.366299999999999</v>
+        <v>23.353400000000001</v>
       </c>
       <c r="AP17">
-        <v>22.2591</v>
+        <v>23.297799999999999</v>
       </c>
       <c r="AQ17">
-        <v>23.3443</v>
+        <v>23.2013</v>
       </c>
       <c r="AR17">
-        <v>23.322500000000002</v>
+        <v>23.883500000000002</v>
       </c>
       <c r="AS17">
-        <v>23.217700000000001</v>
+        <v>23.870699999999999</v>
       </c>
       <c r="AT17">
-        <v>23.130800000000001</v>
+        <v>23.8583</v>
       </c>
       <c r="AU17">
-        <v>22.9663</v>
+        <v>23.802199999999999</v>
       </c>
       <c r="AV17">
-        <v>23.258700000000001</v>
+        <v>23.7059</v>
       </c>
       <c r="AW17">
-        <v>23.146000000000001</v>
+        <v>23.894100000000002</v>
       </c>
       <c r="AX17">
-        <v>22.8858</v>
+        <v>23.848700000000001</v>
       </c>
       <c r="AY17">
-        <v>22.0748</v>
+        <v>23.662800000000001</v>
       </c>
       <c r="AZ17">
-        <v>22.007000000000001</v>
+        <v>22.951799999999999</v>
       </c>
       <c r="BA17">
-        <v>22.0274</v>
+        <v>22.943100000000001</v>
       </c>
       <c r="BB17">
-        <v>21.9483</v>
+        <v>22.917000000000002</v>
       </c>
       <c r="BC17">
-        <v>22.7212</v>
+        <v>22.913599999999999</v>
       </c>
       <c r="BD17">
-        <v>22.6068</v>
+        <v>23.407900000000001</v>
       </c>
       <c r="BE17">
-        <v>22.506900000000002</v>
+        <v>23.341100000000001</v>
       </c>
       <c r="BF17">
-        <v>22.404699999999998</v>
+        <v>23.282</v>
       </c>
       <c r="BG17">
-        <v>22.364699999999999</v>
+        <v>23.226600000000001</v>
       </c>
       <c r="BH17">
-        <v>22.217400000000001</v>
+        <v>23.241299999999999</v>
       </c>
       <c r="BI17">
-        <v>22.0733</v>
+        <v>23.1325</v>
       </c>
       <c r="BJ17">
-        <v>22.046800000000001</v>
+        <v>23.0046</v>
       </c>
       <c r="BK17">
-        <v>21.943899999999999</v>
+        <v>22.985099999999999</v>
       </c>
       <c r="BL17">
-        <v>22.6873</v>
+        <v>22.9039</v>
       </c>
       <c r="BM17">
-        <v>22.5398</v>
+        <v>23.409600000000001</v>
       </c>
       <c r="BN17">
-        <v>22.464700000000001</v>
+        <v>23.314399999999999</v>
       </c>
       <c r="BO17">
-        <v>22.343599999999999</v>
+        <v>23.253799999999998</v>
       </c>
       <c r="BP17">
-        <v>22.305900000000001</v>
+        <v>23.142499999999998</v>
       </c>
       <c r="BQ17">
-        <v>22.2209</v>
+        <v>23.124700000000001</v>
       </c>
       <c r="BR17">
-        <v>22.127800000000001</v>
+        <v>23.093599999999999</v>
       </c>
       <c r="BS17">
-        <v>22.0595</v>
+        <v>23.049399999999999</v>
       </c>
       <c r="BT17">
-        <v>20.996600000000001</v>
+        <v>23.031400000000001</v>
       </c>
       <c r="BU17">
-        <v>20.905200000000001</v>
+        <v>22.0684</v>
       </c>
       <c r="BV17">
-        <v>20.858699999999999</v>
+        <v>22.015000000000001</v>
       </c>
       <c r="BW17">
-        <v>20.8065</v>
+        <v>22.0273</v>
       </c>
       <c r="BX17">
-        <v>21.933199999999999</v>
+        <v>22.030100000000001</v>
       </c>
       <c r="BY17">
-        <v>21.8965</v>
+        <v>22.809899999999999</v>
       </c>
       <c r="BZ17">
-        <v>21.9116</v>
+        <v>22.811199999999999</v>
       </c>
       <c r="CA17">
-        <v>21.882899999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.832100000000001</v>
+      </c>
+      <c r="CB17">
+        <v>22.834499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>23.551088461538463</v>
-      </c>
-      <c r="B18">
-        <v>31.3751</v>
+        <v>24.379674358974366</v>
       </c>
       <c r="C18">
-        <v>27.140899999999998</v>
+        <v>32.475700000000003</v>
       </c>
       <c r="D18">
-        <v>29.486000000000001</v>
+        <v>28.788699999999999</v>
       </c>
       <c r="E18">
-        <v>28.9986</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F18">
-        <v>28.509399999999999</v>
+        <v>29.971599999999999</v>
       </c>
       <c r="G18">
-        <v>27.3232</v>
+        <v>29.1614</v>
       </c>
       <c r="H18">
-        <v>26.918099999999999</v>
+        <v>28.3172</v>
       </c>
       <c r="I18">
-        <v>25.5839</v>
+        <v>27.832899999999999</v>
       </c>
       <c r="J18">
-        <v>25.328199999999999</v>
+        <v>26.5914</v>
       </c>
       <c r="K18">
-        <v>26.010100000000001</v>
+        <v>26.172699999999999</v>
       </c>
       <c r="L18">
-        <v>25.431100000000001</v>
+        <v>26.619499999999999</v>
       </c>
       <c r="M18">
-        <v>25.543600000000001</v>
+        <v>26.130400000000002</v>
       </c>
       <c r="N18">
-        <v>25.0715</v>
+        <v>25.958200000000001</v>
       </c>
       <c r="O18">
-        <v>25.119399999999999</v>
+        <v>25.6159</v>
       </c>
       <c r="P18">
-        <v>23.623000000000001</v>
+        <v>25.6754</v>
       </c>
       <c r="Q18">
-        <v>24.5441</v>
+        <v>24.710799999999999</v>
       </c>
       <c r="R18">
-        <v>24.729500000000002</v>
+        <v>25.092099999999999</v>
       </c>
       <c r="S18">
-        <v>24.019200000000001</v>
+        <v>25.2744</v>
       </c>
       <c r="T18">
-        <v>24.450399999999998</v>
+        <v>24.637499999999999</v>
       </c>
       <c r="U18">
-        <v>23.990500000000001</v>
+        <v>25.098199999999999</v>
       </c>
       <c r="V18">
-        <v>23.256599999999999</v>
+        <v>24.620999999999999</v>
       </c>
       <c r="W18">
-        <v>24.125599999999999</v>
+        <v>24.145700000000001</v>
       </c>
       <c r="X18">
-        <v>23.959199999999999</v>
+        <v>24.803699999999999</v>
       </c>
       <c r="Y18">
-        <v>22.799299999999999</v>
+        <v>24.635300000000001</v>
       </c>
       <c r="Z18">
-        <v>23.984200000000001</v>
+        <v>23.755600000000001</v>
       </c>
       <c r="AA18">
-        <v>23.68</v>
+        <v>24.662199999999999</v>
       </c>
       <c r="AB18">
-        <v>23.344000000000001</v>
+        <v>24.4833</v>
       </c>
       <c r="AC18">
-        <v>22.4589</v>
+        <v>24.144600000000001</v>
       </c>
       <c r="AD18">
-        <v>23.0199</v>
+        <v>23.445499999999999</v>
       </c>
       <c r="AE18">
-        <v>22.799600000000002</v>
+        <v>23.8673</v>
       </c>
       <c r="AF18">
-        <v>23.5197</v>
+        <v>23.753299999999999</v>
       </c>
       <c r="AG18">
-        <v>23.34</v>
+        <v>24.2164</v>
       </c>
       <c r="AH18">
-        <v>22.229800000000001</v>
+        <v>24.115500000000001</v>
       </c>
       <c r="AI18">
-        <v>23.261500000000002</v>
+        <v>23.2043</v>
       </c>
       <c r="AJ18">
-        <v>23.3</v>
+        <v>23.9772</v>
       </c>
       <c r="AK18">
-        <v>23.150200000000002</v>
+        <v>24.106000000000002</v>
       </c>
       <c r="AL18">
-        <v>22.811900000000001</v>
+        <v>24.080500000000001</v>
       </c>
       <c r="AM18">
-        <v>23.848500000000001</v>
+        <v>23.837700000000002</v>
       </c>
       <c r="AN18">
-        <v>23.664000000000001</v>
+        <v>24.4893</v>
       </c>
       <c r="AO18">
-        <v>23.368500000000001</v>
+        <v>24.3582</v>
       </c>
       <c r="AP18">
-        <v>22.139500000000002</v>
+        <v>24.114899999999999</v>
       </c>
       <c r="AQ18">
-        <v>22.950500000000002</v>
+        <v>23.019600000000001</v>
       </c>
       <c r="AR18">
-        <v>22.974599999999999</v>
+        <v>23.551600000000001</v>
       </c>
       <c r="AS18">
-        <v>22.934100000000001</v>
+        <v>23.5855</v>
       </c>
       <c r="AT18">
-        <v>22.8855</v>
+        <v>23.629300000000001</v>
       </c>
       <c r="AU18">
-        <v>22.778600000000001</v>
+        <v>23.625800000000002</v>
       </c>
       <c r="AV18">
-        <v>23.23</v>
+        <v>23.588899999999999</v>
       </c>
       <c r="AW18">
-        <v>23.101299999999998</v>
+        <v>23.8431</v>
       </c>
       <c r="AX18">
-        <v>22.929400000000001</v>
+        <v>23.7835</v>
       </c>
       <c r="AY18">
-        <v>22.817699999999999</v>
+        <v>23.660699999999999</v>
       </c>
       <c r="AZ18">
-        <v>22.647500000000001</v>
+        <v>23.593399999999999</v>
       </c>
       <c r="BA18">
-        <v>22.586600000000001</v>
+        <v>23.479900000000001</v>
       </c>
       <c r="BB18">
-        <v>21.572399999999998</v>
+        <v>23.351400000000002</v>
       </c>
       <c r="BC18">
-        <v>22.5166</v>
+        <v>22.545500000000001</v>
       </c>
       <c r="BD18">
-        <v>22.4329</v>
+        <v>23.123699999999999</v>
       </c>
       <c r="BE18">
-        <v>22.359100000000002</v>
+        <v>23.090199999999999</v>
       </c>
       <c r="BF18">
-        <v>22.2468</v>
+        <v>23.054600000000001</v>
       </c>
       <c r="BG18">
-        <v>22.2303</v>
+        <v>23.0105</v>
       </c>
       <c r="BH18">
-        <v>22.112500000000001</v>
+        <v>23.0534</v>
       </c>
       <c r="BI18">
-        <v>21.984999999999999</v>
+        <v>22.970400000000001</v>
       </c>
       <c r="BJ18">
-        <v>21.9834</v>
+        <v>22.864699999999999</v>
       </c>
       <c r="BK18">
-        <v>21.903300000000002</v>
+        <v>22.875699999999998</v>
       </c>
       <c r="BL18">
-        <v>22.6052</v>
+        <v>22.813199999999998</v>
       </c>
       <c r="BM18">
-        <v>22.502099999999999</v>
+        <v>23.366099999999999</v>
       </c>
       <c r="BN18">
-        <v>22.374099999999999</v>
+        <v>23.301300000000001</v>
       </c>
       <c r="BO18">
-        <v>22.2698</v>
+        <v>23.215499999999999</v>
       </c>
       <c r="BP18">
-        <v>22.245000000000001</v>
+        <v>23.118099999999998</v>
       </c>
       <c r="BQ18">
-        <v>22.0749</v>
+        <v>23.1328</v>
       </c>
       <c r="BR18">
-        <v>22.007300000000001</v>
+        <v>23.0471</v>
       </c>
       <c r="BS18">
-        <v>21.959700000000002</v>
+        <v>23.033300000000001</v>
       </c>
       <c r="BT18">
-        <v>21.895399999999999</v>
+        <v>23.021599999999999</v>
       </c>
       <c r="BU18">
-        <v>21.780799999999999</v>
+        <v>22.915800000000001</v>
       </c>
       <c r="BV18">
-        <v>21.700500000000002</v>
+        <v>22.836300000000001</v>
       </c>
       <c r="BW18">
-        <v>21.664400000000001</v>
+        <v>22.803000000000001</v>
       </c>
       <c r="BX18">
-        <v>21.891400000000001</v>
+        <v>22.787099999999999</v>
       </c>
       <c r="BY18">
-        <v>21.856999999999999</v>
+        <v>22.782900000000001</v>
       </c>
       <c r="BZ18">
-        <v>21.874600000000001</v>
+        <v>22.790199999999999</v>
       </c>
       <c r="CA18">
-        <v>21.847899999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.813099999999999</v>
+      </c>
+      <c r="CB18">
+        <v>22.819099999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>23.501671794871797</v>
-      </c>
-      <c r="B19">
-        <v>27.961099999999998</v>
+        <v>24.369998717948718</v>
       </c>
       <c r="C19">
-        <v>30.385000000000002</v>
+        <v>29.544499999999999</v>
       </c>
       <c r="D19">
-        <v>29.486000000000001</v>
+        <v>32.2714</v>
       </c>
       <c r="E19">
-        <v>29.4191</v>
+        <v>30.775200000000002</v>
       </c>
       <c r="F19">
-        <v>27.695599999999999</v>
+        <v>30.366</v>
       </c>
       <c r="G19">
-        <v>27.475899999999999</v>
+        <v>28.4041</v>
       </c>
       <c r="H19">
-        <v>26.880800000000001</v>
+        <v>28.547599999999999</v>
       </c>
       <c r="I19">
-        <v>25.5839</v>
+        <v>27.754999999999999</v>
       </c>
       <c r="J19">
-        <v>25.998899999999999</v>
+        <v>26.5914</v>
       </c>
       <c r="K19">
-        <v>25.898199999999999</v>
+        <v>26.7803</v>
       </c>
       <c r="L19">
-        <v>24.6252</v>
+        <v>26.417200000000001</v>
       </c>
       <c r="M19">
-        <v>24.900500000000001</v>
+        <v>25.267700000000001</v>
       </c>
       <c r="N19">
-        <v>24.384599999999999</v>
+        <v>25.658300000000001</v>
       </c>
       <c r="O19">
-        <v>23.8217</v>
+        <v>25.348099999999999</v>
       </c>
       <c r="P19">
-        <v>25.000499999999999</v>
+        <v>24.6568</v>
       </c>
       <c r="Q19">
-        <v>23.796700000000001</v>
+        <v>25.573399999999999</v>
       </c>
       <c r="R19">
-        <v>24.066700000000001</v>
+        <v>24.785900000000002</v>
       </c>
       <c r="S19">
-        <v>24.489699999999999</v>
+        <v>24.773299999999999</v>
       </c>
       <c r="T19">
-        <v>23.494700000000002</v>
+        <v>25.086300000000001</v>
       </c>
       <c r="U19">
-        <v>23.497</v>
+        <v>24.197500000000002</v>
       </c>
       <c r="V19">
-        <v>24.0184</v>
+        <v>24.467300000000002</v>
       </c>
       <c r="W19">
-        <v>23.0928</v>
+        <v>24.687999999999999</v>
       </c>
       <c r="X19">
-        <v>24.0092</v>
+        <v>24.1218</v>
       </c>
       <c r="Y19">
-        <v>23.636399999999998</v>
+        <v>24.7258</v>
       </c>
       <c r="Z19">
-        <v>23.0198</v>
+        <v>24.452000000000002</v>
       </c>
       <c r="AA19">
-        <v>22.713899999999999</v>
+        <v>23.782800000000002</v>
       </c>
       <c r="AB19">
-        <v>23.6799</v>
+        <v>23.761600000000001</v>
       </c>
       <c r="AC19">
-        <v>23.084599999999998</v>
+        <v>24.433800000000002</v>
       </c>
       <c r="AD19">
-        <v>22.504899999999999</v>
+        <v>23.9739</v>
       </c>
       <c r="AE19">
-        <v>22.387799999999999</v>
+        <v>23.396999999999998</v>
       </c>
       <c r="AF19">
-        <v>23.632899999999999</v>
+        <v>23.426200000000001</v>
       </c>
       <c r="AG19">
-        <v>23.386399999999998</v>
+        <v>24.2759</v>
       </c>
       <c r="AH19">
-        <v>23.297499999999999</v>
+        <v>24.215</v>
       </c>
       <c r="AI19">
-        <v>23.6965</v>
+        <v>24.151900000000001</v>
       </c>
       <c r="AJ19">
-        <v>22.912600000000001</v>
+        <v>24.3445</v>
       </c>
       <c r="AK19">
-        <v>22.8279</v>
+        <v>23.6953</v>
       </c>
       <c r="AL19">
-        <v>22.523299999999999</v>
+        <v>23.7422</v>
       </c>
       <c r="AM19">
-        <v>23.56</v>
+        <v>23.565899999999999</v>
       </c>
       <c r="AN19">
-        <v>23.453399999999998</v>
+        <v>24.301100000000002</v>
       </c>
       <c r="AO19">
-        <v>23.2363</v>
+        <v>24.266100000000002</v>
       </c>
       <c r="AP19">
-        <v>23.0321</v>
+        <v>24.110800000000001</v>
       </c>
       <c r="AQ19">
-        <v>23.4588</v>
+        <v>23.862400000000001</v>
       </c>
       <c r="AR19">
-        <v>22.552399999999999</v>
+        <v>24.013100000000001</v>
       </c>
       <c r="AS19">
-        <v>22.549900000000001</v>
+        <v>23.2392</v>
       </c>
       <c r="AT19">
-        <v>22.5487</v>
+        <v>23.3233</v>
       </c>
       <c r="AU19">
-        <v>22.4815</v>
+        <v>23.348700000000001</v>
       </c>
       <c r="AV19">
-        <v>23.208400000000001</v>
+        <v>23.340299999999999</v>
       </c>
       <c r="AW19">
-        <v>23.113700000000001</v>
+        <v>23.7789</v>
       </c>
       <c r="AX19">
-        <v>22.9773</v>
+        <v>23.746500000000001</v>
       </c>
       <c r="AY19">
-        <v>22.895700000000001</v>
+        <v>23.667000000000002</v>
       </c>
       <c r="AZ19">
-        <v>22.750900000000001</v>
+        <v>23.614899999999999</v>
       </c>
       <c r="BA19">
-        <v>22.707799999999999</v>
+        <v>23.532699999999998</v>
       </c>
       <c r="BB19">
-        <v>22.612200000000001</v>
+        <v>23.429300000000001</v>
       </c>
       <c r="BC19">
-        <v>23.022200000000002</v>
+        <v>23.4024</v>
       </c>
       <c r="BD19">
-        <v>22.8216</v>
+        <v>23.6556</v>
       </c>
       <c r="BE19">
-        <v>21.8523</v>
+        <v>23.5182</v>
       </c>
       <c r="BF19">
-        <v>21.7241</v>
+        <v>22.6876</v>
       </c>
       <c r="BG19">
-        <v>21.683900000000001</v>
+        <v>22.641300000000001</v>
       </c>
       <c r="BH19">
-        <v>21.5806</v>
+        <v>22.686599999999999</v>
       </c>
       <c r="BI19">
-        <v>21.469200000000001</v>
+        <v>22.625</v>
       </c>
       <c r="BJ19">
-        <v>21.480599999999999</v>
+        <v>22.5273</v>
       </c>
       <c r="BK19">
-        <v>21.415299999999998</v>
+        <v>22.555299999999999</v>
       </c>
       <c r="BL19">
-        <v>22.5989</v>
+        <v>22.5059</v>
       </c>
       <c r="BM19">
-        <v>22.508700000000001</v>
+        <v>23.334099999999999</v>
       </c>
       <c r="BN19">
-        <v>22.393899999999999</v>
+        <v>23.2852</v>
       </c>
       <c r="BO19">
-        <v>22.307099999999998</v>
+        <v>23.2182</v>
       </c>
       <c r="BP19">
-        <v>22.292000000000002</v>
+        <v>23.136600000000001</v>
       </c>
       <c r="BQ19">
-        <v>22.124199999999998</v>
+        <v>23.166699999999999</v>
       </c>
       <c r="BR19">
-        <v>22.067900000000002</v>
+        <v>23.082599999999999</v>
       </c>
       <c r="BS19">
-        <v>22.0319</v>
+        <v>23.099599999999999</v>
       </c>
       <c r="BT19">
-        <v>21.973099999999999</v>
+        <v>23.096599999999999</v>
       </c>
       <c r="BU19">
-        <v>21.866700000000002</v>
+        <v>23.0138</v>
       </c>
       <c r="BV19">
-        <v>21.7911</v>
+        <v>22.938800000000001</v>
       </c>
       <c r="BW19">
-        <v>21.7636</v>
+        <v>22.9145</v>
       </c>
       <c r="BX19">
-        <v>22.57</v>
+        <v>22.907900000000001</v>
       </c>
       <c r="BY19">
-        <v>22.484400000000001</v>
+        <v>23.365300000000001</v>
       </c>
       <c r="BZ19">
-        <v>22.4588</v>
+        <v>23.310099999999998</v>
       </c>
       <c r="CA19">
-        <v>22.422599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.297899999999998</v>
+      </c>
+      <c r="CB19">
+        <v>23.291599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
-        <v>17.426308974358978</v>
-      </c>
-    </row>
-    <row r="22" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>18.662774358974364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
-        <v>19.679421794871796</v>
-      </c>
-    </row>
-    <row r="23" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>20.714446153846154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
-        <v>21.552280769230773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.404116666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
-        <v>22.193143589743602</v>
-      </c>
-    </row>
-    <row r="25" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>22.990244871794868</v>
+      </c>
+    </row>
+    <row r="25" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
-        <v>22.604306410256413</v>
-      </c>
-    </row>
-    <row r="26" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.460807692307696</v>
+      </c>
+    </row>
+    <row r="26" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
-        <v>22.603956410256409</v>
-      </c>
-    </row>
-    <row r="27" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.457629487179481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
-        <v>22.79833846153846</v>
-      </c>
-    </row>
-    <row r="28" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.667312820512819</v>
+      </c>
+    </row>
+    <row r="28" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
-        <v>22.816441025641023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.7085641025641</v>
+      </c>
+    </row>
+    <row r="29" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
-        <v>23.121764102564107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.953612820512824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
-        <v>23.095743589743584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>23.934225641025645</v>
+      </c>
+    </row>
+    <row r="31" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
-        <v>23.433337179487182</v>
-      </c>
-    </row>
-    <row r="32" spans="1:79" x14ac:dyDescent="0.55000000000000004">
+        <v>24.280403846153845</v>
+      </c>
+    </row>
+    <row r="32" spans="1:80" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
-        <v>23.336497435897439</v>
+        <v>24.152088461538472</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
-        <v>23.34396794871795</v>
+        <v>24.199221794871782</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
-        <v>23.352783333333342</v>
+        <v>24.188593589743594</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
-        <v>23.401357692307695</v>
+        <v>24.257756410256412</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
-        <v>23.309714102564101</v>
+        <v>24.191160256410249</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
-        <v>23.495664102564099</v>
+        <v>24.345823076923079</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
-        <v>23.551088461538463</v>
+        <v>24.379674358974366</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
-        <v>23.501671794871797</v>
+        <v>24.369998717948718</v>
       </c>
     </row>
   </sheetData>
@@ -7777,7 +8031,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7807,17 +8061,17 @@
         <v>16.909830769230769</v>
       </c>
       <c r="C2">
-        <v>18.71011025641026</v>
+        <v>18.216687179487185</v>
       </c>
       <c r="D2">
-        <v>18.202525641025641</v>
+        <v>17.68152820512821</v>
       </c>
       <c r="E2">
-        <v>16.525966666666669</v>
+        <v>16.135619230769233</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>17.587108333333333</v>
+        <v>17.23591634615385</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7828,17 +8082,17 @@
         <v>18.529319230769232</v>
       </c>
       <c r="C3">
-        <v>20.230378205128201</v>
+        <v>19.721464102564099</v>
       </c>
       <c r="D3">
-        <v>19.611088461538458</v>
+        <v>19.535912820512824</v>
       </c>
       <c r="E3">
-        <v>18.049326923076922</v>
+        <v>17.728303846153842</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>19.105028205128203</v>
+        <v>18.878749999999997</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7849,17 +8103,17 @@
         <v>19.947376923076924</v>
       </c>
       <c r="C4">
-        <v>21.55700384615384</v>
+        <v>21.059389743589747</v>
       </c>
       <c r="D4">
-        <v>21.169797435897433</v>
+        <v>21.126894871794875</v>
       </c>
       <c r="E4">
-        <v>19.397273076923081</v>
+        <v>19.118467948717953</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>20.517862820512821</v>
+        <v>20.313032371794876</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7870,17 +8124,17 @@
         <v>20.999284615384621</v>
       </c>
       <c r="C5">
-        <v>21.975912820512821</v>
+        <v>21.941856410256417</v>
       </c>
       <c r="D5">
-        <v>21.813632051282056</v>
+        <v>22.289529487179486</v>
       </c>
       <c r="E5">
-        <v>19.954435897435889</v>
+        <v>20.188041025641024</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>21.185816346153846</v>
+        <v>21.354677884615388</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7891,17 +8145,17 @@
         <v>21.366232051282047</v>
       </c>
       <c r="C6">
-        <v>22.494923076923076</v>
+        <v>22.333511538461526</v>
       </c>
       <c r="D6">
-        <v>22.348226923076918</v>
+        <v>22.774402564102562</v>
       </c>
       <c r="E6">
-        <v>20.44518076923077</v>
+        <v>20.644749999999991</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>21.663640705128206</v>
+        <v>21.779724038461531</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7912,17 +8166,17 @@
         <v>21.706700000000001</v>
       </c>
       <c r="C7">
-        <v>22.52087564102564</v>
+        <v>22.605408974358966</v>
       </c>
       <c r="D7">
-        <v>22.324979487179483</v>
+        <v>23.141206410256405</v>
       </c>
       <c r="E7">
-        <v>20.42975384615384</v>
+        <v>20.963605128205124</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>21.745577243589739</v>
+        <v>22.104230128205124</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7933,17 +8187,17 @@
         <v>21.887039743589746</v>
       </c>
       <c r="C8">
-        <v>22.506449999999994</v>
+        <v>22.815920512820504</v>
       </c>
       <c r="D8">
-        <v>22.32355128205128</v>
+        <v>23.325874358974357</v>
       </c>
       <c r="E8">
-        <v>20.435228205128219</v>
+        <v>21.162139743589744</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>21.788067307692309</v>
+        <v>22.29774358974359</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7954,17 +8208,17 @@
         <v>21.835582051282046</v>
       </c>
       <c r="C9">
-        <v>22.561367948717937</v>
+        <v>22.807955128205119</v>
       </c>
       <c r="D9">
-        <v>22.346230769230758</v>
+        <v>23.301243589743603</v>
       </c>
       <c r="E9">
-        <v>20.485741025641016</v>
+        <v>21.127828205128196</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>21.807230448717942</v>
+        <v>22.268152243589743</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7975,17 +8229,17 @@
         <v>21.917998717948723</v>
       </c>
       <c r="C10">
-        <v>22.991923076923069</v>
+        <v>22.923441025641033</v>
       </c>
       <c r="D10">
-        <v>22.877294871794877</v>
+        <v>23.414914102564108</v>
       </c>
       <c r="E10">
-        <v>20.9796858974359</v>
+        <v>21.256234615384614</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>22.191725641025641</v>
+        <v>22.378147115384621</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -7996,17 +8250,17 @@
         <v>21.918410256410262</v>
       </c>
       <c r="C11">
-        <v>22.838315384615377</v>
+        <v>22.916341025641035</v>
       </c>
       <c r="D11">
-        <v>22.712916666666665</v>
+        <v>23.42824615384616</v>
       </c>
       <c r="E11">
-        <v>20.826187179487189</v>
+        <v>21.270287179487188</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>22.073957371794876</v>
+        <v>22.383321153846161</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8017,17 +8271,17 @@
         <v>22.021707692307686</v>
       </c>
       <c r="C12">
-        <v>22.928392307692306</v>
+        <v>23.087110256410242</v>
       </c>
       <c r="D12">
-        <v>22.777638461538459</v>
+        <v>23.589732051282049</v>
       </c>
       <c r="E12">
-        <v>20.868193589743591</v>
+        <v>21.401299999999996</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>22.148983012820509</v>
+        <v>22.524962499999994</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8038,17 +8292,17 @@
         <v>22.096375641025642</v>
       </c>
       <c r="C13">
-        <v>22.945411538461535</v>
+        <v>23.074838461538459</v>
       </c>
       <c r="D13">
-        <v>22.766975641025642</v>
+        <v>23.683247435897435</v>
       </c>
       <c r="E13">
-        <v>20.871955128205133</v>
+        <v>21.466144871794867</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>22.170179487179485</v>
+        <v>22.580151602564101</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8059,17 +8313,17 @@
         <v>22.1096576923077</v>
       </c>
       <c r="C14">
-        <v>23.009396153846154</v>
+        <v>23.129398717948714</v>
       </c>
       <c r="D14">
-        <v>22.85979102564102</v>
+        <v>23.713803846153844</v>
       </c>
       <c r="E14">
-        <v>20.941088461538463</v>
+        <v>21.487980769230774</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>22.229983333333337</v>
+        <v>22.610210256410255</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8080,17 +8334,17 @@
         <v>22.141389743589748</v>
       </c>
       <c r="C15">
-        <v>23.014714102564099</v>
+        <v>23.142356410256415</v>
       </c>
       <c r="D15">
-        <v>22.872474358974358</v>
+        <v>23.735721794871793</v>
       </c>
       <c r="E15">
-        <v>20.983479487179491</v>
+        <v>21.518832051282036</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>22.253014423076927</v>
+        <v>22.634574999999998</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8101,17 +8355,17 @@
         <v>22.250193589743599</v>
       </c>
       <c r="C16">
-        <v>23.051033333333329</v>
+        <v>23.258603846153854</v>
       </c>
       <c r="D16">
-        <v>22.915138461538465</v>
+        <v>23.850842307692307</v>
       </c>
       <c r="E16">
-        <v>21.033491025641034</v>
+        <v>21.63864743589744</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>22.312464102564107</v>
+        <v>22.749571794871798</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8122,17 +8376,17 @@
         <v>22.288241025641018</v>
       </c>
       <c r="C17">
-        <v>23.113273076923086</v>
+        <v>23.314907692307688</v>
       </c>
       <c r="D17">
-        <v>22.979337179487182</v>
+        <v>23.898744871794875</v>
       </c>
       <c r="E17">
-        <v>21.08895256410257</v>
+        <v>21.67156025641026</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>22.367450961538463</v>
+        <v>22.793363461538462</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8143,17 +8397,17 @@
         <v>22.176043589743578</v>
       </c>
       <c r="C18">
-        <v>23.145735897435898</v>
+        <v>23.240869230769221</v>
       </c>
       <c r="D18">
-        <v>23.013755128205119</v>
+        <v>23.789567948717952</v>
       </c>
       <c r="E18">
-        <v>21.088779487179487</v>
+        <v>21.586333333333332</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>22.356078525641024</v>
+        <v>22.69820352564102</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8164,17 +8418,17 @@
         <v>22.155919230769239</v>
       </c>
       <c r="C19">
-        <v>23.125800000000005</v>
+        <v>23.201960256410256</v>
       </c>
       <c r="D19">
-        <v>22.986397435897434</v>
+        <v>23.800388461538461</v>
       </c>
       <c r="E19">
-        <v>21.061224358974361</v>
+        <v>21.576726923076929</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>22.332335256410257</v>
+        <v>22.683748717948724</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8185,17 +8439,17 @@
         <v>22.275970512820511</v>
       </c>
       <c r="C20">
-        <v>23.024325641025644</v>
+        <v>23.311101282051283</v>
       </c>
       <c r="D20">
-        <v>22.893894871794874</v>
+        <v>23.906174358974358</v>
       </c>
       <c r="E20">
-        <v>20.984062820512822</v>
+        <v>21.686249999999994</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>22.294563461538463</v>
+        <v>22.794874038461536</v>
       </c>
     </row>
   </sheetData>
@@ -8209,7 +8463,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8239,17 +8493,17 @@
         <v>17.024170512820522</v>
       </c>
       <c r="C2">
-        <v>17.83108076923077</v>
+        <v>18.239250000000002</v>
       </c>
       <c r="D2">
-        <v>17.101942307692315</v>
+        <v>17.735128205128209</v>
       </c>
       <c r="E2">
-        <v>15.589097435897433</v>
+        <v>16.167283333333334</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>16.88657275641026</v>
+        <v>17.291458012820517</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8260,17 +8514,17 @@
         <v>19.073202564102569</v>
       </c>
       <c r="C3">
-        <v>19.130451282051286</v>
+        <v>20.110966666666666</v>
       </c>
       <c r="D3">
-        <v>18.314465384615385</v>
+        <v>19.910053846153847</v>
       </c>
       <c r="E3">
-        <v>16.794016666666664</v>
+        <v>18.110639743589747</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>18.328033974358977</v>
+        <v>19.301215705128207</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8281,17 +8535,17 @@
         <v>20.93600769230769</v>
       </c>
       <c r="C4">
-        <v>19.924389743589739</v>
+        <v>21.834578205128199</v>
       </c>
       <c r="D4">
-        <v>19.199507692307687</v>
+        <v>21.843975641025633</v>
       </c>
       <c r="E4">
-        <v>17.555880769230775</v>
+        <v>19.929544871794882</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>19.403946474358975</v>
+        <v>21.136026602564101</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8302,17 +8556,17 @@
         <v>21.884916666666658</v>
       </c>
       <c r="C5">
-        <v>19.479488461538459</v>
+        <v>22.621415384615378</v>
       </c>
       <c r="D5">
-        <v>18.78740256410256</v>
+        <v>22.873071794871795</v>
       </c>
       <c r="E5">
-        <v>17.077323076923076</v>
+        <v>20.852639743589741</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>19.307282692307691</v>
+        <v>22.058010897435892</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8323,17 +8577,17 @@
         <v>22.315194871794876</v>
       </c>
       <c r="C6">
-        <v>19.474808974358975</v>
+        <v>23.049960256410259</v>
       </c>
       <c r="D6">
-        <v>18.802602564102571</v>
+        <v>23.380942307692305</v>
       </c>
       <c r="E6">
-        <v>17.079720512820511</v>
+        <v>21.330126923076929</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>19.418081730769234</v>
+        <v>22.519056089743593</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8344,17 +8598,17 @@
         <v>22.471134615384617</v>
       </c>
       <c r="C7">
-        <v>19.367552564102557</v>
+        <v>23.124389743589745</v>
       </c>
       <c r="D7">
-        <v>18.702524358974365</v>
+        <v>23.544551282051273</v>
       </c>
       <c r="E7">
-        <v>16.958207692307692</v>
+        <v>21.446507692307691</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>19.374854807692309</v>
+        <v>22.646645833333331</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8365,17 +8619,17 @@
         <v>22.599669230769226</v>
       </c>
       <c r="C8">
-        <v>19.212474358974369</v>
+        <v>23.257566666666666</v>
       </c>
       <c r="D8">
-        <v>18.587555128205128</v>
+        <v>23.647848717948715</v>
       </c>
       <c r="E8">
-        <v>16.825442307692303</v>
+        <v>21.56471410256411</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>19.306285256410256</v>
+        <v>22.767449679487179</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8386,17 +8640,17 @@
         <v>22.618425641025638</v>
       </c>
       <c r="C9">
-        <v>19.268508974358969</v>
+        <v>23.320500000000003</v>
       </c>
       <c r="D9">
-        <v>18.610589743589752</v>
+        <v>23.694247435897434</v>
       </c>
       <c r="E9">
-        <v>16.854494871794877</v>
+        <v>21.623385897435888</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>19.338004807692307</v>
+        <v>22.814139743589742</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8407,17 +8661,17 @@
         <v>22.811114102564098</v>
       </c>
       <c r="C10">
-        <v>18.969262820512824</v>
+        <v>23.52384743589743</v>
       </c>
       <c r="D10">
-        <v>18.33422564102564</v>
+        <v>23.915774358974357</v>
       </c>
       <c r="E10">
-        <v>16.598851282051289</v>
+        <v>21.834466666666668</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>19.178363461538463</v>
+        <v>23.02130064102564</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8428,17 +8682,17 @@
         <v>22.923828205128213</v>
       </c>
       <c r="C11">
-        <v>19.327643589743591</v>
+        <v>23.600778205128204</v>
       </c>
       <c r="D11">
-        <v>18.670176923076923</v>
+        <v>24.020679487179486</v>
       </c>
       <c r="E11">
-        <v>16.932942307692311</v>
+        <v>21.949744871794863</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>19.463647756410261</v>
+        <v>23.123757692307692</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8449,17 +8703,17 @@
         <v>23.104216666666673</v>
       </c>
       <c r="C12">
-        <v>19.465053846153847</v>
+        <v>23.854919230769237</v>
       </c>
       <c r="D12">
-        <v>18.807811538461539</v>
+        <v>24.265082051282047</v>
       </c>
       <c r="E12">
-        <v>17.052066666666668</v>
+        <v>22.195148717948726</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>19.60728717948718</v>
+        <v>23.354841666666672</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8470,17 +8724,17 @@
         <v>23.140232051282041</v>
       </c>
       <c r="C13">
-        <v>19.491047435897432</v>
+        <v>23.797306410256414</v>
       </c>
       <c r="D13">
-        <v>18.837667948717957</v>
+        <v>24.309520512820509</v>
       </c>
       <c r="E13">
-        <v>17.070767948717947</v>
+        <v>22.186582051282052</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>19.634928846153844</v>
+        <v>23.358410256410252</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8491,17 +8745,17 @@
         <v>23.138370512820519</v>
       </c>
       <c r="C14">
-        <v>19.399730769230761</v>
+        <v>23.849453846153857</v>
       </c>
       <c r="D14">
-        <v>18.757085897435903</v>
+        <v>24.337861538461532</v>
       </c>
       <c r="E14">
-        <v>16.991929487179487</v>
+        <v>22.219656410256405</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>19.571779166666669</v>
+        <v>23.386335576923077</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8512,17 +8766,17 @@
         <v>23.15403717948718</v>
       </c>
       <c r="C15">
-        <v>19.314882051282055</v>
+        <v>23.867974358974369</v>
       </c>
       <c r="D15">
-        <v>18.682758974358965</v>
+        <v>24.335484615384612</v>
       </c>
       <c r="E15">
-        <v>16.921912820512826</v>
+        <v>22.213185897435899</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>19.518397756410256</v>
+        <v>23.392670512820516</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8533,17 +8787,17 @@
         <v>23.205534615384611</v>
       </c>
       <c r="C16">
-        <v>19.172696153846157</v>
+        <v>23.890832051282043</v>
       </c>
       <c r="D16">
-        <v>18.544967948717947</v>
+        <v>24.367733333333337</v>
       </c>
       <c r="E16">
-        <v>16.777953846153839</v>
+        <v>22.257630769230769</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>19.425288141025639</v>
+        <v>23.43043269230769</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8554,17 +8808,17 @@
         <v>23.217211538461537</v>
       </c>
       <c r="C17">
-        <v>19.288298717948731</v>
+        <v>23.894456410256407</v>
       </c>
       <c r="D17">
-        <v>18.651207692307693</v>
+        <v>24.368515384615389</v>
       </c>
       <c r="E17">
-        <v>16.878311538461535</v>
+        <v>22.25153717948718</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>19.508757371794875</v>
+        <v>23.432930128205129</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8575,17 +8829,17 @@
         <v>23.248267948717952</v>
       </c>
       <c r="C18">
-        <v>19.302517948717952</v>
+        <v>23.976452564102569</v>
       </c>
       <c r="D18">
-        <v>18.660429487179492</v>
+        <v>24.432638461538456</v>
       </c>
       <c r="E18">
-        <v>16.901944871794871</v>
+        <v>22.346355128205126</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>19.528290064102567</v>
+        <v>23.500928525641029</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8596,17 +8850,17 @@
         <v>23.309441025641025</v>
       </c>
       <c r="C19">
-        <v>19.336151282051286</v>
+        <v>24.021470512820514</v>
       </c>
       <c r="D19">
-        <v>18.695384615384619</v>
+        <v>24.515587179487184</v>
       </c>
       <c r="E19">
-        <v>16.93017051282051</v>
+        <v>22.411679487179494</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>19.567786858974358</v>
+        <v>23.564544551282054</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8617,17 +8871,17 @@
         <v>23.345485897435889</v>
       </c>
       <c r="C20">
-        <v>19.378803846153847</v>
+        <v>24.041184615384623</v>
       </c>
       <c r="D20">
-        <v>18.730633333333337</v>
+        <v>24.543257692307701</v>
       </c>
       <c r="E20">
-        <v>16.969989743589746</v>
+        <v>22.434667948717948</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>19.606228205128204</v>
+        <v>23.591149038461541</v>
       </c>
     </row>
   </sheetData>
@@ -8641,7 +8895,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8671,17 +8925,17 @@
         <v>17.272782051282057</v>
       </c>
       <c r="C2">
-        <v>18.032955128205135</v>
+        <v>18.512414102564108</v>
       </c>
       <c r="D2">
-        <v>17.405703846153848</v>
+        <v>17.962565384615385</v>
       </c>
       <c r="E2">
-        <v>15.703351282051282</v>
+        <v>16.365033333333336</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>17.103698076923081</v>
+        <v>17.528198717948719</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8692,17 +8946,17 @@
         <v>19.34985897435897</v>
       </c>
       <c r="C3">
-        <v>19.093741025641023</v>
+        <v>20.412228205128201</v>
       </c>
       <c r="D3">
-        <v>18.415767948717946</v>
+        <v>20.147961538461534</v>
       </c>
       <c r="E3">
-        <v>16.751323076923079</v>
+        <v>18.311437179487179</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>18.402672756410254</v>
+        <v>19.555371474358971</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8713,17 +8967,17 @@
         <v>21.212976923076926</v>
       </c>
       <c r="C4">
-        <v>19.795489743589751</v>
+        <v>22.115447435897444</v>
       </c>
       <c r="D4">
-        <v>19.234528205128207</v>
+        <v>22.086505128205129</v>
       </c>
       <c r="E4">
-        <v>17.436566666666661</v>
+        <v>20.101089743589739</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>19.419890384615385</v>
+        <v>21.379004807692311</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8734,17 +8988,17 @@
         <v>22.27448076923076</v>
       </c>
       <c r="C5">
-        <v>19.478237179487191</v>
+        <v>23.027321794871789</v>
       </c>
       <c r="D5">
-        <v>18.954416666666663</v>
+        <v>23.237011538461545</v>
       </c>
       <c r="E5">
-        <v>17.035448717948714</v>
+        <v>21.156396153846153</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>19.435645833333332</v>
+        <v>22.423802564102559</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8755,17 +9009,17 @@
         <v>22.745719230769236</v>
       </c>
       <c r="C6">
-        <v>19.579694871794874</v>
+        <v>23.517155128205129</v>
       </c>
       <c r="D6">
-        <v>19.06886153846154</v>
+        <v>23.805312820512825</v>
       </c>
       <c r="E6">
-        <v>17.13366794871795</v>
+        <v>21.656189743589739</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>19.6319858974359</v>
+        <v>22.931094230769229</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8776,17 +9030,17 @@
         <v>22.999110256410262</v>
       </c>
       <c r="C7">
-        <v>19.534098717948726</v>
+        <v>23.732335897435885</v>
       </c>
       <c r="D7">
-        <v>18.9955</v>
+        <v>24.103498717948717</v>
       </c>
       <c r="E7">
-        <v>17.042760256410254</v>
+        <v>21.894460256410255</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>19.64286730769231</v>
+        <v>23.182351282051282</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8797,17 +9051,17 @@
         <v>23.203498717948715</v>
       </c>
       <c r="C8">
-        <v>19.502125641025646</v>
+        <v>23.961069230769233</v>
       </c>
       <c r="D8">
-        <v>18.996021794871801</v>
+        <v>24.303700000000006</v>
       </c>
       <c r="E8">
-        <v>17.009192307692306</v>
+        <v>22.105241025641032</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>19.677709615384618</v>
+        <v>23.393377243589747</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8818,17 +9072,17 @@
         <v>23.202425641025638</v>
       </c>
       <c r="C9">
-        <v>19.499544871794878</v>
+        <v>23.98597435897436</v>
       </c>
       <c r="D9">
-        <v>18.991742307692302</v>
+        <v>24.318096153846156</v>
       </c>
       <c r="E9">
-        <v>16.99780512820513</v>
+        <v>22.131223076923082</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>19.672879487179486</v>
+        <v>23.409429807692309</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8839,17 +9093,17 @@
         <v>23.364739743589734</v>
       </c>
       <c r="C10">
-        <v>19.311312820512825</v>
+        <v>24.144847435897436</v>
       </c>
       <c r="D10">
-        <v>18.821543589743591</v>
+        <v>24.504182051282058</v>
       </c>
       <c r="E10">
-        <v>16.846573076923075</v>
+        <v>22.312906410256421</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>19.586042307692306</v>
+        <v>23.581668910256411</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8860,17 +9114,17 @@
         <v>23.480076923076929</v>
       </c>
       <c r="C11">
-        <v>19.515412820512818</v>
+        <v>24.224917948717955</v>
       </c>
       <c r="D11">
-        <v>19.021030769230766</v>
+        <v>24.609562820512824</v>
       </c>
       <c r="E11">
-        <v>17.052149999999997</v>
+        <v>22.415225641025632</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>19.767167628205126</v>
+        <v>23.682445833333333</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8881,17 +9135,17 @@
         <v>23.636847435897437</v>
       </c>
       <c r="C12">
-        <v>19.666198717948721</v>
+        <v>24.451484615384611</v>
       </c>
       <c r="D12">
-        <v>19.166125641025644</v>
+        <v>24.822012820512835</v>
       </c>
       <c r="E12">
-        <v>17.195573076923075</v>
+        <v>22.62135769230769</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>19.91618621794872</v>
+        <v>23.882925641025643</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8902,17 +9156,17 @@
         <v>23.700301282051285</v>
       </c>
       <c r="C13">
-        <v>19.667855128205129</v>
+        <v>24.44007564102564</v>
       </c>
       <c r="D13">
-        <v>19.158771794871797</v>
+        <v>24.896715384615376</v>
       </c>
       <c r="E13">
-        <v>17.18198717948718</v>
+        <v>22.651217948717942</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>19.927228846153849</v>
+        <v>23.922077564102562</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8923,17 +9177,17 @@
         <v>23.682803846153853</v>
       </c>
       <c r="C14">
-        <v>19.623806410256421</v>
+        <v>24.478824358974343</v>
       </c>
       <c r="D14">
-        <v>19.130673076923074</v>
+        <v>24.914070512820519</v>
       </c>
       <c r="E14">
-        <v>17.136392307692301</v>
+        <v>22.664911538461542</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>19.893418910256411</v>
+        <v>23.935152564102562</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8944,17 +9198,17 @@
         <v>23.728834615384613</v>
       </c>
       <c r="C15">
-        <v>19.551907692307701</v>
+        <v>24.511375641025637</v>
       </c>
       <c r="D15">
-        <v>19.057625641025645</v>
+        <v>24.951269230769238</v>
       </c>
       <c r="E15">
-        <v>17.073760256410253</v>
+        <v>22.695102564102569</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>19.853032051282053</v>
+        <v>23.971645512820515</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8965,17 +9219,17 @@
         <v>23.820328205128206</v>
       </c>
       <c r="C16">
-        <v>19.487165384615384</v>
+        <v>24.608483333333332</v>
       </c>
       <c r="D16">
-        <v>18.992148717948719</v>
+        <v>25.046158974358981</v>
       </c>
       <c r="E16">
-        <v>16.998564102564103</v>
+        <v>22.792717948717954</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>19.824551602564103</v>
+        <v>24.066922115384617</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -8986,17 +9240,17 @@
         <v>23.859155128205128</v>
       </c>
       <c r="C17">
-        <v>19.545928205128206</v>
+        <v>24.64506282051282</v>
       </c>
       <c r="D17">
-        <v>19.048475641025647</v>
+        <v>25.08324871794872</v>
       </c>
       <c r="E17">
-        <v>17.052871794871791</v>
+        <v>22.830498717948725</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>19.876607692307694</v>
+        <v>24.10449134615385</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9007,17 +9261,17 @@
         <v>23.817733333333337</v>
       </c>
       <c r="C18">
-        <v>19.553228205128217</v>
+        <v>24.626633333333327</v>
       </c>
       <c r="D18">
-        <v>19.063810256410253</v>
+        <v>25.05115897435898</v>
       </c>
       <c r="E18">
-        <v>17.07516025641026</v>
+        <v>22.818301282051277</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>19.877483012820516</v>
+        <v>24.078456730769233</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9028,17 +9282,17 @@
         <v>23.868192307692304</v>
       </c>
       <c r="C19">
-        <v>19.573771794871792</v>
+        <v>24.661614102564112</v>
       </c>
       <c r="D19">
-        <v>19.078158974358974</v>
+        <v>25.11672179487179</v>
       </c>
       <c r="E19">
-        <v>17.091748717948715</v>
+        <v>22.875067948717945</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>19.902967948717947</v>
+        <v>24.130399038461537</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9049,17 +9303,17 @@
         <v>23.942687179487173</v>
       </c>
       <c r="C20">
-        <v>19.60569615384615</v>
+        <v>24.72824615384615</v>
       </c>
       <c r="D20">
-        <v>19.106961538461544</v>
+        <v>25.190846153846156</v>
       </c>
       <c r="E20">
-        <v>17.123932051282043</v>
+        <v>22.940751282051291</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>19.944819230769227</v>
+        <v>24.200632692307693</v>
       </c>
     </row>
   </sheetData>
@@ -9073,7 +9327,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9103,17 +9357,17 @@
         <v>17.310923076923075</v>
       </c>
       <c r="C2">
-        <v>16.684660256410261</v>
+        <v>18.518784615384611</v>
       </c>
       <c r="D2">
-        <v>15.952070512820505</v>
+        <v>17.964153846153849</v>
       </c>
       <c r="E2">
-        <v>14.303678205128204</v>
+        <v>16.394547435897444</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>16.062833012820512</v>
+        <v>17.547102243589745</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9124,17 +9378,17 @@
         <v>19.63426153846153</v>
       </c>
       <c r="C3">
-        <v>17.217047435897438</v>
+        <v>20.6586358974359</v>
       </c>
       <c r="D3">
-        <v>16.435779487179488</v>
+        <v>20.311202564102569</v>
       </c>
       <c r="E3">
-        <v>14.67499615384615</v>
+        <v>18.568689743589751</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>16.990521153846153</v>
+        <v>19.79319743589744</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9145,17 +9399,17 @@
         <v>21.608951282051279</v>
       </c>
       <c r="C4">
-        <v>17.588855128205115</v>
+        <v>22.483810256410258</v>
       </c>
       <c r="D4">
-        <v>16.821233333333339</v>
+        <v>22.323832051282054</v>
       </c>
       <c r="E4">
-        <v>14.972788461538457</v>
+        <v>20.484461538461527</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>17.747957051282047</v>
+        <v>21.725263782051282</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9166,17 +9420,17 @@
         <v>22.224717948717949</v>
       </c>
       <c r="C5">
-        <v>17.288406410256414</v>
+        <v>23.029606410256413</v>
       </c>
       <c r="D5">
-        <v>16.512497435897437</v>
+        <v>23.068121794871789</v>
       </c>
       <c r="E5">
-        <v>14.638262820512818</v>
+        <v>21.081126923076923</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>17.665971153846154</v>
+        <v>22.350893269230767</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9187,17 +9441,17 @@
         <v>22.61620512820512</v>
       </c>
       <c r="C6">
-        <v>17.218420512820515</v>
+        <v>23.461030769230767</v>
       </c>
       <c r="D6">
-        <v>16.43530512820513</v>
+        <v>23.541602564102565</v>
       </c>
       <c r="E6">
-        <v>14.543138461538465</v>
+        <v>21.508938461538463</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>17.703267307692307</v>
+        <v>22.781944230769227</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9208,17 +9462,17 @@
         <v>22.554734615384618</v>
       </c>
       <c r="C7">
-        <v>17.177815384615382</v>
+        <v>23.37672564102564</v>
       </c>
       <c r="D7">
-        <v>16.397926923076916</v>
+        <v>23.51275256410257</v>
       </c>
       <c r="E7">
-        <v>14.508637179487183</v>
+        <v>21.42696923076922</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>17.659778525641027</v>
+        <v>22.717795512820512</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9229,17 +9483,17 @@
         <v>22.693446153846164</v>
       </c>
       <c r="C8">
-        <v>17.103538461538459</v>
+        <v>23.503196153846154</v>
       </c>
       <c r="D8">
-        <v>16.337212820512832</v>
+        <v>23.625298717948727</v>
       </c>
       <c r="E8">
-        <v>14.458505128205134</v>
+        <v>21.570124358974365</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>17.648175641025649</v>
+        <v>22.848016346153852</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9250,17 +9504,17 @@
         <v>22.737529487179479</v>
       </c>
       <c r="C9">
-        <v>17.177524358974356</v>
+        <v>23.589280769230779</v>
       </c>
       <c r="D9">
-        <v>16.414324358974358</v>
+        <v>23.692966666666663</v>
       </c>
       <c r="E9">
-        <v>14.526494871794872</v>
+        <v>21.647361538461539</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>17.713968269230765</v>
+        <v>22.916784615384614</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9271,17 +9525,17 @@
         <v>23.060852564102554</v>
       </c>
       <c r="C10">
-        <v>17.012524358974364</v>
+        <v>23.86174358974359</v>
       </c>
       <c r="D10">
-        <v>16.232675641025637</v>
+        <v>24.012441025641021</v>
       </c>
       <c r="E10">
-        <v>14.352141025641021</v>
+        <v>21.945942307692302</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>17.664548397435894</v>
+        <v>23.220244871794868</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9292,17 +9546,17 @@
         <v>23.056633333333341</v>
       </c>
       <c r="C11">
-        <v>17.181910256410259</v>
+        <v>23.872176923076925</v>
       </c>
       <c r="D11">
-        <v>16.405350000000002</v>
+        <v>24.020942307692319</v>
       </c>
       <c r="E11">
-        <v>14.507394871794876</v>
+        <v>21.955667948717952</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>17.787822115384618</v>
+        <v>23.226355128205135</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9313,17 +9567,17 @@
         <v>23.410166666666662</v>
       </c>
       <c r="C12">
-        <v>17.231365384615383</v>
+        <v>24.232270512820509</v>
       </c>
       <c r="D12">
-        <v>16.44677307692308</v>
+        <v>24.37996923076923</v>
       </c>
       <c r="E12">
-        <v>14.548025641025642</v>
+        <v>22.336129487179495</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>17.909082692307692</v>
+        <v>23.589633974358975</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9334,17 +9588,17 @@
         <v>23.301905128205131</v>
       </c>
       <c r="C13">
-        <v>17.240614102564102</v>
+        <v>24.08845384615385</v>
       </c>
       <c r="D13">
-        <v>16.459161538461533</v>
+        <v>24.287200000000006</v>
       </c>
       <c r="E13">
-        <v>14.559329487179488</v>
+        <v>22.196848717948718</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>17.89025256410256</v>
+        <v>23.468601923076925</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9355,17 +9609,17 @@
         <v>23.320062820512813</v>
       </c>
       <c r="C14">
-        <v>17.205155128205124</v>
+        <v>24.150455128205124</v>
       </c>
       <c r="D14">
-        <v>16.42400512820512</v>
+        <v>24.344111538461537</v>
       </c>
       <c r="E14">
-        <v>14.529280769230771</v>
+        <v>22.237801282051276</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>17.869625961538457</v>
+        <v>23.513107692307688</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9376,17 +9630,17 @@
         <v>23.315032051282049</v>
       </c>
       <c r="C15">
-        <v>17.163291025641026</v>
+        <v>24.1220294871795</v>
       </c>
       <c r="D15">
-        <v>16.385903846153841</v>
+        <v>24.314403846153848</v>
       </c>
       <c r="E15">
-        <v>14.489296153846153</v>
+        <v>22.212552564102559</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>17.838380769230767</v>
+        <v>23.491004487179488</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9397,17 +9651,17 @@
         <v>23.31769743589744</v>
       </c>
       <c r="C16">
-        <v>17.105619230769232</v>
+        <v>24.122970512820512</v>
       </c>
       <c r="D16">
-        <v>16.325987179487193</v>
+        <v>24.311738461538468</v>
       </c>
       <c r="E16">
-        <v>14.431364102564109</v>
+        <v>22.233619230769236</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>17.795166987179492</v>
+        <v>23.496506410256412</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9418,17 +9672,17 @@
         <v>23.213105128205132</v>
       </c>
       <c r="C17">
-        <v>17.172837179487175</v>
+        <v>24.035562820512816</v>
       </c>
       <c r="D17">
-        <v>16.396251282051278</v>
+        <v>24.206152564102574</v>
       </c>
       <c r="E17">
-        <v>14.498452564102564</v>
+        <v>22.136347435897445</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>17.820161538461537</v>
+        <v>23.397791987179495</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9439,17 +9693,17 @@
         <v>23.453130769230757</v>
       </c>
       <c r="C18">
-        <v>17.178092307692314</v>
+        <v>24.266914102564105</v>
       </c>
       <c r="D18">
-        <v>16.396514102564105</v>
+        <v>24.457693589743592</v>
       </c>
       <c r="E18">
-        <v>14.497950000000001</v>
+        <v>22.382491025641031</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>17.881421794871795</v>
+        <v>23.640057371794871</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9460,17 +9714,17 @@
         <v>23.51981923076923</v>
       </c>
       <c r="C19">
-        <v>17.181950000000001</v>
+        <v>24.319373076923085</v>
       </c>
       <c r="D19">
-        <v>16.401342307692296</v>
+        <v>24.52065769230769</v>
       </c>
       <c r="E19">
-        <v>14.501884615384615</v>
+        <v>22.445978205128206</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>17.901249038461536</v>
+        <v>23.701457051282055</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9481,17 +9735,17 @@
         <v>23.446294871794869</v>
       </c>
       <c r="C20">
-        <v>17.196919230769229</v>
+        <v>24.268641025641028</v>
       </c>
       <c r="D20">
-        <v>16.410265384615382</v>
+        <v>24.46112948717948</v>
       </c>
       <c r="E20">
-        <v>14.514288461538458</v>
+        <v>22.376625641025644</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>17.891941987179486</v>
+        <v>23.638172756410253</v>
       </c>
     </row>
   </sheetData>
@@ -9505,7 +9759,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B20"/>
+      <selection activeCell="C2" sqref="C2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -9535,17 +9789,17 @@
         <v>17.426308974358978</v>
       </c>
       <c r="C2">
-        <v>16.610961538461535</v>
+        <v>18.662774358974364</v>
       </c>
       <c r="D2">
-        <v>15.799564102564096</v>
+        <v>18.096824358974363</v>
       </c>
       <c r="E2">
-        <v>14.159655128205131</v>
+        <v>16.491296153846154</v>
       </c>
       <c r="F2">
         <f>AVERAGE(B2:E2)</f>
-        <v>15.999122435897435</v>
+        <v>17.669300961538465</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9556,17 +9810,17 @@
         <v>19.679421794871796</v>
       </c>
       <c r="C3">
-        <v>17.056135897435905</v>
+        <v>20.714446153846154</v>
       </c>
       <c r="D3">
-        <v>16.207035897435894</v>
+        <v>20.368235897435891</v>
       </c>
       <c r="E3">
-        <v>14.486397435897437</v>
+        <v>18.589117948717945</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F20" si="0">AVERAGE(B3:E3)</f>
-        <v>16.85724775641026</v>
+        <v>19.837805448717948</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9577,17 +9831,17 @@
         <v>21.552280769230773</v>
       </c>
       <c r="C4">
-        <v>17.385602564102562</v>
+        <v>22.404116666666667</v>
       </c>
       <c r="D4">
-        <v>16.532669230769233</v>
+        <v>22.27097435897436</v>
       </c>
       <c r="E4">
-        <v>14.760524358974363</v>
+        <v>20.382656410256406</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
-        <v>17.557769230769232</v>
+        <v>21.652507051282051</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9598,17 +9852,17 @@
         <v>22.193143589743602</v>
       </c>
       <c r="C5">
-        <v>17.108825641025632</v>
+        <v>22.990244871794868</v>
       </c>
       <c r="D5">
-        <v>16.254496153846155</v>
+        <v>23.04448846153845</v>
       </c>
       <c r="E5">
-        <v>14.430798717948713</v>
+        <v>21.010605128205132</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>17.496816025641024</v>
+        <v>22.309620512820512</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9619,17 +9873,17 @@
         <v>22.604306410256413</v>
       </c>
       <c r="C6">
-        <v>17.064541025641045</v>
+        <v>23.460807692307696</v>
       </c>
       <c r="D6">
-        <v>16.201048717948716</v>
+        <v>23.555626923076918</v>
       </c>
       <c r="E6">
-        <v>14.358848717948717</v>
+        <v>21.447743589743581</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>17.557186217948725</v>
+        <v>22.767121153846151</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9640,17 +9894,17 @@
         <v>22.603956410256409</v>
       </c>
       <c r="C7">
-        <v>17.036182051282051</v>
+        <v>23.457629487179481</v>
       </c>
       <c r="D7">
-        <v>16.169267948717945</v>
+        <v>23.612942307692304</v>
       </c>
       <c r="E7">
-        <v>14.328652564102558</v>
+        <v>21.443462820512817</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>17.534514743589739</v>
+        <v>22.779497756410255</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9661,17 +9915,17 @@
         <v>22.79833846153846</v>
       </c>
       <c r="C8">
-        <v>16.990988461538464</v>
+        <v>23.667312820512819</v>
       </c>
       <c r="D8">
-        <v>16.138521794871792</v>
+        <v>23.808115384615387</v>
       </c>
       <c r="E8">
-        <v>14.298049999999998</v>
+        <v>21.651550000000007</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>17.556474679487181</v>
+        <v>22.981329166666669</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9682,17 +9936,17 @@
         <v>22.816441025641023</v>
       </c>
       <c r="C9">
-        <v>17.042378205128212</v>
+        <v>23.7085641025641</v>
       </c>
       <c r="D9">
-        <v>16.196466666666662</v>
+        <v>23.838810256410266</v>
       </c>
       <c r="E9">
-        <v>14.349793589743589</v>
+        <v>21.693602564102559</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>17.601269871794869</v>
+        <v>23.014354487179489</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9703,17 +9957,17 @@
         <v>23.121764102564107</v>
       </c>
       <c r="C10">
-        <v>16.906071794871796</v>
+        <v>23.953612820512824</v>
       </c>
       <c r="D10">
-        <v>16.050488461538468</v>
+        <v>24.12758461538461</v>
       </c>
       <c r="E10">
-        <v>14.20370769230769</v>
+        <v>21.967300000000002</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>17.570508012820515</v>
+        <v>23.292565384615386</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9724,17 +9978,17 @@
         <v>23.095743589743584</v>
       </c>
       <c r="C11">
-        <v>17.03533205128204</v>
+        <v>23.934225641025645</v>
       </c>
       <c r="D11">
-        <v>16.179283333333331</v>
+        <v>24.111055128205123</v>
       </c>
       <c r="E11">
-        <v>14.326838461538465</v>
+        <v>21.95138846153846</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>17.659299358974355</v>
+        <v>23.273103205128201</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9745,17 +9999,17 @@
         <v>23.433337179487182</v>
       </c>
       <c r="C12">
-        <v>17.087752564102576</v>
+        <v>24.280403846153845</v>
       </c>
       <c r="D12">
-        <v>16.22352051282051</v>
+        <v>24.455294871794869</v>
       </c>
       <c r="E12">
-        <v>14.373206410256412</v>
+        <v>22.308714102564096</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>17.779454166666671</v>
+        <v>23.619437499999997</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9766,17 +10020,17 @@
         <v>23.336497435897439</v>
       </c>
       <c r="C13">
-        <v>17.091519230769233</v>
+        <v>24.152088461538472</v>
       </c>
       <c r="D13">
-        <v>16.225405128205125</v>
+        <v>24.37862179487179</v>
       </c>
       <c r="E13">
-        <v>14.378693589743589</v>
+        <v>22.183582051282048</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>17.758028846153845</v>
+        <v>23.512697435897437</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9787,17 +10041,17 @@
         <v>23.34396794871795</v>
       </c>
       <c r="C14">
-        <v>17.059835897435896</v>
+        <v>24.199221794871782</v>
       </c>
       <c r="D14">
-        <v>16.198399999999999</v>
+        <v>24.42335769230769</v>
       </c>
       <c r="E14">
-        <v>14.350542307692303</v>
+        <v>22.211139743589744</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>17.738186538461537</v>
+        <v>23.544421794871791</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9808,17 +10062,17 @@
         <v>23.352783333333342</v>
       </c>
       <c r="C15">
-        <v>17.025419230769234</v>
+        <v>24.188593589743594</v>
       </c>
       <c r="D15">
-        <v>16.165744871794871</v>
+        <v>24.417412820512826</v>
       </c>
       <c r="E15">
-        <v>14.315370512820513</v>
+        <v>22.202341025641033</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>17.71482948717949</v>
+        <v>23.540282692307699</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9829,17 +10083,17 @@
         <v>23.401357692307695</v>
       </c>
       <c r="C16">
-        <v>16.990106410256406</v>
+        <v>24.257756410256412</v>
       </c>
       <c r="D16">
-        <v>16.127571794871784</v>
+        <v>24.477335897435907</v>
       </c>
       <c r="E16">
-        <v>14.273557692307687</v>
+        <v>22.277714102564111</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>17.698148397435894</v>
+        <v>23.603541025641029</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9850,17 +10104,17 @@
         <v>23.309714102564101</v>
       </c>
       <c r="C17">
-        <v>17.038064102564096</v>
+        <v>24.191160256410249</v>
       </c>
       <c r="D17">
-        <v>16.179748717948716</v>
+        <v>24.389723076923072</v>
       </c>
       <c r="E17">
-        <v>14.326788461538463</v>
+        <v>22.210476923076929</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>17.713578846153844</v>
+        <v>23.525268589743586</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9871,17 +10125,17 @@
         <v>23.495664102564099</v>
       </c>
       <c r="C18">
-        <v>17.0412717948718</v>
+        <v>24.345823076923079</v>
       </c>
       <c r="D18">
-        <v>16.179980769230767</v>
+        <v>24.570106410256415</v>
       </c>
       <c r="E18">
-        <v>14.325697435897432</v>
+        <v>22.377855128205123</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>17.760653525641025</v>
+        <v>23.697362179487179</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9892,17 +10146,17 @@
         <v>23.551088461538463</v>
       </c>
       <c r="C19">
-        <v>17.044283333333336</v>
+        <v>24.379674358974366</v>
       </c>
       <c r="D19">
-        <v>16.180355128205118</v>
+        <v>24.615794871794876</v>
       </c>
       <c r="E19">
-        <v>14.329602564102562</v>
+        <v>22.420406410256408</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>17.776332371794869</v>
+        <v>23.741741025641026</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -9913,17 +10167,17 @@
         <v>23.501671794871797</v>
       </c>
       <c r="C20">
-        <v>17.055311538461542</v>
+        <v>24.369998717948718</v>
       </c>
       <c r="D20">
-        <v>16.189221794871795</v>
+        <v>24.587275641025638</v>
       </c>
       <c r="E20">
-        <v>14.339917948717945</v>
+        <v>22.394291025641024</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>17.771530769230768</v>
+        <v>23.713309294871795</v>
       </c>
     </row>
   </sheetData>

--- a/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy400_ptAll-nph_tileExpand.xlsx
+++ b/realsense/numbers/PSNR/prop-improve/by_real/detail/psnr-average_real_prop-improve-NxNy400_ptAll-nph_tileExpand.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\渡辺　哲生\source\repos\realsense\realsense\numbers\PSNR\prop-improve\by_real\detail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FA9EC8-36E2-4C7A-847D-BDB508D53265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFBFDE5-47D6-452D-9530-7ABE46931D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{787CAC4F-C68D-4530-9FDA-15BDCA93F7E1}"/>
   </bookViews>
@@ -1881,7 +1881,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
